--- a/results/accuracy_assessment_table.xlsx
+++ b/results/accuracy_assessment_table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\hispaniola_land_cover_mapping\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28469A20-A494-49D5-AD06-FA0E18653FAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5783D075-10A1-4354-8720-DF5D19C53810}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18000" tabRatio="741" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" tabRatio="741" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="landcover_validation_record" sheetId="1" r:id="rId1"/>
@@ -3220,31 +3220,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N401"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="N36" sqref="N36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9.26953125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.23046875" style="2"/>
-    <col min="2" max="2" width="13.53515625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="9.3046875" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.84375" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.07421875" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.53515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.84375" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.4609375" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21.53515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.15234375" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.26953125" style="2"/>
+    <col min="2" max="2" width="13.54296875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="9.26953125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.08984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.1796875" style="2" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="21.3046875" style="2" customWidth="1"/>
-    <col min="13" max="13" width="18.4609375" style="2" customWidth="1"/>
-    <col min="14" max="14" width="16.69140625" style="2" customWidth="1"/>
-    <col min="15" max="16384" width="9.23046875" style="2"/>
+    <col min="12" max="12" width="21.26953125" style="2" customWidth="1"/>
+    <col min="13" max="13" width="18.453125" style="2" customWidth="1"/>
+    <col min="14" max="14" width="16.7265625" style="2" customWidth="1"/>
+    <col min="15" max="16384" width="9.26953125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>430</v>
       </c>
@@ -3288,7 +3288,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -3333,7 +3333,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -3378,7 +3378,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -3423,7 +3423,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -3468,7 +3468,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -3513,7 +3513,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -3558,7 +3558,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -3603,7 +3603,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -3648,7 +3648,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -3693,7 +3693,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -3738,7 +3738,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -3783,7 +3783,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -3828,7 +3828,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -3873,7 +3873,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -3918,7 +3918,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -3963,7 +3963,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -4008,7 +4008,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -4053,7 +4053,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -4098,7 +4098,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -4143,7 +4143,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A21" s="2">
         <v>20</v>
       </c>
@@ -4188,7 +4188,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A22" s="2">
         <v>21</v>
       </c>
@@ -4233,7 +4233,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A23" s="2">
         <v>22</v>
       </c>
@@ -4278,7 +4278,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A24" s="2">
         <v>23</v>
       </c>
@@ -4323,7 +4323,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A25" s="2">
         <v>24</v>
       </c>
@@ -4368,7 +4368,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A26" s="2">
         <v>25</v>
       </c>
@@ -4413,7 +4413,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A27" s="2">
         <v>26</v>
       </c>
@@ -4458,7 +4458,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A28" s="2">
         <v>27</v>
       </c>
@@ -4505,7 +4505,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A29" s="2">
         <v>28</v>
       </c>
@@ -4550,7 +4550,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A30" s="2">
         <v>29</v>
       </c>
@@ -4595,7 +4595,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A31" s="2">
         <v>30</v>
       </c>
@@ -4640,7 +4640,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A32" s="2">
         <v>31</v>
       </c>
@@ -4685,7 +4685,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A33" s="2">
         <v>32</v>
       </c>
@@ -4730,7 +4730,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A34" s="2">
         <v>33</v>
       </c>
@@ -4775,7 +4775,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A35" s="2">
         <v>34</v>
       </c>
@@ -4820,7 +4820,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A36" s="2">
         <v>35</v>
       </c>
@@ -4865,7 +4865,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A37" s="2">
         <v>36</v>
       </c>
@@ -4910,7 +4910,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A38" s="2">
         <v>37</v>
       </c>
@@ -4955,7 +4955,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A39" s="2">
         <v>38</v>
       </c>
@@ -5000,7 +5000,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A40" s="2">
         <v>39</v>
       </c>
@@ -5045,7 +5045,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A41" s="2">
         <v>40</v>
       </c>
@@ -5090,7 +5090,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A42" s="2">
         <v>41</v>
       </c>
@@ -5135,7 +5135,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A43" s="2">
         <v>42</v>
       </c>
@@ -5180,7 +5180,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A44" s="2">
         <v>43</v>
       </c>
@@ -5225,7 +5225,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A45" s="2">
         <v>44</v>
       </c>
@@ -5270,7 +5270,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A46" s="2">
         <v>45</v>
       </c>
@@ -5315,7 +5315,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A47" s="2">
         <v>46</v>
       </c>
@@ -5360,7 +5360,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A48" s="2">
         <v>47</v>
       </c>
@@ -5405,7 +5405,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A49" s="2">
         <v>48</v>
       </c>
@@ -5450,7 +5450,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A50" s="2">
         <v>49</v>
       </c>
@@ -5495,7 +5495,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A51" s="2">
         <v>50</v>
       </c>
@@ -5540,7 +5540,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A52" s="2">
         <v>51</v>
       </c>
@@ -5587,7 +5587,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A53" s="2">
         <v>52</v>
       </c>
@@ -5632,7 +5632,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A54" s="2">
         <v>53</v>
       </c>
@@ -5677,7 +5677,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A55" s="2">
         <v>54</v>
       </c>
@@ -5722,7 +5722,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A56" s="2">
         <v>55</v>
       </c>
@@ -5767,7 +5767,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A57" s="2">
         <v>56</v>
       </c>
@@ -5812,7 +5812,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A58" s="2">
         <v>57</v>
       </c>
@@ -5857,7 +5857,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A59" s="2">
         <v>58</v>
       </c>
@@ -5902,7 +5902,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A60" s="2">
         <v>59</v>
       </c>
@@ -5947,7 +5947,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A61" s="2">
         <v>60</v>
       </c>
@@ -5992,7 +5992,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A62" s="2">
         <v>61</v>
       </c>
@@ -6037,7 +6037,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A63" s="2">
         <v>62</v>
       </c>
@@ -6082,7 +6082,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A64" s="2">
         <v>63</v>
       </c>
@@ -6127,7 +6127,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A65" s="2">
         <v>64</v>
       </c>
@@ -6172,7 +6172,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A66" s="2">
         <v>65</v>
       </c>
@@ -6217,7 +6217,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A67" s="2">
         <v>66</v>
       </c>
@@ -6262,7 +6262,7 @@
       </c>
       <c r="N67" s="5"/>
     </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A68" s="2">
         <v>67</v>
       </c>
@@ -6307,7 +6307,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A69" s="2">
         <v>68</v>
       </c>
@@ -6354,7 +6354,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A70" s="2">
         <v>69</v>
       </c>
@@ -6399,7 +6399,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A71" s="2">
         <v>70</v>
       </c>
@@ -6444,7 +6444,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A72" s="2">
         <v>71</v>
       </c>
@@ -6489,7 +6489,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A73" s="2">
         <v>72</v>
       </c>
@@ -6534,7 +6534,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A74" s="2">
         <v>73</v>
       </c>
@@ -6579,7 +6579,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A75" s="2">
         <v>74</v>
       </c>
@@ -6624,7 +6624,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A76" s="2">
         <v>75</v>
       </c>
@@ -6669,7 +6669,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A77" s="2">
         <v>76</v>
       </c>
@@ -6714,7 +6714,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A78" s="2">
         <v>77</v>
       </c>
@@ -6759,7 +6759,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A79" s="2">
         <v>78</v>
       </c>
@@ -6804,7 +6804,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A80" s="2">
         <v>79</v>
       </c>
@@ -6849,7 +6849,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A81" s="2">
         <v>80</v>
       </c>
@@ -6894,7 +6894,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A82" s="2">
         <v>81</v>
       </c>
@@ -6939,7 +6939,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A83" s="2">
         <v>82</v>
       </c>
@@ -6984,7 +6984,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A84" s="2">
         <v>83</v>
       </c>
@@ -7029,7 +7029,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A85" s="2">
         <v>84</v>
       </c>
@@ -7074,7 +7074,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A86" s="2">
         <v>85</v>
       </c>
@@ -7119,7 +7119,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A87" s="2">
         <v>86</v>
       </c>
@@ -7164,7 +7164,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A88" s="2">
         <v>87</v>
       </c>
@@ -7209,7 +7209,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A89" s="2">
         <v>88</v>
       </c>
@@ -7256,7 +7256,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A90" s="2">
         <v>89</v>
       </c>
@@ -7301,7 +7301,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A91" s="2">
         <v>90</v>
       </c>
@@ -7346,7 +7346,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A92" s="2">
         <v>91</v>
       </c>
@@ -7391,7 +7391,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A93" s="2">
         <v>92</v>
       </c>
@@ -7436,7 +7436,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A94" s="2">
         <v>93</v>
       </c>
@@ -7481,7 +7481,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A95" s="2">
         <v>94</v>
       </c>
@@ -7526,7 +7526,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A96" s="2">
         <v>95</v>
       </c>
@@ -7571,7 +7571,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A97" s="2">
         <v>96</v>
       </c>
@@ -7616,7 +7616,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A98" s="2">
         <v>97</v>
       </c>
@@ -7661,7 +7661,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A99" s="2">
         <v>98</v>
       </c>
@@ -7708,7 +7708,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A100" s="2">
         <v>99</v>
       </c>
@@ -7753,7 +7753,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A101" s="2">
         <v>100</v>
       </c>
@@ -7798,7 +7798,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="102" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A102" s="2">
         <v>101</v>
       </c>
@@ -7843,7 +7843,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="103" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A103" s="2">
         <v>102</v>
       </c>
@@ -7888,7 +7888,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="104" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A104" s="2">
         <v>103</v>
       </c>
@@ -7933,7 +7933,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="105" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A105" s="2">
         <v>104</v>
       </c>
@@ -7978,7 +7978,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="106" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A106" s="2">
         <v>105</v>
       </c>
@@ -8023,7 +8023,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="107" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A107" s="2">
         <v>106</v>
       </c>
@@ -8068,7 +8068,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="108" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A108" s="2">
         <v>107</v>
       </c>
@@ -8113,7 +8113,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="109" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A109" s="2">
         <v>108</v>
       </c>
@@ -8158,7 +8158,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="110" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A110" s="2">
         <v>109</v>
       </c>
@@ -8203,7 +8203,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="111" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A111" s="2">
         <v>110</v>
       </c>
@@ -8250,7 +8250,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="112" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A112" s="2">
         <v>111</v>
       </c>
@@ -8295,7 +8295,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="113" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A113" s="2">
         <v>112</v>
       </c>
@@ -8340,7 +8340,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="114" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="114" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A114" s="2">
         <v>113</v>
       </c>
@@ -8385,7 +8385,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="115" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="115" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A115" s="2">
         <v>114</v>
       </c>
@@ -8430,7 +8430,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="116" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="116" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A116" s="2">
         <v>115</v>
       </c>
@@ -8475,7 +8475,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="117" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="117" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A117" s="2">
         <v>116</v>
       </c>
@@ -8520,7 +8520,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="118" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="118" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A118" s="2">
         <v>117</v>
       </c>
@@ -8565,7 +8565,7 @@
       </c>
       <c r="N118" s="5"/>
     </row>
-    <row r="119" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="119" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A119" s="2">
         <v>118</v>
       </c>
@@ -8610,7 +8610,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="120" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="120" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A120" s="2">
         <v>119</v>
       </c>
@@ -8655,7 +8655,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="121" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="121" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A121" s="2">
         <v>120</v>
       </c>
@@ -8700,7 +8700,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="122" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="122" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A122" s="2">
         <v>121</v>
       </c>
@@ -8745,7 +8745,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="123" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="123" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A123" s="2">
         <v>122</v>
       </c>
@@ -8790,7 +8790,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="124" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="124" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A124" s="2">
         <v>123</v>
       </c>
@@ -8835,7 +8835,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="125" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="125" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A125" s="2">
         <v>124</v>
       </c>
@@ -8880,7 +8880,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="126" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="126" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A126" s="2">
         <v>125</v>
       </c>
@@ -8925,7 +8925,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="127" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="127" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A127" s="2">
         <v>126</v>
       </c>
@@ -8970,7 +8970,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="128" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="128" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A128" s="2">
         <v>127</v>
       </c>
@@ -9015,7 +9015,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="129" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="129" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A129" s="2">
         <v>128</v>
       </c>
@@ -9060,7 +9060,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="130" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="130" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A130" s="2">
         <v>129</v>
       </c>
@@ -9105,7 +9105,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="131" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="131" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A131" s="2">
         <v>130</v>
       </c>
@@ -9150,7 +9150,7 @@
       </c>
       <c r="N131" s="5"/>
     </row>
-    <row r="132" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="132" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A132" s="2">
         <v>131</v>
       </c>
@@ -9195,7 +9195,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="133" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="133" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A133" s="2">
         <v>132</v>
       </c>
@@ -9240,7 +9240,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="134" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="134" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A134" s="2">
         <v>133</v>
       </c>
@@ -9285,7 +9285,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="135" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="135" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A135" s="2">
         <v>134</v>
       </c>
@@ -9330,7 +9330,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="136" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="136" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A136" s="2">
         <v>135</v>
       </c>
@@ -9375,7 +9375,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="137" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="137" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A137" s="2">
         <v>136</v>
       </c>
@@ -9420,7 +9420,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="138" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="138" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A138" s="2">
         <v>137</v>
       </c>
@@ -9465,7 +9465,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="139" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="139" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A139" s="2">
         <v>138</v>
       </c>
@@ -9512,7 +9512,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="140" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="140" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A140" s="2">
         <v>139</v>
       </c>
@@ -9557,7 +9557,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="141" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="141" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A141" s="2">
         <v>140</v>
       </c>
@@ -9602,7 +9602,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="142" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="142" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A142" s="2">
         <v>141</v>
       </c>
@@ -9647,7 +9647,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="143" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="143" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A143" s="2">
         <v>142</v>
       </c>
@@ -9692,7 +9692,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="144" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="144" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A144" s="2">
         <v>143</v>
       </c>
@@ -9737,7 +9737,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="145" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="145" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A145" s="2">
         <v>144</v>
       </c>
@@ -9782,7 +9782,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="146" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="146" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A146" s="2">
         <v>145</v>
       </c>
@@ -9827,7 +9827,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="147" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="147" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A147" s="2">
         <v>146</v>
       </c>
@@ -9872,7 +9872,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="148" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="148" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A148" s="2">
         <v>147</v>
       </c>
@@ -9917,7 +9917,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="149" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="149" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A149" s="2">
         <v>148</v>
       </c>
@@ -9962,7 +9962,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="150" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="150" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A150" s="2">
         <v>149</v>
       </c>
@@ -10007,7 +10007,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="151" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="151" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A151" s="2">
         <v>150</v>
       </c>
@@ -10052,7 +10052,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="152" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="152" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A152" s="2">
         <v>151</v>
       </c>
@@ -10097,7 +10097,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="153" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="153" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A153" s="2">
         <v>152</v>
       </c>
@@ -10142,7 +10142,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="154" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="154" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A154" s="2">
         <v>153</v>
       </c>
@@ -10187,7 +10187,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="155" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="155" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A155" s="2">
         <v>154</v>
       </c>
@@ -10232,7 +10232,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="156" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="156" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A156" s="2">
         <v>155</v>
       </c>
@@ -10277,7 +10277,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="157" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="157" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A157" s="2">
         <v>156</v>
       </c>
@@ -10322,7 +10322,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="158" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="158" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A158" s="2">
         <v>157</v>
       </c>
@@ -10367,7 +10367,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="159" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="159" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A159" s="2">
         <v>158</v>
       </c>
@@ -10412,7 +10412,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="160" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="160" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A160" s="2">
         <v>159</v>
       </c>
@@ -10457,7 +10457,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="161" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="161" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A161" s="2">
         <v>160</v>
       </c>
@@ -10502,7 +10502,7 @@
       </c>
       <c r="N161" s="5"/>
     </row>
-    <row r="162" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="162" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A162" s="2">
         <v>161</v>
       </c>
@@ -10547,7 +10547,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="163" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="163" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A163" s="2">
         <v>162</v>
       </c>
@@ -10592,7 +10592,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="164" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="164" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A164" s="2">
         <v>163</v>
       </c>
@@ -10637,7 +10637,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="165" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="165" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A165" s="2">
         <v>164</v>
       </c>
@@ -10682,7 +10682,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="166" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="166" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A166" s="2">
         <v>165</v>
       </c>
@@ -10727,7 +10727,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="167" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="167" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A167" s="2">
         <v>166</v>
       </c>
@@ -10772,7 +10772,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="168" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="168" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A168" s="2">
         <v>167</v>
       </c>
@@ -10817,7 +10817,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="169" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="169" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A169" s="2">
         <v>168</v>
       </c>
@@ -10862,7 +10862,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="170" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="170" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A170" s="2">
         <v>169</v>
       </c>
@@ -10907,7 +10907,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="171" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="171" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A171" s="2">
         <v>170</v>
       </c>
@@ -10952,7 +10952,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="172" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="172" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A172" s="2">
         <v>171</v>
       </c>
@@ -10997,7 +10997,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="173" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="173" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A173" s="2">
         <v>172</v>
       </c>
@@ -11042,7 +11042,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="174" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="174" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A174" s="2">
         <v>173</v>
       </c>
@@ -11087,7 +11087,7 @@
       </c>
       <c r="N174" s="5"/>
     </row>
-    <row r="175" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="175" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A175" s="2">
         <v>174</v>
       </c>
@@ -11132,7 +11132,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="176" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="176" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A176" s="2">
         <v>175</v>
       </c>
@@ -11177,7 +11177,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="177" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="177" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A177" s="2">
         <v>176</v>
       </c>
@@ -11222,7 +11222,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="178" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="178" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A178" s="2">
         <v>177</v>
       </c>
@@ -11267,7 +11267,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="179" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="179" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A179" s="2">
         <v>178</v>
       </c>
@@ -11312,7 +11312,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="180" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="180" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A180" s="2">
         <v>179</v>
       </c>
@@ -11357,7 +11357,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="181" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="181" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A181" s="2">
         <v>180</v>
       </c>
@@ -11402,7 +11402,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="182" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="182" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A182" s="2">
         <v>181</v>
       </c>
@@ -11447,7 +11447,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="183" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="183" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A183" s="2">
         <v>182</v>
       </c>
@@ -11492,7 +11492,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="184" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="184" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A184" s="2">
         <v>183</v>
       </c>
@@ -11537,7 +11537,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="185" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="185" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A185" s="2">
         <v>184</v>
       </c>
@@ -11584,7 +11584,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="186" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="186" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A186" s="2">
         <v>185</v>
       </c>
@@ -11631,7 +11631,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="187" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="187" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A187" s="2">
         <v>186</v>
       </c>
@@ -11676,7 +11676,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="188" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="188" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A188" s="2">
         <v>187</v>
       </c>
@@ -11721,7 +11721,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="189" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="189" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A189" s="2">
         <v>188</v>
       </c>
@@ -11766,7 +11766,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="190" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="190" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A190" s="2">
         <v>189</v>
       </c>
@@ -11811,7 +11811,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="191" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="191" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A191" s="2">
         <v>190</v>
       </c>
@@ -11856,7 +11856,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="192" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="192" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A192" s="2">
         <v>191</v>
       </c>
@@ -11901,7 +11901,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="193" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="193" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A193" s="2">
         <v>192</v>
       </c>
@@ -11946,7 +11946,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="194" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="194" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A194" s="2">
         <v>193</v>
       </c>
@@ -11991,7 +11991,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="195" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="195" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A195" s="2">
         <v>194</v>
       </c>
@@ -12036,7 +12036,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="196" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="196" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A196" s="2">
         <v>195</v>
       </c>
@@ -12081,7 +12081,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="197" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="197" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A197" s="2">
         <v>196</v>
       </c>
@@ -12126,7 +12126,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="198" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="198" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A198" s="2">
         <v>197</v>
       </c>
@@ -12171,7 +12171,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="199" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="199" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A199" s="2">
         <v>198</v>
       </c>
@@ -12216,7 +12216,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="200" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="200" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A200" s="2">
         <v>199</v>
       </c>
@@ -12261,7 +12261,7 @@
       </c>
       <c r="N200" s="6"/>
     </row>
-    <row r="201" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="201" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A201" s="2">
         <v>200</v>
       </c>
@@ -12306,7 +12306,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="202" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="202" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A202" s="2">
         <v>201</v>
       </c>
@@ -12351,7 +12351,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="203" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="203" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A203" s="2">
         <v>202</v>
       </c>
@@ -12396,7 +12396,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="204" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="204" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A204" s="2">
         <v>203</v>
       </c>
@@ -12441,7 +12441,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="205" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="205" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A205" s="2">
         <v>204</v>
       </c>
@@ -12486,7 +12486,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="206" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="206" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A206" s="2">
         <v>205</v>
       </c>
@@ -12531,7 +12531,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="207" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="207" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A207" s="2">
         <v>206</v>
       </c>
@@ -12576,7 +12576,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="208" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="208" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A208" s="2">
         <v>207</v>
       </c>
@@ -12621,7 +12621,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="209" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="209" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A209" s="2">
         <v>208</v>
       </c>
@@ -12666,7 +12666,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="210" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="210" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A210" s="2">
         <v>209</v>
       </c>
@@ -12711,7 +12711,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="211" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="211" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A211" s="2">
         <v>210</v>
       </c>
@@ -12756,7 +12756,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="212" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="212" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A212" s="2">
         <v>211</v>
       </c>
@@ -12801,7 +12801,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="213" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="213" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A213" s="2">
         <v>212</v>
       </c>
@@ -12846,7 +12846,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="214" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="214" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A214" s="2">
         <v>213</v>
       </c>
@@ -12891,7 +12891,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="215" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="215" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A215" s="2">
         <v>214</v>
       </c>
@@ -12936,7 +12936,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="216" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="216" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A216" s="2">
         <v>215</v>
       </c>
@@ -12981,7 +12981,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="217" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="217" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A217" s="2">
         <v>216</v>
       </c>
@@ -13026,7 +13026,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="218" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="218" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A218" s="2">
         <v>217</v>
       </c>
@@ -13071,7 +13071,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="219" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="219" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A219" s="2">
         <v>218</v>
       </c>
@@ -13116,7 +13116,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="220" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="220" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A220" s="2">
         <v>219</v>
       </c>
@@ -13161,7 +13161,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="221" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="221" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A221" s="2">
         <v>220</v>
       </c>
@@ -13206,7 +13206,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="222" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="222" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A222" s="2">
         <v>221</v>
       </c>
@@ -13251,7 +13251,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="223" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="223" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A223" s="2">
         <v>222</v>
       </c>
@@ -13296,7 +13296,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="224" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="224" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A224" s="2">
         <v>223</v>
       </c>
@@ -13341,7 +13341,7 @@
       </c>
       <c r="N224" s="6"/>
     </row>
-    <row r="225" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="225" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A225" s="2">
         <v>224</v>
       </c>
@@ -13386,7 +13386,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="226" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="226" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A226" s="2">
         <v>225</v>
       </c>
@@ -13431,7 +13431,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="227" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="227" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A227" s="2">
         <v>226</v>
       </c>
@@ -13476,7 +13476,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="228" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="228" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A228" s="2">
         <v>227</v>
       </c>
@@ -13521,7 +13521,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="229" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="229" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A229" s="2">
         <v>228</v>
       </c>
@@ -13566,7 +13566,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="230" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="230" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A230" s="2">
         <v>229</v>
       </c>
@@ -13611,7 +13611,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="231" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="231" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A231" s="2">
         <v>230</v>
       </c>
@@ -13656,7 +13656,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="232" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="232" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A232" s="2">
         <v>231</v>
       </c>
@@ -13701,7 +13701,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="233" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="233" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A233" s="2">
         <v>232</v>
       </c>
@@ -13746,7 +13746,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="234" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="234" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A234" s="2">
         <v>233</v>
       </c>
@@ -13791,7 +13791,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="235" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="235" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A235" s="2">
         <v>234</v>
       </c>
@@ -13836,7 +13836,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="236" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="236" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A236" s="2">
         <v>235</v>
       </c>
@@ -13883,7 +13883,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="237" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="237" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A237" s="2">
         <v>236</v>
       </c>
@@ -13928,7 +13928,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="238" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="238" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A238" s="2">
         <v>237</v>
       </c>
@@ -13973,7 +13973,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="239" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="239" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A239" s="2">
         <v>238</v>
       </c>
@@ -14018,7 +14018,7 @@
       </c>
       <c r="N239" s="6"/>
     </row>
-    <row r="240" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="240" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A240" s="2">
         <v>239</v>
       </c>
@@ -14063,7 +14063,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="241" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="241" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A241" s="2">
         <v>240</v>
       </c>
@@ -14110,7 +14110,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="242" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="242" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A242" s="2">
         <v>241</v>
       </c>
@@ -14155,7 +14155,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="243" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="243" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A243" s="2">
         <v>242</v>
       </c>
@@ -14200,7 +14200,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="244" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="244" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A244" s="2">
         <v>243</v>
       </c>
@@ -14245,7 +14245,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="245" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="245" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A245" s="2">
         <v>244</v>
       </c>
@@ -14290,7 +14290,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="246" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="246" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A246" s="2">
         <v>245</v>
       </c>
@@ -14335,7 +14335,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="247" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="247" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A247" s="2">
         <v>246</v>
       </c>
@@ -14380,7 +14380,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="248" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="248" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A248" s="2">
         <v>247</v>
       </c>
@@ -14425,7 +14425,7 @@
       </c>
       <c r="N248" s="6"/>
     </row>
-    <row r="249" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="249" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A249" s="2">
         <v>248</v>
       </c>
@@ -14470,7 +14470,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="250" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="250" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A250" s="2">
         <v>249</v>
       </c>
@@ -14515,7 +14515,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="251" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="251" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A251" s="2">
         <v>250</v>
       </c>
@@ -14560,7 +14560,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="252" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="252" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A252" s="2">
         <v>251</v>
       </c>
@@ -14605,7 +14605,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="253" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="253" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A253" s="2">
         <v>252</v>
       </c>
@@ -14650,7 +14650,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="254" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="254" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A254" s="2">
         <v>253</v>
       </c>
@@ -14695,7 +14695,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="255" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="255" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A255" s="2">
         <v>254</v>
       </c>
@@ -14740,7 +14740,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="256" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="256" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A256" s="2">
         <v>255</v>
       </c>
@@ -14785,7 +14785,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="257" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="257" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A257" s="2">
         <v>256</v>
       </c>
@@ -14830,7 +14830,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="258" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="258" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A258" s="2">
         <v>257</v>
       </c>
@@ -14875,7 +14875,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="259" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="259" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A259" s="2">
         <v>258</v>
       </c>
@@ -14920,7 +14920,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="260" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="260" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A260" s="2">
         <v>259</v>
       </c>
@@ -14965,7 +14965,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="261" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="261" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A261" s="2">
         <v>260</v>
       </c>
@@ -15010,7 +15010,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="262" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="262" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A262" s="2">
         <v>261</v>
       </c>
@@ -15055,7 +15055,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="263" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="263" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A263" s="2">
         <v>262</v>
       </c>
@@ -15100,7 +15100,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="264" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="264" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A264" s="2">
         <v>263</v>
       </c>
@@ -15145,7 +15145,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="265" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="265" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A265" s="2">
         <v>264</v>
       </c>
@@ -15190,7 +15190,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="266" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="266" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A266" s="2">
         <v>265</v>
       </c>
@@ -15235,7 +15235,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="267" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="267" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A267" s="2">
         <v>266</v>
       </c>
@@ -15280,7 +15280,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="268" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="268" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A268" s="2">
         <v>267</v>
       </c>
@@ -15325,7 +15325,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="269" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="269" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A269" s="2">
         <v>268</v>
       </c>
@@ -15370,7 +15370,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="270" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="270" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A270" s="2">
         <v>269</v>
       </c>
@@ -15415,7 +15415,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="271" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="271" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A271" s="2">
         <v>270</v>
       </c>
@@ -15460,7 +15460,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="272" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="272" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A272" s="2">
         <v>271</v>
       </c>
@@ -15505,7 +15505,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="273" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="273" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A273" s="2">
         <v>272</v>
       </c>
@@ -15550,7 +15550,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="274" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="274" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A274" s="2">
         <v>273</v>
       </c>
@@ -15595,7 +15595,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="275" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="275" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A275" s="2">
         <v>274</v>
       </c>
@@ -15640,7 +15640,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="276" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="276" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A276" s="2">
         <v>275</v>
       </c>
@@ -15685,7 +15685,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="277" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="277" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A277" s="2">
         <v>276</v>
       </c>
@@ -15730,7 +15730,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="278" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="278" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A278" s="2">
         <v>277</v>
       </c>
@@ -15775,7 +15775,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="279" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="279" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A279" s="2">
         <v>278</v>
       </c>
@@ -15820,7 +15820,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="280" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="280" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A280" s="2">
         <v>279</v>
       </c>
@@ -15865,7 +15865,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="281" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="281" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A281" s="2">
         <v>280</v>
       </c>
@@ -15910,7 +15910,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="282" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="282" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A282" s="2">
         <v>281</v>
       </c>
@@ -15955,7 +15955,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="283" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="283" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A283" s="2">
         <v>282</v>
       </c>
@@ -16000,7 +16000,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="284" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="284" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A284" s="2">
         <v>283</v>
       </c>
@@ -16045,7 +16045,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="285" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="285" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A285" s="2">
         <v>284</v>
       </c>
@@ -16090,7 +16090,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="286" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="286" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A286" s="2">
         <v>285</v>
       </c>
@@ -16135,7 +16135,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="287" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="287" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A287" s="2">
         <v>286</v>
       </c>
@@ -16180,7 +16180,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="288" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="288" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A288" s="2">
         <v>287</v>
       </c>
@@ -16225,7 +16225,7 @@
       </c>
       <c r="N288" s="6"/>
     </row>
-    <row r="289" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="289" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A289" s="2">
         <v>288</v>
       </c>
@@ -16270,7 +16270,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="290" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="290" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A290" s="2">
         <v>289</v>
       </c>
@@ -16315,7 +16315,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="291" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="291" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A291" s="2">
         <v>290</v>
       </c>
@@ -16360,7 +16360,7 @@
       </c>
       <c r="N291" s="6"/>
     </row>
-    <row r="292" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="292" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A292" s="2">
         <v>291</v>
       </c>
@@ -16405,7 +16405,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="293" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="293" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A293" s="2">
         <v>292</v>
       </c>
@@ -16450,7 +16450,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="294" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="294" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A294" s="2">
         <v>293</v>
       </c>
@@ -16495,7 +16495,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="295" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="295" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A295" s="2">
         <v>294</v>
       </c>
@@ -16540,7 +16540,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="296" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="296" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A296" s="2">
         <v>295</v>
       </c>
@@ -16585,7 +16585,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="297" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="297" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A297" s="2">
         <v>296</v>
       </c>
@@ -16630,7 +16630,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="298" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="298" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A298" s="2">
         <v>297</v>
       </c>
@@ -16675,7 +16675,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="299" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="299" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A299" s="2">
         <v>298</v>
       </c>
@@ -16720,7 +16720,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="300" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="300" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A300" s="2">
         <v>299</v>
       </c>
@@ -16765,7 +16765,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="301" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="301" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A301" s="2">
         <v>300</v>
       </c>
@@ -16810,7 +16810,7 @@
       </c>
       <c r="N301" s="5"/>
     </row>
-    <row r="302" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="302" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A302" s="2">
         <v>301</v>
       </c>
@@ -16855,7 +16855,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="303" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="303" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A303" s="2">
         <v>302</v>
       </c>
@@ -16900,7 +16900,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="304" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="304" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A304" s="2">
         <v>303</v>
       </c>
@@ -16945,7 +16945,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="305" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="305" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A305" s="2">
         <v>304</v>
       </c>
@@ -16990,7 +16990,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="306" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="306" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A306" s="2">
         <v>305</v>
       </c>
@@ -17035,7 +17035,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="307" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="307" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A307" s="2">
         <v>306</v>
       </c>
@@ -17080,7 +17080,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="308" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="308" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A308" s="2">
         <v>307</v>
       </c>
@@ -17127,7 +17127,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="309" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="309" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A309" s="2">
         <v>308</v>
       </c>
@@ -17172,7 +17172,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="310" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="310" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A310" s="2">
         <v>309</v>
       </c>
@@ -17217,7 +17217,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="311" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="311" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A311" s="2">
         <v>310</v>
       </c>
@@ -17262,7 +17262,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="312" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="312" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A312" s="2">
         <v>311</v>
       </c>
@@ -17307,7 +17307,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="313" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="313" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A313" s="2">
         <v>312</v>
       </c>
@@ -17352,7 +17352,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="314" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="314" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A314" s="2">
         <v>313</v>
       </c>
@@ -17397,7 +17397,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="315" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="315" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A315" s="2">
         <v>314</v>
       </c>
@@ -17442,7 +17442,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="316" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="316" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A316" s="2">
         <v>315</v>
       </c>
@@ -17487,7 +17487,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="317" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="317" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A317" s="2">
         <v>316</v>
       </c>
@@ -17532,7 +17532,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="318" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="318" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A318" s="2">
         <v>317</v>
       </c>
@@ -17577,7 +17577,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="319" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="319" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A319" s="2">
         <v>318</v>
       </c>
@@ -17622,7 +17622,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="320" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="320" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A320" s="2">
         <v>319</v>
       </c>
@@ -17667,7 +17667,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="321" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="321" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A321" s="2">
         <v>320</v>
       </c>
@@ -17712,7 +17712,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="322" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="322" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A322" s="2">
         <v>321</v>
       </c>
@@ -17757,7 +17757,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="323" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="323" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A323" s="2">
         <v>322</v>
       </c>
@@ -17802,7 +17802,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="324" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="324" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A324" s="2">
         <v>323</v>
       </c>
@@ -17849,7 +17849,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="325" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="325" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A325" s="2">
         <v>324</v>
       </c>
@@ -17894,7 +17894,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="326" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="326" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A326" s="2">
         <v>325</v>
       </c>
@@ -17939,7 +17939,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="327" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="327" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A327" s="2">
         <v>326</v>
       </c>
@@ -17984,7 +17984,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="328" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="328" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A328" s="2">
         <v>327</v>
       </c>
@@ -18029,7 +18029,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="329" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="329" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A329" s="2">
         <v>328</v>
       </c>
@@ -18074,7 +18074,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="330" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="330" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A330" s="2">
         <v>329</v>
       </c>
@@ -18121,7 +18121,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="331" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="331" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A331" s="2">
         <v>330</v>
       </c>
@@ -18166,7 +18166,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="332" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="332" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A332" s="2">
         <v>331</v>
       </c>
@@ -18211,7 +18211,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="333" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="333" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A333" s="2">
         <v>332</v>
       </c>
@@ -18256,7 +18256,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="334" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="334" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A334" s="2">
         <v>333</v>
       </c>
@@ -18301,7 +18301,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="335" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="335" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A335" s="2">
         <v>334</v>
       </c>
@@ -18346,7 +18346,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="336" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="336" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A336" s="2">
         <v>335</v>
       </c>
@@ -18391,7 +18391,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="337" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="337" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A337" s="2">
         <v>336</v>
       </c>
@@ -18436,7 +18436,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="338" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="338" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A338" s="2">
         <v>337</v>
       </c>
@@ -18481,7 +18481,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="339" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="339" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A339" s="2">
         <v>338</v>
       </c>
@@ -18526,7 +18526,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="340" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="340" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A340" s="2">
         <v>339</v>
       </c>
@@ -18571,7 +18571,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="341" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="341" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A341" s="2">
         <v>340</v>
       </c>
@@ -18616,7 +18616,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="342" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="342" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A342" s="2">
         <v>341</v>
       </c>
@@ -18661,7 +18661,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="343" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="343" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A343" s="2">
         <v>342</v>
       </c>
@@ -18706,7 +18706,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="344" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="344" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A344" s="2">
         <v>343</v>
       </c>
@@ -18751,7 +18751,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="345" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="345" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A345" s="2">
         <v>344</v>
       </c>
@@ -18796,7 +18796,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="346" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="346" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A346" s="2">
         <v>345</v>
       </c>
@@ -18841,7 +18841,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="347" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="347" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A347" s="2">
         <v>346</v>
       </c>
@@ -18886,7 +18886,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="348" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="348" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A348" s="2">
         <v>347</v>
       </c>
@@ -18931,7 +18931,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="349" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="349" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A349" s="2">
         <v>348</v>
       </c>
@@ -18976,7 +18976,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="350" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="350" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A350" s="2">
         <v>349</v>
       </c>
@@ -19021,7 +19021,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="351" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="351" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A351" s="2">
         <v>350</v>
       </c>
@@ -19066,7 +19066,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="352" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="352" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A352" s="2">
         <v>351</v>
       </c>
@@ -19111,7 +19111,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="353" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="353" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A353" s="2">
         <v>352</v>
       </c>
@@ -19156,7 +19156,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="354" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="354" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A354" s="2">
         <v>353</v>
       </c>
@@ -19201,7 +19201,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="355" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="355" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A355" s="2">
         <v>354</v>
       </c>
@@ -19246,7 +19246,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="356" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="356" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A356" s="2">
         <v>355</v>
       </c>
@@ -19291,7 +19291,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="357" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="357" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A357" s="2">
         <v>356</v>
       </c>
@@ -19336,7 +19336,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="358" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="358" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A358" s="2">
         <v>357</v>
       </c>
@@ -19381,7 +19381,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="359" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="359" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A359" s="2">
         <v>358</v>
       </c>
@@ -19426,7 +19426,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="360" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="360" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A360" s="2">
         <v>359</v>
       </c>
@@ -19471,7 +19471,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="361" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="361" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A361" s="2">
         <v>360</v>
       </c>
@@ -19516,7 +19516,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="362" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="362" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A362" s="2">
         <v>361</v>
       </c>
@@ -19561,7 +19561,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="363" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="363" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A363" s="2">
         <v>362</v>
       </c>
@@ -19606,7 +19606,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="364" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="364" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A364" s="2">
         <v>363</v>
       </c>
@@ -19651,7 +19651,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="365" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="365" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A365" s="2">
         <v>364</v>
       </c>
@@ -19696,7 +19696,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="366" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="366" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A366" s="2">
         <v>365</v>
       </c>
@@ -19741,7 +19741,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="367" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="367" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A367" s="2">
         <v>366</v>
       </c>
@@ -19786,7 +19786,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="368" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="368" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A368" s="2">
         <v>367</v>
       </c>
@@ -19831,7 +19831,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="369" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="369" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A369" s="2">
         <v>368</v>
       </c>
@@ -19876,7 +19876,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="370" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="370" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A370" s="2">
         <v>369</v>
       </c>
@@ -19921,7 +19921,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="371" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="371" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A371" s="2">
         <v>370</v>
       </c>
@@ -19966,7 +19966,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="372" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="372" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A372" s="2">
         <v>371</v>
       </c>
@@ -20011,7 +20011,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="373" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="373" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A373" s="2">
         <v>372</v>
       </c>
@@ -20056,7 +20056,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="374" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="374" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A374" s="2">
         <v>373</v>
       </c>
@@ -20101,7 +20101,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="375" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="375" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A375" s="2">
         <v>374</v>
       </c>
@@ -20146,7 +20146,7 @@
       </c>
       <c r="N375" s="5"/>
     </row>
-    <row r="376" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="376" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A376" s="2">
         <v>375</v>
       </c>
@@ -20191,7 +20191,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="377" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="377" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A377" s="2">
         <v>376</v>
       </c>
@@ -20236,7 +20236,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="378" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="378" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A378" s="2">
         <v>377</v>
       </c>
@@ -20281,7 +20281,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="379" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="379" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A379" s="2">
         <v>378</v>
       </c>
@@ -20326,7 +20326,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="380" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="380" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A380" s="2">
         <v>379</v>
       </c>
@@ -20371,7 +20371,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="381" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="381" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A381" s="2">
         <v>380</v>
       </c>
@@ -20416,7 +20416,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="382" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="382" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A382" s="2">
         <v>381</v>
       </c>
@@ -20461,7 +20461,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="383" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="383" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A383" s="2">
         <v>382</v>
       </c>
@@ -20506,7 +20506,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="384" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="384" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A384" s="2">
         <v>383</v>
       </c>
@@ -20551,7 +20551,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="385" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="385" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A385" s="2">
         <v>384</v>
       </c>
@@ -20596,7 +20596,7 @@
       </c>
       <c r="N385" s="5"/>
     </row>
-    <row r="386" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="386" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A386" s="2">
         <v>385</v>
       </c>
@@ -20641,7 +20641,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="387" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="387" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A387" s="2">
         <v>386</v>
       </c>
@@ -20686,7 +20686,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="388" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="388" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A388" s="2">
         <v>387</v>
       </c>
@@ -20731,7 +20731,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="389" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="389" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A389" s="2">
         <v>388</v>
       </c>
@@ -20776,7 +20776,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="390" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="390" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A390" s="2">
         <v>389</v>
       </c>
@@ -20821,7 +20821,7 @@
       </c>
       <c r="N390" s="5"/>
     </row>
-    <row r="391" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="391" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A391" s="2">
         <v>390</v>
       </c>
@@ -20866,7 +20866,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="392" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="392" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A392" s="2">
         <v>391</v>
       </c>
@@ -20911,7 +20911,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="393" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="393" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A393" s="2">
         <v>392</v>
       </c>
@@ -20956,7 +20956,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="394" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="394" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A394" s="2">
         <v>393</v>
       </c>
@@ -21001,7 +21001,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="395" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="395" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A395" s="2">
         <v>394</v>
       </c>
@@ -21046,7 +21046,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="396" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="396" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A396" s="2">
         <v>395</v>
       </c>
@@ -21091,7 +21091,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="397" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="397" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A397" s="2">
         <v>396</v>
       </c>
@@ -21136,7 +21136,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="398" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="398" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A398" s="2">
         <v>397</v>
       </c>
@@ -21181,7 +21181,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="399" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="399" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A399" s="2">
         <v>398</v>
       </c>
@@ -21226,7 +21226,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="400" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="400" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A400" s="2">
         <v>399</v>
       </c>
@@ -21271,7 +21271,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="401" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="401" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A401" s="2">
         <v>400</v>
       </c>
@@ -21322,19 +21322,12 @@
       <sortCondition ref="A1:A401"/>
     </sortState>
   </autoFilter>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N92:N191 N292:N401" xr:uid="{4DD82762-9951-4B15-909F-E50BD3332367}">
+      <formula1>#REF!</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{4DD82762-9951-4B15-909F-E50BD3332367}">
-          <x14:formula1>
-            <xm:f>#REF!</xm:f>
-          </x14:formula1>
-          <xm:sqref>N92:N191 N292:N401</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -21342,31 +21335,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0E03589-D8D5-4D15-8D5F-704708B108CC}">
   <dimension ref="A1:N487"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M2" sqref="M2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q18" sqref="Q18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9.26953125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.4609375" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.453125" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.3046875" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.07421875" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.53515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.84375" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.4609375" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.53515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.15234375" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.26953125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.08984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.1796875" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.23046875" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.921875" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.921875" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.23046875" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.23046875" style="2"/>
+    <col min="11" max="11" width="10.26953125" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.90625" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.90625" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.26953125" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.26953125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>430</v>
       </c>
@@ -21410,7 +21403,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -21453,7 +21446,7 @@
       </c>
       <c r="N2" s="5"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -21496,7 +21489,7 @@
       </c>
       <c r="N3" s="5"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -21539,7 +21532,7 @@
       </c>
       <c r="N4" s="5"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -21582,7 +21575,7 @@
       </c>
       <c r="N5" s="5"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -21629,7 +21622,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -21672,7 +21665,7 @@
       </c>
       <c r="N7" s="5"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -21715,7 +21708,7 @@
       </c>
       <c r="N8" s="5"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -21760,7 +21753,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -21803,7 +21796,7 @@
       </c>
       <c r="N10" s="5"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -21848,7 +21841,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -21891,7 +21884,7 @@
       </c>
       <c r="N12" s="5"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -21934,7 +21927,7 @@
       </c>
       <c r="N13" s="5"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -21977,7 +21970,7 @@
       </c>
       <c r="N14" s="5"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -22022,7 +22015,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -22065,7 +22058,7 @@
       </c>
       <c r="N16" s="5"/>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -22108,7 +22101,7 @@
       </c>
       <c r="N17" s="5"/>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -22151,7 +22144,7 @@
       </c>
       <c r="N18" s="5"/>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -22194,7 +22187,7 @@
       </c>
       <c r="N19" s="5"/>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -22237,7 +22230,7 @@
       </c>
       <c r="N20" s="5"/>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A21" s="2">
         <v>20</v>
       </c>
@@ -22280,7 +22273,7 @@
       </c>
       <c r="N21" s="5"/>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A22" s="2">
         <v>21</v>
       </c>
@@ -22323,7 +22316,7 @@
       </c>
       <c r="N22" s="5"/>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A23" s="2">
         <v>22</v>
       </c>
@@ -22366,7 +22359,7 @@
       </c>
       <c r="N23" s="5"/>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A24" s="2">
         <v>23</v>
       </c>
@@ -22409,7 +22402,7 @@
       </c>
       <c r="N24" s="5"/>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A25" s="2">
         <v>24</v>
       </c>
@@ -22452,7 +22445,7 @@
       </c>
       <c r="N25" s="5"/>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A26" s="2">
         <v>25</v>
       </c>
@@ -22497,7 +22490,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A27" s="2">
         <v>26</v>
       </c>
@@ -22542,7 +22535,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A28" s="2">
         <v>27</v>
       </c>
@@ -22585,7 +22578,7 @@
       </c>
       <c r="N28" s="5"/>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A29" s="2">
         <v>28</v>
       </c>
@@ -22628,7 +22621,7 @@
       </c>
       <c r="N29" s="5"/>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A30" s="2">
         <v>29</v>
       </c>
@@ -22675,7 +22668,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A31" s="2">
         <v>30</v>
       </c>
@@ -22720,7 +22713,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A32" s="2">
         <v>31</v>
       </c>
@@ -22763,7 +22756,7 @@
       </c>
       <c r="N32" s="5"/>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A33" s="2">
         <v>32</v>
       </c>
@@ -22808,7 +22801,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A34" s="2">
         <v>33</v>
       </c>
@@ -22851,7 +22844,7 @@
       </c>
       <c r="N34" s="5"/>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A35" s="2">
         <v>34</v>
       </c>
@@ -22894,7 +22887,7 @@
       </c>
       <c r="N35" s="5"/>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A36" s="2">
         <v>35</v>
       </c>
@@ -22937,7 +22930,7 @@
       </c>
       <c r="N36" s="5"/>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A37" s="2">
         <v>36</v>
       </c>
@@ -22982,7 +22975,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A38" s="2">
         <v>37</v>
       </c>
@@ -23027,7 +23020,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A39" s="2">
         <v>38</v>
       </c>
@@ -23072,7 +23065,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A40" s="2">
         <v>39</v>
       </c>
@@ -23115,7 +23108,7 @@
       </c>
       <c r="N40" s="5"/>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A41" s="2">
         <v>40</v>
       </c>
@@ -23158,7 +23151,7 @@
       </c>
       <c r="N41" s="5"/>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A42" s="2">
         <v>41</v>
       </c>
@@ -23201,7 +23194,7 @@
       </c>
       <c r="N42" s="5"/>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A43" s="2">
         <v>42</v>
       </c>
@@ -23246,7 +23239,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A44" s="2">
         <v>43</v>
       </c>
@@ -23289,7 +23282,7 @@
       </c>
       <c r="N44" s="5"/>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A45" s="2">
         <v>44</v>
       </c>
@@ -23334,7 +23327,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A46" s="2">
         <v>45</v>
       </c>
@@ -23377,7 +23370,7 @@
       </c>
       <c r="N46" s="5"/>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A47" s="2">
         <v>46</v>
       </c>
@@ -23422,7 +23415,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A48" s="2">
         <v>47</v>
       </c>
@@ -23465,7 +23458,7 @@
       </c>
       <c r="N48" s="5"/>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A49" s="2">
         <v>48</v>
       </c>
@@ -23508,7 +23501,7 @@
       </c>
       <c r="N49" s="5"/>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A50" s="2">
         <v>49</v>
       </c>
@@ -23551,7 +23544,7 @@
       </c>
       <c r="N50" s="5"/>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A51" s="2">
         <v>50</v>
       </c>
@@ -23594,7 +23587,7 @@
       </c>
       <c r="N51" s="5"/>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A52" s="2">
         <v>51</v>
       </c>
@@ -23637,7 +23630,7 @@
       </c>
       <c r="N52" s="5"/>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A53" s="2">
         <v>52</v>
       </c>
@@ -23680,7 +23673,7 @@
       </c>
       <c r="N53" s="5"/>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A54" s="2">
         <v>53</v>
       </c>
@@ -23723,7 +23716,7 @@
       </c>
       <c r="N54" s="5"/>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A55" s="2">
         <v>54</v>
       </c>
@@ -23766,7 +23759,7 @@
       </c>
       <c r="N55" s="5"/>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A56" s="2">
         <v>55</v>
       </c>
@@ -23809,7 +23802,7 @@
       </c>
       <c r="N56" s="5"/>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A57" s="2">
         <v>56</v>
       </c>
@@ -23852,7 +23845,7 @@
       </c>
       <c r="N57" s="5"/>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A58" s="2">
         <v>57</v>
       </c>
@@ -23895,7 +23888,7 @@
       </c>
       <c r="N58" s="5"/>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A59" s="2">
         <v>58</v>
       </c>
@@ -23938,7 +23931,7 @@
       </c>
       <c r="N59" s="5"/>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A60" s="2">
         <v>59</v>
       </c>
@@ -23981,7 +23974,7 @@
       </c>
       <c r="N60" s="5"/>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A61" s="2">
         <v>60</v>
       </c>
@@ -24024,7 +24017,7 @@
       </c>
       <c r="N61" s="5"/>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A62" s="2">
         <v>61</v>
       </c>
@@ -24067,7 +24060,7 @@
       </c>
       <c r="N62" s="5"/>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A63" s="2">
         <v>62</v>
       </c>
@@ -24110,7 +24103,7 @@
       </c>
       <c r="N63" s="5"/>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A64" s="2">
         <v>63</v>
       </c>
@@ -24153,7 +24146,7 @@
       </c>
       <c r="N64" s="5"/>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A65" s="2">
         <v>64</v>
       </c>
@@ -24196,7 +24189,7 @@
       </c>
       <c r="N65" s="5"/>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A66" s="2">
         <v>65</v>
       </c>
@@ -24239,7 +24232,7 @@
       </c>
       <c r="N66" s="5"/>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A67" s="2">
         <v>66</v>
       </c>
@@ -24282,7 +24275,7 @@
       </c>
       <c r="N67" s="5"/>
     </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A68" s="2">
         <v>67</v>
       </c>
@@ -24325,7 +24318,7 @@
       </c>
       <c r="N68" s="5"/>
     </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A69" s="2">
         <v>68</v>
       </c>
@@ -24368,7 +24361,7 @@
       </c>
       <c r="N69" s="5"/>
     </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A70" s="2">
         <v>69</v>
       </c>
@@ -24411,7 +24404,7 @@
       </c>
       <c r="N70" s="5"/>
     </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A71" s="2">
         <v>70</v>
       </c>
@@ -24456,7 +24449,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A72" s="2">
         <v>71</v>
       </c>
@@ -24499,7 +24492,7 @@
       </c>
       <c r="N72" s="5"/>
     </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A73" s="2">
         <v>72</v>
       </c>
@@ -24542,7 +24535,7 @@
       </c>
       <c r="N73" s="5"/>
     </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A74" s="2">
         <v>73</v>
       </c>
@@ -24585,7 +24578,7 @@
       </c>
       <c r="N74" s="5"/>
     </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A75" s="2">
         <v>74</v>
       </c>
@@ -24630,7 +24623,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A76" s="2">
         <v>75</v>
       </c>
@@ -24673,7 +24666,7 @@
       </c>
       <c r="N76" s="5"/>
     </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A77" s="2">
         <v>76</v>
       </c>
@@ -24718,7 +24711,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A78" s="2">
         <v>77</v>
       </c>
@@ -24761,7 +24754,7 @@
       </c>
       <c r="N78" s="5"/>
     </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A79" s="2">
         <v>78</v>
       </c>
@@ -24804,7 +24797,7 @@
       </c>
       <c r="N79" s="5"/>
     </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A80" s="2">
         <v>79</v>
       </c>
@@ -24849,7 +24842,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A81" s="2">
         <v>80</v>
       </c>
@@ -24892,7 +24885,7 @@
       </c>
       <c r="N81" s="5"/>
     </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A82" s="2">
         <v>81</v>
       </c>
@@ -24935,7 +24928,7 @@
       </c>
       <c r="N82" s="5"/>
     </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A83" s="2">
         <v>82</v>
       </c>
@@ -24978,7 +24971,7 @@
       </c>
       <c r="N83" s="5"/>
     </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A84" s="2">
         <v>83</v>
       </c>
@@ -25021,7 +25014,7 @@
       </c>
       <c r="N84" s="5"/>
     </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A85" s="2">
         <v>84</v>
       </c>
@@ -25066,7 +25059,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A86" s="2">
         <v>85</v>
       </c>
@@ -25109,7 +25102,7 @@
       </c>
       <c r="N86" s="5"/>
     </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A87" s="2">
         <v>86</v>
       </c>
@@ -25152,7 +25145,7 @@
       </c>
       <c r="N87" s="5"/>
     </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A88" s="2">
         <v>87</v>
       </c>
@@ -25195,7 +25188,7 @@
       </c>
       <c r="N88" s="5"/>
     </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A89" s="2">
         <v>88</v>
       </c>
@@ -25238,7 +25231,7 @@
       </c>
       <c r="N89" s="5"/>
     </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A90" s="2">
         <v>89</v>
       </c>
@@ -25281,7 +25274,7 @@
       </c>
       <c r="N90" s="5"/>
     </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A91" s="2">
         <v>90</v>
       </c>
@@ -25324,7 +25317,7 @@
       </c>
       <c r="N91" s="5"/>
     </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A92" s="2">
         <v>91</v>
       </c>
@@ -25367,7 +25360,7 @@
       </c>
       <c r="N92" s="5"/>
     </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A93" s="2">
         <v>92</v>
       </c>
@@ -25410,7 +25403,7 @@
       </c>
       <c r="N93" s="5"/>
     </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A94" s="2">
         <v>93</v>
       </c>
@@ -25453,7 +25446,7 @@
       </c>
       <c r="N94" s="5"/>
     </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A95" s="2">
         <v>94</v>
       </c>
@@ -25496,7 +25489,7 @@
       </c>
       <c r="N95" s="5"/>
     </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A96" s="2">
         <v>95</v>
       </c>
@@ -25541,7 +25534,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A97" s="2">
         <v>96</v>
       </c>
@@ -25584,7 +25577,7 @@
       </c>
       <c r="N97" s="5"/>
     </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A98" s="2">
         <v>97</v>
       </c>
@@ -25627,7 +25620,7 @@
       </c>
       <c r="N98" s="5"/>
     </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A99" s="2">
         <v>98</v>
       </c>
@@ -25670,7 +25663,7 @@
       </c>
       <c r="N99" s="5"/>
     </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A100" s="2">
         <v>99</v>
       </c>
@@ -25713,7 +25706,7 @@
       </c>
       <c r="N100" s="5"/>
     </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A101" s="2">
         <v>100</v>
       </c>
@@ -25758,7 +25751,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="102" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A102" s="2">
         <v>101</v>
       </c>
@@ -25801,7 +25794,7 @@
       </c>
       <c r="N102" s="5"/>
     </row>
-    <row r="103" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A103" s="2">
         <v>102</v>
       </c>
@@ -25844,7 +25837,7 @@
       </c>
       <c r="N103" s="5"/>
     </row>
-    <row r="104" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A104" s="2">
         <v>103</v>
       </c>
@@ -25887,7 +25880,7 @@
       </c>
       <c r="N104" s="5"/>
     </row>
-    <row r="105" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A105" s="2">
         <v>104</v>
       </c>
@@ -25930,7 +25923,7 @@
       </c>
       <c r="N105" s="5"/>
     </row>
-    <row r="106" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A106" s="2">
         <v>105</v>
       </c>
@@ -25973,7 +25966,7 @@
       </c>
       <c r="N106" s="5"/>
     </row>
-    <row r="107" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A107" s="2">
         <v>106</v>
       </c>
@@ -26016,7 +26009,7 @@
       </c>
       <c r="N107" s="5"/>
     </row>
-    <row r="108" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A108" s="2">
         <v>107</v>
       </c>
@@ -26059,7 +26052,7 @@
       </c>
       <c r="N108" s="5"/>
     </row>
-    <row r="109" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A109" s="2">
         <v>108</v>
       </c>
@@ -26102,7 +26095,7 @@
       </c>
       <c r="N109" s="5"/>
     </row>
-    <row r="110" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A110" s="2">
         <v>109</v>
       </c>
@@ -26145,7 +26138,7 @@
       </c>
       <c r="N110" s="5"/>
     </row>
-    <row r="111" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A111" s="2">
         <v>110</v>
       </c>
@@ -26188,7 +26181,7 @@
       </c>
       <c r="N111" s="5"/>
     </row>
-    <row r="112" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A112" s="2">
         <v>111</v>
       </c>
@@ -26231,7 +26224,7 @@
       </c>
       <c r="N112" s="5"/>
     </row>
-    <row r="113" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A113" s="2">
         <v>112</v>
       </c>
@@ -26274,7 +26267,7 @@
       </c>
       <c r="N113" s="5"/>
     </row>
-    <row r="114" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="114" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A114" s="2">
         <v>113</v>
       </c>
@@ -26317,7 +26310,7 @@
       </c>
       <c r="N114" s="5"/>
     </row>
-    <row r="115" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="115" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A115" s="2">
         <v>114</v>
       </c>
@@ -26360,7 +26353,7 @@
       </c>
       <c r="N115" s="5"/>
     </row>
-    <row r="116" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="116" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A116" s="2">
         <v>115</v>
       </c>
@@ -26403,7 +26396,7 @@
       </c>
       <c r="N116" s="5"/>
     </row>
-    <row r="117" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="117" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A117" s="2">
         <v>116</v>
       </c>
@@ -26446,7 +26439,7 @@
       </c>
       <c r="N117" s="5"/>
     </row>
-    <row r="118" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="118" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A118" s="2">
         <v>117</v>
       </c>
@@ -26489,7 +26482,7 @@
       </c>
       <c r="N118" s="5"/>
     </row>
-    <row r="119" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="119" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A119" s="2">
         <v>118</v>
       </c>
@@ -26532,7 +26525,7 @@
       </c>
       <c r="N119" s="5"/>
     </row>
-    <row r="120" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="120" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A120" s="2">
         <v>119</v>
       </c>
@@ -26575,7 +26568,7 @@
       </c>
       <c r="N120" s="5"/>
     </row>
-    <row r="121" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="121" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A121" s="2">
         <v>120</v>
       </c>
@@ -26618,7 +26611,7 @@
       </c>
       <c r="N121" s="5"/>
     </row>
-    <row r="122" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="122" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A122" s="2">
         <v>121</v>
       </c>
@@ -26661,7 +26654,7 @@
       </c>
       <c r="N122" s="5"/>
     </row>
-    <row r="123" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="123" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A123" s="2">
         <v>122</v>
       </c>
@@ -26704,7 +26697,7 @@
       </c>
       <c r="N123" s="5"/>
     </row>
-    <row r="124" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="124" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A124" s="2">
         <v>123</v>
       </c>
@@ -26747,7 +26740,7 @@
       </c>
       <c r="N124" s="5"/>
     </row>
-    <row r="125" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="125" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A125" s="2">
         <v>124</v>
       </c>
@@ -26790,7 +26783,7 @@
       </c>
       <c r="N125" s="5"/>
     </row>
-    <row r="126" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="126" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A126" s="2">
         <v>125</v>
       </c>
@@ -26835,7 +26828,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="127" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="127" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A127" s="2">
         <v>126</v>
       </c>
@@ -26878,7 +26871,7 @@
       </c>
       <c r="N127" s="5"/>
     </row>
-    <row r="128" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="128" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A128" s="2">
         <v>127</v>
       </c>
@@ -26921,7 +26914,7 @@
       </c>
       <c r="N128" s="5"/>
     </row>
-    <row r="129" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="129" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A129" s="2">
         <v>128</v>
       </c>
@@ -26966,7 +26959,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="130" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="130" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A130" s="2">
         <v>129</v>
       </c>
@@ -27011,7 +27004,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="131" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="131" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A131" s="2">
         <v>130</v>
       </c>
@@ -27054,7 +27047,7 @@
       </c>
       <c r="N131" s="5"/>
     </row>
-    <row r="132" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="132" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A132" s="2">
         <v>131</v>
       </c>
@@ -27097,7 +27090,7 @@
       </c>
       <c r="N132" s="5"/>
     </row>
-    <row r="133" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="133" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A133" s="2">
         <v>132</v>
       </c>
@@ -27142,7 +27135,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="134" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="134" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A134" s="2">
         <v>133</v>
       </c>
@@ -27187,7 +27180,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="135" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="135" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A135" s="2">
         <v>134</v>
       </c>
@@ -27230,7 +27223,7 @@
       </c>
       <c r="N135" s="5"/>
     </row>
-    <row r="136" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="136" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A136" s="2">
         <v>135</v>
       </c>
@@ -27273,7 +27266,7 @@
       </c>
       <c r="N136" s="5"/>
     </row>
-    <row r="137" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="137" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A137" s="2">
         <v>136</v>
       </c>
@@ -27316,7 +27309,7 @@
       </c>
       <c r="N137" s="5"/>
     </row>
-    <row r="138" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="138" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A138" s="2">
         <v>137</v>
       </c>
@@ -27359,7 +27352,7 @@
       </c>
       <c r="N138" s="5"/>
     </row>
-    <row r="139" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="139" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A139" s="2">
         <v>138</v>
       </c>
@@ -27402,7 +27395,7 @@
       </c>
       <c r="N139" s="5"/>
     </row>
-    <row r="140" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="140" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A140" s="2">
         <v>139</v>
       </c>
@@ -27445,7 +27438,7 @@
       </c>
       <c r="N140" s="5"/>
     </row>
-    <row r="141" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="141" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A141" s="2">
         <v>140</v>
       </c>
@@ -27488,7 +27481,7 @@
       </c>
       <c r="N141" s="5"/>
     </row>
-    <row r="142" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="142" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A142" s="2">
         <v>141</v>
       </c>
@@ -27533,7 +27526,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="143" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="143" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A143" s="2">
         <v>142</v>
       </c>
@@ -27576,7 +27569,7 @@
       </c>
       <c r="N143" s="5"/>
     </row>
-    <row r="144" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="144" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A144" s="2">
         <v>143</v>
       </c>
@@ -27619,7 +27612,7 @@
       </c>
       <c r="N144" s="5"/>
     </row>
-    <row r="145" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="145" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A145" s="2">
         <v>144</v>
       </c>
@@ -27662,7 +27655,7 @@
       </c>
       <c r="N145" s="5"/>
     </row>
-    <row r="146" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="146" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A146" s="2">
         <v>145</v>
       </c>
@@ -27705,7 +27698,7 @@
       </c>
       <c r="N146" s="5"/>
     </row>
-    <row r="147" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="147" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A147" s="2">
         <v>146</v>
       </c>
@@ -27748,7 +27741,7 @@
       </c>
       <c r="N147" s="5"/>
     </row>
-    <row r="148" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="148" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A148" s="2">
         <v>147</v>
       </c>
@@ -27791,7 +27784,7 @@
       </c>
       <c r="N148" s="5"/>
     </row>
-    <row r="149" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="149" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A149" s="2">
         <v>148</v>
       </c>
@@ -27834,7 +27827,7 @@
       </c>
       <c r="N149" s="5"/>
     </row>
-    <row r="150" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="150" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A150" s="2">
         <v>149</v>
       </c>
@@ -27879,7 +27872,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="151" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="151" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A151" s="2">
         <v>150</v>
       </c>
@@ -27922,7 +27915,7 @@
       </c>
       <c r="N151" s="5"/>
     </row>
-    <row r="152" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="152" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A152" s="2">
         <v>151</v>
       </c>
@@ -27965,7 +27958,7 @@
       </c>
       <c r="N152" s="5"/>
     </row>
-    <row r="153" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="153" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A153" s="2">
         <v>152</v>
       </c>
@@ -28008,7 +28001,7 @@
       </c>
       <c r="N153" s="5"/>
     </row>
-    <row r="154" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="154" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A154" s="2">
         <v>153</v>
       </c>
@@ -28051,7 +28044,7 @@
       </c>
       <c r="N154" s="5"/>
     </row>
-    <row r="155" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="155" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A155" s="2">
         <v>154</v>
       </c>
@@ -28094,7 +28087,7 @@
       </c>
       <c r="N155" s="5"/>
     </row>
-    <row r="156" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="156" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A156" s="2">
         <v>155</v>
       </c>
@@ -28137,7 +28130,7 @@
       </c>
       <c r="N156" s="5"/>
     </row>
-    <row r="157" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="157" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A157" s="2">
         <v>156</v>
       </c>
@@ -28182,7 +28175,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="158" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="158" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A158" s="2">
         <v>157</v>
       </c>
@@ -28225,7 +28218,7 @@
       </c>
       <c r="N158" s="5"/>
     </row>
-    <row r="159" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="159" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A159" s="2">
         <v>158</v>
       </c>
@@ -28268,7 +28261,7 @@
       </c>
       <c r="N159" s="5"/>
     </row>
-    <row r="160" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="160" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A160" s="2">
         <v>159</v>
       </c>
@@ -28311,7 +28304,7 @@
       </c>
       <c r="N160" s="5"/>
     </row>
-    <row r="161" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="161" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A161" s="2">
         <v>160</v>
       </c>
@@ -28354,7 +28347,7 @@
       </c>
       <c r="N161" s="5"/>
     </row>
-    <row r="162" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="162" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A162" s="2">
         <v>161</v>
       </c>
@@ -28397,7 +28390,7 @@
       </c>
       <c r="N162" s="5"/>
     </row>
-    <row r="163" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="163" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A163" s="2">
         <v>162</v>
       </c>
@@ -28440,7 +28433,7 @@
       </c>
       <c r="N163" s="5"/>
     </row>
-    <row r="164" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="164" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A164" s="2">
         <v>163</v>
       </c>
@@ -28483,7 +28476,7 @@
       </c>
       <c r="N164" s="5"/>
     </row>
-    <row r="165" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="165" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A165" s="2">
         <v>164</v>
       </c>
@@ -28526,7 +28519,7 @@
       </c>
       <c r="N165" s="5"/>
     </row>
-    <row r="166" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="166" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A166" s="2">
         <v>165</v>
       </c>
@@ -28569,7 +28562,7 @@
       </c>
       <c r="N166" s="5"/>
     </row>
-    <row r="167" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="167" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A167" s="2">
         <v>166</v>
       </c>
@@ -28612,7 +28605,7 @@
       </c>
       <c r="N167" s="5"/>
     </row>
-    <row r="168" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="168" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A168" s="2">
         <v>167</v>
       </c>
@@ -28655,7 +28648,7 @@
       </c>
       <c r="N168" s="5"/>
     </row>
-    <row r="169" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="169" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A169" s="2">
         <v>168</v>
       </c>
@@ -28700,7 +28693,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="170" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="170" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A170" s="2">
         <v>169</v>
       </c>
@@ -28743,7 +28736,7 @@
       </c>
       <c r="N170" s="5"/>
     </row>
-    <row r="171" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="171" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A171" s="2">
         <v>170</v>
       </c>
@@ -28786,7 +28779,7 @@
       </c>
       <c r="N171" s="5"/>
     </row>
-    <row r="172" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="172" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A172" s="2">
         <v>171</v>
       </c>
@@ -28829,7 +28822,7 @@
       </c>
       <c r="N172" s="5"/>
     </row>
-    <row r="173" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="173" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A173" s="2">
         <v>172</v>
       </c>
@@ -28872,7 +28865,7 @@
       </c>
       <c r="N173" s="5"/>
     </row>
-    <row r="174" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="174" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A174" s="2">
         <v>173</v>
       </c>
@@ -28915,7 +28908,7 @@
       </c>
       <c r="N174" s="5"/>
     </row>
-    <row r="175" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="175" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A175" s="2">
         <v>174</v>
       </c>
@@ -28958,7 +28951,7 @@
       </c>
       <c r="N175" s="5"/>
     </row>
-    <row r="176" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="176" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A176" s="2">
         <v>175</v>
       </c>
@@ -29001,7 +28994,7 @@
       <c r="M176" s="5"/>
       <c r="N176" s="5"/>
     </row>
-    <row r="177" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="177" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A177" s="2">
         <v>176</v>
       </c>
@@ -29044,7 +29037,7 @@
       </c>
       <c r="N177" s="5"/>
     </row>
-    <row r="178" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="178" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A178" s="2">
         <v>177</v>
       </c>
@@ -29089,7 +29082,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="179" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="179" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A179" s="2">
         <v>178</v>
       </c>
@@ -29132,7 +29125,7 @@
       </c>
       <c r="N179" s="5"/>
     </row>
-    <row r="180" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="180" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A180" s="2">
         <v>179</v>
       </c>
@@ -29175,7 +29168,7 @@
       </c>
       <c r="N180" s="5"/>
     </row>
-    <row r="181" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="181" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A181" s="2">
         <v>180</v>
       </c>
@@ -29218,7 +29211,7 @@
       </c>
       <c r="N181" s="5"/>
     </row>
-    <row r="182" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="182" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A182" s="2">
         <v>181</v>
       </c>
@@ -29261,7 +29254,7 @@
       </c>
       <c r="N182" s="5"/>
     </row>
-    <row r="183" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="183" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A183" s="2">
         <v>182</v>
       </c>
@@ -29304,7 +29297,7 @@
       </c>
       <c r="N183" s="5"/>
     </row>
-    <row r="184" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="184" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A184" s="2">
         <v>183</v>
       </c>
@@ -29347,7 +29340,7 @@
       </c>
       <c r="N184" s="5"/>
     </row>
-    <row r="185" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="185" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A185" s="2">
         <v>184</v>
       </c>
@@ -29390,7 +29383,7 @@
       </c>
       <c r="N185" s="5"/>
     </row>
-    <row r="186" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="186" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A186" s="2">
         <v>185</v>
       </c>
@@ -29433,7 +29426,7 @@
       </c>
       <c r="N186" s="5"/>
     </row>
-    <row r="187" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="187" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A187" s="2">
         <v>186</v>
       </c>
@@ -29476,7 +29469,7 @@
       </c>
       <c r="N187" s="5"/>
     </row>
-    <row r="188" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="188" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A188" s="2">
         <v>187</v>
       </c>
@@ -29519,7 +29512,7 @@
       </c>
       <c r="N188" s="5"/>
     </row>
-    <row r="189" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="189" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A189" s="2">
         <v>188</v>
       </c>
@@ -29562,7 +29555,7 @@
       </c>
       <c r="N189" s="5"/>
     </row>
-    <row r="190" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="190" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A190" s="2">
         <v>189</v>
       </c>
@@ -29605,7 +29598,7 @@
       </c>
       <c r="N190" s="5"/>
     </row>
-    <row r="191" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="191" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A191" s="2">
         <v>190</v>
       </c>
@@ -29648,7 +29641,7 @@
       </c>
       <c r="N191" s="5"/>
     </row>
-    <row r="192" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="192" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A192" s="2">
         <v>191</v>
       </c>
@@ -29691,7 +29684,7 @@
       </c>
       <c r="N192" s="5"/>
     </row>
-    <row r="193" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="193" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A193" s="2">
         <v>192</v>
       </c>
@@ -29734,7 +29727,7 @@
       </c>
       <c r="N193" s="5"/>
     </row>
-    <row r="194" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="194" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A194" s="2">
         <v>193</v>
       </c>
@@ -29777,7 +29770,7 @@
       </c>
       <c r="N194" s="5"/>
     </row>
-    <row r="195" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="195" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A195" s="2">
         <v>194</v>
       </c>
@@ -29820,7 +29813,7 @@
       </c>
       <c r="N195" s="5"/>
     </row>
-    <row r="196" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="196" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A196" s="2">
         <v>195</v>
       </c>
@@ -29863,7 +29856,7 @@
       </c>
       <c r="N196" s="5"/>
     </row>
-    <row r="197" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="197" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A197" s="2">
         <v>196</v>
       </c>
@@ -29906,7 +29899,7 @@
       </c>
       <c r="N197" s="5"/>
     </row>
-    <row r="198" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="198" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A198" s="2">
         <v>197</v>
       </c>
@@ -29949,7 +29942,7 @@
       </c>
       <c r="N198" s="5"/>
     </row>
-    <row r="199" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="199" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A199" s="2">
         <v>198</v>
       </c>
@@ -29992,7 +29985,7 @@
       </c>
       <c r="N199" s="5"/>
     </row>
-    <row r="200" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="200" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A200" s="2">
         <v>199</v>
       </c>
@@ -30035,7 +30028,7 @@
       </c>
       <c r="N200" s="5"/>
     </row>
-    <row r="201" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="201" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A201" s="2">
         <v>200</v>
       </c>
@@ -30080,7 +30073,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="202" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="202" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A202" s="2">
         <v>201</v>
       </c>
@@ -30123,7 +30116,7 @@
       </c>
       <c r="N202" s="5"/>
     </row>
-    <row r="203" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="203" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A203" s="2">
         <v>202</v>
       </c>
@@ -30166,7 +30159,7 @@
       </c>
       <c r="N203" s="5"/>
     </row>
-    <row r="204" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="204" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A204" s="2">
         <v>203</v>
       </c>
@@ -30211,7 +30204,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="205" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="205" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A205" s="2">
         <v>204</v>
       </c>
@@ -30254,7 +30247,7 @@
       </c>
       <c r="N205" s="5"/>
     </row>
-    <row r="206" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="206" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A206" s="2">
         <v>205</v>
       </c>
@@ -30297,7 +30290,7 @@
       </c>
       <c r="N206" s="5"/>
     </row>
-    <row r="207" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="207" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A207" s="2">
         <v>206</v>
       </c>
@@ -30340,7 +30333,7 @@
       </c>
       <c r="N207" s="5"/>
     </row>
-    <row r="208" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="208" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A208" s="2">
         <v>207</v>
       </c>
@@ -30383,7 +30376,7 @@
       </c>
       <c r="N208" s="5"/>
     </row>
-    <row r="209" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="209" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A209" s="2">
         <v>208</v>
       </c>
@@ -30426,7 +30419,7 @@
       </c>
       <c r="N209" s="5"/>
     </row>
-    <row r="210" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="210" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A210" s="2">
         <v>209</v>
       </c>
@@ -30469,7 +30462,7 @@
       </c>
       <c r="N210" s="5"/>
     </row>
-    <row r="211" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="211" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A211" s="2">
         <v>210</v>
       </c>
@@ -30512,7 +30505,7 @@
       </c>
       <c r="N211" s="5"/>
     </row>
-    <row r="212" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="212" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A212" s="2">
         <v>211</v>
       </c>
@@ -30555,7 +30548,7 @@
       </c>
       <c r="N212" s="5"/>
     </row>
-    <row r="213" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="213" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A213" s="2">
         <v>212</v>
       </c>
@@ -30598,7 +30591,7 @@
       </c>
       <c r="N213" s="5"/>
     </row>
-    <row r="214" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="214" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A214" s="2">
         <v>213</v>
       </c>
@@ -30641,7 +30634,7 @@
       </c>
       <c r="N214" s="5"/>
     </row>
-    <row r="215" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="215" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A215" s="2">
         <v>214</v>
       </c>
@@ -30684,7 +30677,7 @@
       </c>
       <c r="N215" s="5"/>
     </row>
-    <row r="216" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="216" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A216" s="2">
         <v>215</v>
       </c>
@@ -30727,7 +30720,7 @@
       </c>
       <c r="N216" s="5"/>
     </row>
-    <row r="217" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="217" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A217" s="2">
         <v>216</v>
       </c>
@@ -30770,7 +30763,7 @@
       </c>
       <c r="N217" s="5"/>
     </row>
-    <row r="218" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="218" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A218" s="2">
         <v>217</v>
       </c>
@@ -30813,7 +30806,7 @@
       </c>
       <c r="N218" s="5"/>
     </row>
-    <row r="219" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="219" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A219" s="2">
         <v>218</v>
       </c>
@@ -30856,7 +30849,7 @@
       </c>
       <c r="N219" s="5"/>
     </row>
-    <row r="220" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="220" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A220" s="2">
         <v>219</v>
       </c>
@@ -30899,7 +30892,7 @@
       </c>
       <c r="N220" s="5"/>
     </row>
-    <row r="221" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="221" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A221" s="2">
         <v>220</v>
       </c>
@@ -30942,7 +30935,7 @@
       </c>
       <c r="N221" s="5"/>
     </row>
-    <row r="222" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="222" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A222" s="2">
         <v>221</v>
       </c>
@@ -30985,7 +30978,7 @@
       </c>
       <c r="N222" s="5"/>
     </row>
-    <row r="223" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="223" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A223" s="2">
         <v>222</v>
       </c>
@@ -31028,7 +31021,7 @@
       </c>
       <c r="N223" s="5"/>
     </row>
-    <row r="224" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="224" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A224" s="2">
         <v>223</v>
       </c>
@@ -31071,7 +31064,7 @@
       </c>
       <c r="N224" s="5"/>
     </row>
-    <row r="225" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="225" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A225" s="2">
         <v>224</v>
       </c>
@@ -31114,7 +31107,7 @@
       </c>
       <c r="N225" s="5"/>
     </row>
-    <row r="226" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="226" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A226" s="2">
         <v>225</v>
       </c>
@@ -31157,7 +31150,7 @@
       </c>
       <c r="N226" s="5"/>
     </row>
-    <row r="227" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="227" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A227" s="2">
         <v>226</v>
       </c>
@@ -31200,7 +31193,7 @@
       </c>
       <c r="N227" s="5"/>
     </row>
-    <row r="228" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="228" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A228" s="2">
         <v>227</v>
       </c>
@@ -31243,7 +31236,7 @@
       </c>
       <c r="N228" s="5"/>
     </row>
-    <row r="229" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="229" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A229" s="2">
         <v>228</v>
       </c>
@@ -31286,7 +31279,7 @@
       </c>
       <c r="N229" s="5"/>
     </row>
-    <row r="230" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="230" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A230" s="2">
         <v>229</v>
       </c>
@@ -31329,7 +31322,7 @@
       </c>
       <c r="N230" s="5"/>
     </row>
-    <row r="231" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="231" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A231" s="2">
         <v>230</v>
       </c>
@@ -31372,7 +31365,7 @@
       </c>
       <c r="N231" s="5"/>
     </row>
-    <row r="232" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="232" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A232" s="2">
         <v>231</v>
       </c>
@@ -31415,7 +31408,7 @@
       </c>
       <c r="N232" s="5"/>
     </row>
-    <row r="233" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="233" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A233" s="2">
         <v>232</v>
       </c>
@@ -31458,7 +31451,7 @@
       </c>
       <c r="N233" s="5"/>
     </row>
-    <row r="234" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="234" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A234" s="2">
         <v>233</v>
       </c>
@@ -31501,7 +31494,7 @@
       </c>
       <c r="N234" s="5"/>
     </row>
-    <row r="235" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="235" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A235" s="2">
         <v>234</v>
       </c>
@@ -31544,7 +31537,7 @@
       </c>
       <c r="N235" s="5"/>
     </row>
-    <row r="236" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="236" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A236" s="2">
         <v>235</v>
       </c>
@@ -31587,7 +31580,7 @@
       </c>
       <c r="N236" s="5"/>
     </row>
-    <row r="237" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="237" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A237" s="2">
         <v>236</v>
       </c>
@@ -31630,7 +31623,7 @@
       </c>
       <c r="N237" s="5"/>
     </row>
-    <row r="238" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="238" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A238" s="2">
         <v>237</v>
       </c>
@@ -31675,7 +31668,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="239" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="239" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A239" s="2">
         <v>238</v>
       </c>
@@ -31718,7 +31711,7 @@
       </c>
       <c r="N239" s="5"/>
     </row>
-    <row r="240" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="240" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A240" s="2">
         <v>239</v>
       </c>
@@ -31761,7 +31754,7 @@
       </c>
       <c r="N240" s="5"/>
     </row>
-    <row r="241" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="241" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A241" s="2">
         <v>240</v>
       </c>
@@ -31804,7 +31797,7 @@
       </c>
       <c r="N241" s="5"/>
     </row>
-    <row r="242" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="242" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A242" s="2">
         <v>241</v>
       </c>
@@ -31849,7 +31842,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="243" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="243" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A243" s="2">
         <v>242</v>
       </c>
@@ -31892,7 +31885,7 @@
       </c>
       <c r="N243" s="5"/>
     </row>
-    <row r="244" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="244" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A244" s="2">
         <v>243</v>
       </c>
@@ -31935,7 +31928,7 @@
       </c>
       <c r="N244" s="5"/>
     </row>
-    <row r="245" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="245" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A245" s="2">
         <v>244</v>
       </c>
@@ -31978,7 +31971,7 @@
       </c>
       <c r="N245" s="5"/>
     </row>
-    <row r="246" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="246" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A246" s="2">
         <v>245</v>
       </c>
@@ -32021,7 +32014,7 @@
       </c>
       <c r="N246" s="5"/>
     </row>
-    <row r="247" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="247" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A247" s="2">
         <v>246</v>
       </c>
@@ -32064,7 +32057,7 @@
       </c>
       <c r="N247" s="5"/>
     </row>
-    <row r="248" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="248" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A248" s="2">
         <v>247</v>
       </c>
@@ -32107,7 +32100,7 @@
       </c>
       <c r="N248" s="5"/>
     </row>
-    <row r="249" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="249" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A249" s="2">
         <v>248</v>
       </c>
@@ -32152,7 +32145,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="250" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="250" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A250" s="2">
         <v>249</v>
       </c>
@@ -32195,7 +32188,7 @@
       </c>
       <c r="N250" s="5"/>
     </row>
-    <row r="251" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="251" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A251" s="2">
         <v>250</v>
       </c>
@@ -32238,7 +32231,7 @@
       </c>
       <c r="N251" s="5"/>
     </row>
-    <row r="252" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="252" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A252" s="2">
         <v>251</v>
       </c>
@@ -32281,7 +32274,7 @@
       </c>
       <c r="N252" s="5"/>
     </row>
-    <row r="253" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="253" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A253" s="2">
         <v>252</v>
       </c>
@@ -32324,7 +32317,7 @@
       </c>
       <c r="N253" s="5"/>
     </row>
-    <row r="254" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="254" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A254" s="2">
         <v>253</v>
       </c>
@@ -32367,7 +32360,7 @@
       </c>
       <c r="N254" s="5"/>
     </row>
-    <row r="255" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="255" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A255" s="2">
         <v>254</v>
       </c>
@@ -32410,7 +32403,7 @@
       </c>
       <c r="N255" s="5"/>
     </row>
-    <row r="256" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="256" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A256" s="2">
         <v>255</v>
       </c>
@@ -32453,7 +32446,7 @@
       </c>
       <c r="N256" s="5"/>
     </row>
-    <row r="257" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="257" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A257" s="2">
         <v>256</v>
       </c>
@@ -32496,7 +32489,7 @@
       </c>
       <c r="N257" s="5"/>
     </row>
-    <row r="258" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="258" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A258" s="2">
         <v>257</v>
       </c>
@@ -32539,7 +32532,7 @@
       </c>
       <c r="N258" s="5"/>
     </row>
-    <row r="259" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="259" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A259" s="2">
         <v>258</v>
       </c>
@@ -32582,7 +32575,7 @@
       </c>
       <c r="N259" s="5"/>
     </row>
-    <row r="260" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="260" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A260" s="2">
         <v>259</v>
       </c>
@@ -32625,7 +32618,7 @@
       </c>
       <c r="N260" s="5"/>
     </row>
-    <row r="261" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="261" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A261" s="2">
         <v>260</v>
       </c>
@@ -32668,7 +32661,7 @@
       </c>
       <c r="N261" s="5"/>
     </row>
-    <row r="262" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="262" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A262" s="2">
         <v>261</v>
       </c>
@@ -32711,7 +32704,7 @@
       </c>
       <c r="N262" s="5"/>
     </row>
-    <row r="263" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="263" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A263" s="2">
         <v>262</v>
       </c>
@@ -32754,7 +32747,7 @@
       </c>
       <c r="N263" s="5"/>
     </row>
-    <row r="264" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="264" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A264" s="2">
         <v>263</v>
       </c>
@@ -32797,7 +32790,7 @@
       </c>
       <c r="N264" s="5"/>
     </row>
-    <row r="265" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="265" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A265" s="2">
         <v>264</v>
       </c>
@@ -32840,7 +32833,7 @@
       </c>
       <c r="N265" s="5"/>
     </row>
-    <row r="266" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="266" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A266" s="2">
         <v>265</v>
       </c>
@@ -32883,7 +32876,7 @@
       </c>
       <c r="N266" s="5"/>
     </row>
-    <row r="267" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="267" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A267" s="2">
         <v>266</v>
       </c>
@@ -32928,7 +32921,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="268" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="268" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A268" s="2">
         <v>267</v>
       </c>
@@ -32973,7 +32966,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="269" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="269" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A269" s="2">
         <v>268</v>
       </c>
@@ -33016,7 +33009,7 @@
       </c>
       <c r="N269" s="5"/>
     </row>
-    <row r="270" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="270" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A270" s="2">
         <v>269</v>
       </c>
@@ -33059,7 +33052,7 @@
       </c>
       <c r="N270" s="5"/>
     </row>
-    <row r="271" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="271" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A271" s="2">
         <v>270</v>
       </c>
@@ -33102,7 +33095,7 @@
       </c>
       <c r="N271" s="5"/>
     </row>
-    <row r="272" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="272" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A272" s="2">
         <v>271</v>
       </c>
@@ -33145,7 +33138,7 @@
       </c>
       <c r="N272" s="5"/>
     </row>
-    <row r="273" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="273" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A273" s="2">
         <v>272</v>
       </c>
@@ -33188,7 +33181,7 @@
       </c>
       <c r="N273" s="5"/>
     </row>
-    <row r="274" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="274" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A274" s="2">
         <v>273</v>
       </c>
@@ -33231,7 +33224,7 @@
       </c>
       <c r="N274" s="5"/>
     </row>
-    <row r="275" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="275" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A275" s="2">
         <v>274</v>
       </c>
@@ -33274,7 +33267,7 @@
       </c>
       <c r="N275" s="5"/>
     </row>
-    <row r="276" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="276" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A276" s="2">
         <v>275</v>
       </c>
@@ -33317,7 +33310,7 @@
       </c>
       <c r="N276" s="5"/>
     </row>
-    <row r="277" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="277" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A277" s="2">
         <v>276</v>
       </c>
@@ -33360,7 +33353,7 @@
       </c>
       <c r="N277" s="5"/>
     </row>
-    <row r="278" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="278" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A278" s="2">
         <v>277</v>
       </c>
@@ -33403,7 +33396,7 @@
       </c>
       <c r="N278" s="5"/>
     </row>
-    <row r="279" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="279" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A279" s="2">
         <v>278</v>
       </c>
@@ -33446,7 +33439,7 @@
       </c>
       <c r="N279" s="5"/>
     </row>
-    <row r="280" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="280" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A280" s="2">
         <v>279</v>
       </c>
@@ -33489,7 +33482,7 @@
       </c>
       <c r="N280" s="5"/>
     </row>
-    <row r="281" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="281" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A281" s="2">
         <v>280</v>
       </c>
@@ -33532,7 +33525,7 @@
       </c>
       <c r="N281" s="5"/>
     </row>
-    <row r="282" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="282" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A282" s="2">
         <v>281</v>
       </c>
@@ -33575,7 +33568,7 @@
       </c>
       <c r="N282" s="5"/>
     </row>
-    <row r="283" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="283" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A283" s="2">
         <v>282</v>
       </c>
@@ -33618,7 +33611,7 @@
       </c>
       <c r="N283" s="5"/>
     </row>
-    <row r="284" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="284" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A284" s="2">
         <v>283</v>
       </c>
@@ -33663,7 +33656,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="285" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="285" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A285" s="2">
         <v>284</v>
       </c>
@@ -33706,7 +33699,7 @@
       </c>
       <c r="N285" s="5"/>
     </row>
-    <row r="286" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="286" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A286" s="2">
         <v>285</v>
       </c>
@@ -33749,7 +33742,7 @@
       </c>
       <c r="N286" s="5"/>
     </row>
-    <row r="287" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="287" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A287" s="2">
         <v>286</v>
       </c>
@@ -33792,7 +33785,7 @@
       </c>
       <c r="N287" s="5"/>
     </row>
-    <row r="288" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="288" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A288" s="2">
         <v>287</v>
       </c>
@@ -33835,7 +33828,7 @@
       </c>
       <c r="N288" s="5"/>
     </row>
-    <row r="289" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="289" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A289" s="2">
         <v>288</v>
       </c>
@@ -33878,7 +33871,7 @@
       </c>
       <c r="N289" s="5"/>
     </row>
-    <row r="290" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="290" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A290" s="2">
         <v>289</v>
       </c>
@@ -33921,7 +33914,7 @@
       </c>
       <c r="N290" s="5"/>
     </row>
-    <row r="291" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="291" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A291" s="2">
         <v>290</v>
       </c>
@@ -33964,7 +33957,7 @@
       </c>
       <c r="N291" s="5"/>
     </row>
-    <row r="292" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="292" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A292" s="2">
         <v>291</v>
       </c>
@@ -34007,7 +34000,7 @@
       </c>
       <c r="N292" s="5"/>
     </row>
-    <row r="293" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="293" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A293" s="2">
         <v>292</v>
       </c>
@@ -34050,7 +34043,7 @@
       </c>
       <c r="N293" s="5"/>
     </row>
-    <row r="294" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="294" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A294" s="2">
         <v>293</v>
       </c>
@@ -34093,7 +34086,7 @@
       </c>
       <c r="N294" s="5"/>
     </row>
-    <row r="295" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="295" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A295" s="2">
         <v>294</v>
       </c>
@@ -34136,7 +34129,7 @@
       </c>
       <c r="N295" s="5"/>
     </row>
-    <row r="296" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="296" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A296" s="2">
         <v>295</v>
       </c>
@@ -34179,7 +34172,7 @@
       </c>
       <c r="N296" s="5"/>
     </row>
-    <row r="297" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="297" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A297" s="2">
         <v>296</v>
       </c>
@@ -34222,7 +34215,7 @@
       </c>
       <c r="N297" s="5"/>
     </row>
-    <row r="298" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="298" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A298" s="2">
         <v>297</v>
       </c>
@@ -34265,7 +34258,7 @@
       </c>
       <c r="N298" s="5"/>
     </row>
-    <row r="299" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="299" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A299" s="2">
         <v>298</v>
       </c>
@@ -34308,7 +34301,7 @@
       </c>
       <c r="N299" s="5"/>
     </row>
-    <row r="300" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="300" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A300" s="2">
         <v>299</v>
       </c>
@@ -34351,7 +34344,7 @@
       </c>
       <c r="N300" s="5"/>
     </row>
-    <row r="301" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="301" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A301" s="2">
         <v>300</v>
       </c>
@@ -34394,7 +34387,7 @@
       </c>
       <c r="N301" s="5"/>
     </row>
-    <row r="302" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="302" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A302" s="2">
         <v>301</v>
       </c>
@@ -34439,7 +34432,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="303" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="303" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A303" s="2">
         <v>302</v>
       </c>
@@ -34484,7 +34477,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="304" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="304" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A304" s="2">
         <v>303</v>
       </c>
@@ -34529,7 +34522,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="305" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="305" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A305" s="2">
         <v>304</v>
       </c>
@@ -34572,7 +34565,7 @@
       </c>
       <c r="N305" s="5"/>
     </row>
-    <row r="306" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="306" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A306" s="2">
         <v>305</v>
       </c>
@@ -34617,7 +34610,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="307" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="307" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A307" s="2">
         <v>306</v>
       </c>
@@ -34662,7 +34655,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="308" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="308" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A308" s="2">
         <v>307</v>
       </c>
@@ -34705,7 +34698,7 @@
       </c>
       <c r="N308" s="5"/>
     </row>
-    <row r="309" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="309" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A309" s="2">
         <v>308</v>
       </c>
@@ -34748,7 +34741,7 @@
       </c>
       <c r="N309" s="5"/>
     </row>
-    <row r="310" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="310" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A310" s="2">
         <v>309</v>
       </c>
@@ -34791,7 +34784,7 @@
       </c>
       <c r="N310" s="5"/>
     </row>
-    <row r="311" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="311" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A311" s="2">
         <v>310</v>
       </c>
@@ -34834,7 +34827,7 @@
       </c>
       <c r="N311" s="5"/>
     </row>
-    <row r="312" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="312" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A312" s="2">
         <v>311</v>
       </c>
@@ -34879,7 +34872,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="313" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="313" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A313" s="2">
         <v>312</v>
       </c>
@@ -34922,7 +34915,7 @@
       </c>
       <c r="N313" s="5"/>
     </row>
-    <row r="314" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="314" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A314" s="2">
         <v>313</v>
       </c>
@@ -34965,7 +34958,7 @@
       </c>
       <c r="N314" s="5"/>
     </row>
-    <row r="315" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="315" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A315" s="2">
         <v>314</v>
       </c>
@@ -35008,7 +35001,7 @@
       </c>
       <c r="N315" s="5"/>
     </row>
-    <row r="316" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="316" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A316" s="2">
         <v>315</v>
       </c>
@@ -35051,7 +35044,7 @@
       </c>
       <c r="N316" s="5"/>
     </row>
-    <row r="317" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="317" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A317" s="2">
         <v>316</v>
       </c>
@@ -35094,7 +35087,7 @@
       </c>
       <c r="N317" s="5"/>
     </row>
-    <row r="318" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="318" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A318" s="2">
         <v>317</v>
       </c>
@@ -35139,7 +35132,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="319" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="319" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A319" s="2">
         <v>318</v>
       </c>
@@ -35182,7 +35175,7 @@
       </c>
       <c r="N319" s="5"/>
     </row>
-    <row r="320" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="320" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A320" s="2">
         <v>319</v>
       </c>
@@ -35225,7 +35218,7 @@
       </c>
       <c r="N320" s="5"/>
     </row>
-    <row r="321" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="321" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A321" s="2">
         <v>320</v>
       </c>
@@ -35268,7 +35261,7 @@
       </c>
       <c r="N321" s="5"/>
     </row>
-    <row r="322" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="322" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A322" s="2">
         <v>321</v>
       </c>
@@ -35311,7 +35304,7 @@
       </c>
       <c r="N322" s="5"/>
     </row>
-    <row r="323" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="323" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A323" s="2">
         <v>322</v>
       </c>
@@ -35354,7 +35347,7 @@
       </c>
       <c r="N323" s="5"/>
     </row>
-    <row r="324" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="324" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A324" s="2">
         <v>323</v>
       </c>
@@ -35399,7 +35392,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="325" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="325" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A325" s="2">
         <v>324</v>
       </c>
@@ -35442,7 +35435,7 @@
       <c r="M325" s="5"/>
       <c r="N325" s="5"/>
     </row>
-    <row r="326" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="326" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A326" s="2">
         <v>325</v>
       </c>
@@ -35487,7 +35480,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="327" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="327" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A327" s="2">
         <v>326</v>
       </c>
@@ -35532,7 +35525,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="328" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="328" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A328" s="2">
         <v>327</v>
       </c>
@@ -35575,7 +35568,7 @@
       </c>
       <c r="N328" s="5"/>
     </row>
-    <row r="329" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="329" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A329" s="2">
         <v>328</v>
       </c>
@@ -35618,7 +35611,7 @@
       </c>
       <c r="N329" s="5"/>
     </row>
-    <row r="330" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="330" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A330" s="2">
         <v>329</v>
       </c>
@@ -35663,7 +35656,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="331" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="331" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A331" s="2">
         <v>330</v>
       </c>
@@ -35706,7 +35699,7 @@
       </c>
       <c r="N331" s="5"/>
     </row>
-    <row r="332" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="332" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A332" s="2">
         <v>331</v>
       </c>
@@ -35749,7 +35742,7 @@
       </c>
       <c r="N332" s="5"/>
     </row>
-    <row r="333" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="333" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A333" s="2">
         <v>332</v>
       </c>
@@ -35794,7 +35787,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="334" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="334" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A334" s="2">
         <v>333</v>
       </c>
@@ -35837,7 +35830,7 @@
       </c>
       <c r="N334" s="5"/>
     </row>
-    <row r="335" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="335" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A335" s="2">
         <v>334</v>
       </c>
@@ -35880,7 +35873,7 @@
       </c>
       <c r="N335" s="5"/>
     </row>
-    <row r="336" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="336" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A336" s="2">
         <v>335</v>
       </c>
@@ -35923,7 +35916,7 @@
       </c>
       <c r="N336" s="5"/>
     </row>
-    <row r="337" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="337" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A337" s="2">
         <v>336</v>
       </c>
@@ -35966,7 +35959,7 @@
       </c>
       <c r="N337" s="5"/>
     </row>
-    <row r="338" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="338" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A338" s="2">
         <v>337</v>
       </c>
@@ -36009,7 +36002,7 @@
       </c>
       <c r="N338" s="5"/>
     </row>
-    <row r="339" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="339" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A339" s="2">
         <v>338</v>
       </c>
@@ -36052,7 +36045,7 @@
       </c>
       <c r="N339" s="5"/>
     </row>
-    <row r="340" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="340" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A340" s="2">
         <v>339</v>
       </c>
@@ -36095,7 +36088,7 @@
       </c>
       <c r="N340" s="5"/>
     </row>
-    <row r="341" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="341" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A341" s="2">
         <v>340</v>
       </c>
@@ -36138,7 +36131,7 @@
       </c>
       <c r="N341" s="5"/>
     </row>
-    <row r="342" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="342" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A342" s="2">
         <v>341</v>
       </c>
@@ -36181,7 +36174,7 @@
       </c>
       <c r="N342" s="5"/>
     </row>
-    <row r="343" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="343" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A343" s="2">
         <v>342</v>
       </c>
@@ -36224,7 +36217,7 @@
       </c>
       <c r="N343" s="5"/>
     </row>
-    <row r="344" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="344" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A344" s="2">
         <v>343</v>
       </c>
@@ -36267,7 +36260,7 @@
       </c>
       <c r="N344" s="5"/>
     </row>
-    <row r="345" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="345" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A345" s="2">
         <v>344</v>
       </c>
@@ -36310,7 +36303,7 @@
       </c>
       <c r="N345" s="5"/>
     </row>
-    <row r="346" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="346" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A346" s="2">
         <v>345</v>
       </c>
@@ -36353,7 +36346,7 @@
       </c>
       <c r="N346" s="5"/>
     </row>
-    <row r="347" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="347" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A347" s="2">
         <v>346</v>
       </c>
@@ -36396,7 +36389,7 @@
       </c>
       <c r="N347" s="5"/>
     </row>
-    <row r="348" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="348" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A348" s="2">
         <v>347</v>
       </c>
@@ -36441,7 +36434,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="349" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="349" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A349" s="2">
         <v>348</v>
       </c>
@@ -36484,7 +36477,7 @@
       </c>
       <c r="N349" s="5"/>
     </row>
-    <row r="350" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="350" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A350" s="2">
         <v>349</v>
       </c>
@@ -36527,7 +36520,7 @@
       </c>
       <c r="N350" s="5"/>
     </row>
-    <row r="351" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="351" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A351" s="2">
         <v>350</v>
       </c>
@@ -36570,7 +36563,7 @@
       </c>
       <c r="N351" s="5"/>
     </row>
-    <row r="352" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="352" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A352" s="2">
         <v>351</v>
       </c>
@@ -36613,7 +36606,7 @@
       </c>
       <c r="N352" s="5"/>
     </row>
-    <row r="353" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="353" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A353" s="2">
         <v>352</v>
       </c>
@@ -36656,7 +36649,7 @@
       </c>
       <c r="N353" s="5"/>
     </row>
-    <row r="354" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="354" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A354" s="2">
         <v>353</v>
       </c>
@@ -36699,7 +36692,7 @@
       </c>
       <c r="N354" s="5"/>
     </row>
-    <row r="355" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="355" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A355" s="2">
         <v>354</v>
       </c>
@@ -36742,7 +36735,7 @@
       </c>
       <c r="N355" s="5"/>
     </row>
-    <row r="356" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="356" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A356" s="2">
         <v>355</v>
       </c>
@@ -36785,7 +36778,7 @@
       </c>
       <c r="N356" s="5"/>
     </row>
-    <row r="357" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="357" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A357" s="2">
         <v>356</v>
       </c>
@@ -36828,7 +36821,7 @@
       </c>
       <c r="N357" s="5"/>
     </row>
-    <row r="358" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="358" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A358" s="2">
         <v>357</v>
       </c>
@@ -36871,7 +36864,7 @@
       </c>
       <c r="N358" s="5"/>
     </row>
-    <row r="359" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="359" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A359" s="2">
         <v>358</v>
       </c>
@@ -36914,7 +36907,7 @@
       </c>
       <c r="N359" s="5"/>
     </row>
-    <row r="360" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="360" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A360" s="2">
         <v>359</v>
       </c>
@@ -36957,7 +36950,7 @@
       </c>
       <c r="N360" s="5"/>
     </row>
-    <row r="361" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="361" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A361" s="2">
         <v>360</v>
       </c>
@@ -37000,7 +36993,7 @@
       </c>
       <c r="N361" s="5"/>
     </row>
-    <row r="362" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="362" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A362" s="2">
         <v>361</v>
       </c>
@@ -37043,7 +37036,7 @@
       </c>
       <c r="N362" s="5"/>
     </row>
-    <row r="363" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="363" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A363" s="2">
         <v>362</v>
       </c>
@@ -37086,7 +37079,7 @@
       </c>
       <c r="N363" s="5"/>
     </row>
-    <row r="364" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="364" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A364" s="2">
         <v>363</v>
       </c>
@@ -37129,7 +37122,7 @@
       </c>
       <c r="N364" s="5"/>
     </row>
-    <row r="365" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="365" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A365" s="2">
         <v>364</v>
       </c>
@@ -37172,7 +37165,7 @@
       </c>
       <c r="N365" s="5"/>
     </row>
-    <row r="366" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="366" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A366" s="2">
         <v>365</v>
       </c>
@@ -37215,7 +37208,7 @@
       </c>
       <c r="N366" s="5"/>
     </row>
-    <row r="367" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="367" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A367" s="2">
         <v>366</v>
       </c>
@@ -37258,7 +37251,7 @@
       <c r="M367" s="5"/>
       <c r="N367" s="5"/>
     </row>
-    <row r="368" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="368" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A368" s="2">
         <v>367</v>
       </c>
@@ -37303,7 +37296,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="369" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="369" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A369" s="2">
         <v>368</v>
       </c>
@@ -37346,7 +37339,7 @@
       </c>
       <c r="N369" s="5"/>
     </row>
-    <row r="370" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="370" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A370" s="2">
         <v>369</v>
       </c>
@@ -37389,7 +37382,7 @@
       </c>
       <c r="N370" s="5"/>
     </row>
-    <row r="371" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="371" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A371" s="2">
         <v>370</v>
       </c>
@@ -37432,7 +37425,7 @@
       </c>
       <c r="N371" s="5"/>
     </row>
-    <row r="372" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="372" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A372" s="2">
         <v>371</v>
       </c>
@@ -37475,7 +37468,7 @@
       </c>
       <c r="N372" s="5"/>
     </row>
-    <row r="373" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="373" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A373" s="2">
         <v>372</v>
       </c>
@@ -37520,7 +37513,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="374" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="374" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A374" s="2">
         <v>373</v>
       </c>
@@ -37565,7 +37558,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="375" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="375" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A375" s="2">
         <v>374</v>
       </c>
@@ -37608,7 +37601,7 @@
       </c>
       <c r="N375" s="5"/>
     </row>
-    <row r="376" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="376" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A376" s="2">
         <v>375</v>
       </c>
@@ -37651,7 +37644,7 @@
       </c>
       <c r="N376" s="5"/>
     </row>
-    <row r="377" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="377" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A377" s="2">
         <v>376</v>
       </c>
@@ -37694,7 +37687,7 @@
       </c>
       <c r="N377" s="5"/>
     </row>
-    <row r="378" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="378" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A378" s="2">
         <v>377</v>
       </c>
@@ -37737,7 +37730,7 @@
       </c>
       <c r="N378" s="5"/>
     </row>
-    <row r="379" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="379" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A379" s="2">
         <v>378</v>
       </c>
@@ -37780,7 +37773,7 @@
       </c>
       <c r="N379" s="5"/>
     </row>
-    <row r="380" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="380" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A380" s="2">
         <v>379</v>
       </c>
@@ -37823,7 +37816,7 @@
       </c>
       <c r="N380" s="5"/>
     </row>
-    <row r="381" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="381" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A381" s="2">
         <v>380</v>
       </c>
@@ -37866,7 +37859,7 @@
       </c>
       <c r="N381" s="5"/>
     </row>
-    <row r="382" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="382" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A382" s="2">
         <v>381</v>
       </c>
@@ -37909,7 +37902,7 @@
       </c>
       <c r="N382" s="5"/>
     </row>
-    <row r="383" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="383" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A383" s="2">
         <v>382</v>
       </c>
@@ -37952,7 +37945,7 @@
       </c>
       <c r="N383" s="5"/>
     </row>
-    <row r="384" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="384" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A384" s="2">
         <v>383</v>
       </c>
@@ -37995,7 +37988,7 @@
       </c>
       <c r="N384" s="5"/>
     </row>
-    <row r="385" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="385" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A385" s="2">
         <v>384</v>
       </c>
@@ -38038,7 +38031,7 @@
       </c>
       <c r="N385" s="5"/>
     </row>
-    <row r="386" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="386" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A386" s="2">
         <v>385</v>
       </c>
@@ -38081,7 +38074,7 @@
       </c>
       <c r="N386" s="5"/>
     </row>
-    <row r="387" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="387" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A387" s="2">
         <v>386</v>
       </c>
@@ -38124,7 +38117,7 @@
       </c>
       <c r="N387" s="5"/>
     </row>
-    <row r="388" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="388" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A388" s="2">
         <v>387</v>
       </c>
@@ -38167,7 +38160,7 @@
       </c>
       <c r="N388" s="5"/>
     </row>
-    <row r="389" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="389" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A389" s="2">
         <v>388</v>
       </c>
@@ -38210,7 +38203,7 @@
       </c>
       <c r="N389" s="5"/>
     </row>
-    <row r="390" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="390" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A390" s="2">
         <v>389</v>
       </c>
@@ -38253,7 +38246,7 @@
       </c>
       <c r="N390" s="5"/>
     </row>
-    <row r="391" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="391" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A391" s="2">
         <v>390</v>
       </c>
@@ -38296,7 +38289,7 @@
       </c>
       <c r="N391" s="5"/>
     </row>
-    <row r="392" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="392" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A392" s="2">
         <v>391</v>
       </c>
@@ -38339,7 +38332,7 @@
       </c>
       <c r="N392" s="5"/>
     </row>
-    <row r="393" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="393" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A393" s="2">
         <v>392</v>
       </c>
@@ -38382,7 +38375,7 @@
       </c>
       <c r="N393" s="5"/>
     </row>
-    <row r="394" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="394" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A394" s="2">
         <v>393</v>
       </c>
@@ -38427,7 +38420,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="395" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="395" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A395" s="2">
         <v>394</v>
       </c>
@@ -38470,7 +38463,7 @@
       </c>
       <c r="N395" s="5"/>
     </row>
-    <row r="396" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="396" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A396" s="2">
         <v>395</v>
       </c>
@@ -38513,7 +38506,7 @@
       </c>
       <c r="N396" s="5"/>
     </row>
-    <row r="397" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="397" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A397" s="2">
         <v>396</v>
       </c>
@@ -38556,7 +38549,7 @@
       </c>
       <c r="N397" s="5"/>
     </row>
-    <row r="398" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="398" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A398" s="2">
         <v>397</v>
       </c>
@@ -38599,7 +38592,7 @@
       </c>
       <c r="N398" s="5"/>
     </row>
-    <row r="399" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="399" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A399" s="2">
         <v>398</v>
       </c>
@@ -38642,7 +38635,7 @@
       </c>
       <c r="N399" s="5"/>
     </row>
-    <row r="400" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="400" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A400" s="2">
         <v>399</v>
       </c>
@@ -38685,7 +38678,7 @@
       </c>
       <c r="N400" s="5"/>
     </row>
-    <row r="401" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="401" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A401" s="2">
         <v>400</v>
       </c>
@@ -38728,7 +38721,7 @@
       </c>
       <c r="N401" s="5"/>
     </row>
-    <row r="402" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="402" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A402" s="2">
         <v>401</v>
       </c>
@@ -38771,7 +38764,7 @@
       </c>
       <c r="N402" s="5"/>
     </row>
-    <row r="403" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="403" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A403" s="2">
         <v>402</v>
       </c>
@@ -38814,7 +38807,7 @@
       </c>
       <c r="N403" s="5"/>
     </row>
-    <row r="404" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="404" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A404" s="2">
         <v>403</v>
       </c>
@@ -38857,7 +38850,7 @@
       </c>
       <c r="N404" s="5"/>
     </row>
-    <row r="405" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="405" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A405" s="2">
         <v>404</v>
       </c>
@@ -38902,7 +38895,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="406" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="406" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A406" s="2">
         <v>405</v>
       </c>
@@ -38945,7 +38938,7 @@
       </c>
       <c r="N406" s="5"/>
     </row>
-    <row r="407" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="407" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A407" s="2">
         <v>406</v>
       </c>
@@ -38988,7 +38981,7 @@
       </c>
       <c r="N407" s="5"/>
     </row>
-    <row r="408" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="408" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A408" s="2">
         <v>407</v>
       </c>
@@ -39031,7 +39024,7 @@
       </c>
       <c r="N408" s="5"/>
     </row>
-    <row r="409" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="409" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A409" s="2">
         <v>408</v>
       </c>
@@ -39074,7 +39067,7 @@
       </c>
       <c r="N409" s="5"/>
     </row>
-    <row r="410" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="410" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A410" s="2">
         <v>409</v>
       </c>
@@ -39117,7 +39110,7 @@
       </c>
       <c r="N410" s="5"/>
     </row>
-    <row r="411" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="411" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A411" s="2">
         <v>410</v>
       </c>
@@ -39160,7 +39153,7 @@
       </c>
       <c r="N411" s="5"/>
     </row>
-    <row r="412" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="412" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A412" s="2">
         <v>411</v>
       </c>
@@ -39203,7 +39196,7 @@
       </c>
       <c r="N412" s="5"/>
     </row>
-    <row r="413" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="413" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A413" s="2">
         <v>412</v>
       </c>
@@ -39246,7 +39239,7 @@
       </c>
       <c r="N413" s="5"/>
     </row>
-    <row r="414" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="414" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A414" s="2">
         <v>413</v>
       </c>
@@ -39289,7 +39282,7 @@
       </c>
       <c r="N414" s="5"/>
     </row>
-    <row r="415" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="415" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A415" s="2">
         <v>414</v>
       </c>
@@ -39332,7 +39325,7 @@
       </c>
       <c r="N415" s="5"/>
     </row>
-    <row r="416" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="416" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A416" s="2">
         <v>415</v>
       </c>
@@ -39375,7 +39368,7 @@
       </c>
       <c r="N416" s="5"/>
     </row>
-    <row r="417" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="417" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A417" s="2">
         <v>416</v>
       </c>
@@ -39418,7 +39411,7 @@
       </c>
       <c r="N417" s="5"/>
     </row>
-    <row r="418" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="418" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A418" s="2">
         <v>417</v>
       </c>
@@ -39461,7 +39454,7 @@
       </c>
       <c r="N418" s="5"/>
     </row>
-    <row r="419" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="419" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A419" s="2">
         <v>418</v>
       </c>
@@ -39506,7 +39499,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="420" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="420" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A420" s="2">
         <v>419</v>
       </c>
@@ -39551,7 +39544,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="421" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="421" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A421" s="2">
         <v>420</v>
       </c>
@@ -39594,7 +39587,7 @@
       </c>
       <c r="N421" s="5"/>
     </row>
-    <row r="422" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="422" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A422" s="2">
         <v>421</v>
       </c>
@@ -39639,7 +39632,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="423" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="423" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A423" s="2">
         <v>422</v>
       </c>
@@ -39682,7 +39675,7 @@
       </c>
       <c r="N423" s="5"/>
     </row>
-    <row r="424" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="424" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A424" s="2">
         <v>423</v>
       </c>
@@ -39725,7 +39718,7 @@
       </c>
       <c r="N424" s="5"/>
     </row>
-    <row r="425" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="425" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A425" s="2">
         <v>424</v>
       </c>
@@ -39770,7 +39763,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="426" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="426" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A426" s="2">
         <v>425</v>
       </c>
@@ -39813,7 +39806,7 @@
       </c>
       <c r="N426" s="5"/>
     </row>
-    <row r="427" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="427" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A427" s="2">
         <v>426</v>
       </c>
@@ -39856,7 +39849,7 @@
       </c>
       <c r="N427" s="5"/>
     </row>
-    <row r="428" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="428" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A428" s="2">
         <v>427</v>
       </c>
@@ -39899,7 +39892,7 @@
       </c>
       <c r="N428" s="5"/>
     </row>
-    <row r="429" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="429" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A429" s="2">
         <v>428</v>
       </c>
@@ -39942,7 +39935,7 @@
       </c>
       <c r="N429" s="5"/>
     </row>
-    <row r="430" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="430" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A430" s="2">
         <v>429</v>
       </c>
@@ -39985,7 +39978,7 @@
       </c>
       <c r="N430" s="5"/>
     </row>
-    <row r="431" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="431" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A431" s="2">
         <v>430</v>
       </c>
@@ -40030,7 +40023,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="432" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="432" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A432" s="2">
         <v>431</v>
       </c>
@@ -40073,7 +40066,7 @@
       </c>
       <c r="N432" s="5"/>
     </row>
-    <row r="433" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="433" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A433" s="2">
         <v>432</v>
       </c>
@@ -40116,7 +40109,7 @@
       <c r="M433" s="5"/>
       <c r="N433" s="5"/>
     </row>
-    <row r="434" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="434" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A434" s="2">
         <v>433</v>
       </c>
@@ -40159,7 +40152,7 @@
       </c>
       <c r="N434" s="5"/>
     </row>
-    <row r="435" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="435" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A435" s="2">
         <v>434</v>
       </c>
@@ -40202,7 +40195,7 @@
       </c>
       <c r="N435" s="5"/>
     </row>
-    <row r="436" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="436" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A436" s="2">
         <v>435</v>
       </c>
@@ -40245,7 +40238,7 @@
       </c>
       <c r="N436" s="5"/>
     </row>
-    <row r="437" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="437" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A437" s="2">
         <v>436</v>
       </c>
@@ -40288,7 +40281,7 @@
       </c>
       <c r="N437" s="5"/>
     </row>
-    <row r="438" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="438" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A438" s="2">
         <v>437</v>
       </c>
@@ -40331,7 +40324,7 @@
       </c>
       <c r="N438" s="5"/>
     </row>
-    <row r="439" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="439" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A439" s="2">
         <v>438</v>
       </c>
@@ -40376,7 +40369,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="440" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="440" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A440" s="2">
         <v>439</v>
       </c>
@@ -40419,7 +40412,7 @@
       </c>
       <c r="N440" s="5"/>
     </row>
-    <row r="441" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="441" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A441" s="2">
         <v>440</v>
       </c>
@@ -40462,7 +40455,7 @@
       </c>
       <c r="N441" s="5"/>
     </row>
-    <row r="442" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="442" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A442" s="2">
         <v>441</v>
       </c>
@@ -40505,7 +40498,7 @@
       </c>
       <c r="N442" s="5"/>
     </row>
-    <row r="443" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="443" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A443" s="2">
         <v>442</v>
       </c>
@@ -40548,7 +40541,7 @@
       </c>
       <c r="N443" s="5"/>
     </row>
-    <row r="444" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="444" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A444" s="2">
         <v>443</v>
       </c>
@@ -40591,7 +40584,7 @@
       </c>
       <c r="N444" s="5"/>
     </row>
-    <row r="445" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="445" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A445" s="2">
         <v>444</v>
       </c>
@@ -40634,7 +40627,7 @@
       </c>
       <c r="N445" s="5"/>
     </row>
-    <row r="446" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="446" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A446" s="2">
         <v>445</v>
       </c>
@@ -40677,7 +40670,7 @@
       </c>
       <c r="N446" s="5"/>
     </row>
-    <row r="447" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="447" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A447" s="2">
         <v>446</v>
       </c>
@@ -40720,7 +40713,7 @@
       </c>
       <c r="N447" s="5"/>
     </row>
-    <row r="448" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="448" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A448" s="2">
         <v>447</v>
       </c>
@@ -40763,7 +40756,7 @@
       </c>
       <c r="N448" s="5"/>
     </row>
-    <row r="449" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="449" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A449" s="2">
         <v>448</v>
       </c>
@@ -40808,7 +40801,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="450" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="450" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A450" s="2">
         <v>449</v>
       </c>
@@ -40851,7 +40844,7 @@
       </c>
       <c r="N450" s="5"/>
     </row>
-    <row r="451" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="451" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A451" s="2">
         <v>450</v>
       </c>
@@ -40894,7 +40887,7 @@
       </c>
       <c r="N451" s="5"/>
     </row>
-    <row r="452" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="452" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A452" s="2">
         <v>451</v>
       </c>
@@ -40937,7 +40930,7 @@
       </c>
       <c r="N452" s="5"/>
     </row>
-    <row r="453" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="453" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A453" s="2">
         <v>452</v>
       </c>
@@ -40980,7 +40973,7 @@
       </c>
       <c r="N453" s="5"/>
     </row>
-    <row r="454" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="454" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A454" s="2">
         <v>453</v>
       </c>
@@ -41025,7 +41018,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="455" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="455" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A455" s="2">
         <v>454</v>
       </c>
@@ -41068,7 +41061,7 @@
       </c>
       <c r="N455" s="5"/>
     </row>
-    <row r="456" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="456" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A456" s="2">
         <v>455</v>
       </c>
@@ -41111,7 +41104,7 @@
       </c>
       <c r="N456" s="5"/>
     </row>
-    <row r="457" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="457" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A457" s="2">
         <v>456</v>
       </c>
@@ -41154,7 +41147,7 @@
       </c>
       <c r="N457" s="5"/>
     </row>
-    <row r="458" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="458" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A458" s="2">
         <v>457</v>
       </c>
@@ -41197,7 +41190,7 @@
       </c>
       <c r="N458" s="5"/>
     </row>
-    <row r="459" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="459" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A459" s="2">
         <v>458</v>
       </c>
@@ -41240,7 +41233,7 @@
       </c>
       <c r="N459" s="5"/>
     </row>
-    <row r="460" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="460" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A460" s="2">
         <v>459</v>
       </c>
@@ -41283,7 +41276,7 @@
       </c>
       <c r="N460" s="5"/>
     </row>
-    <row r="461" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="461" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A461" s="2">
         <v>460</v>
       </c>
@@ -41326,7 +41319,7 @@
       </c>
       <c r="N461" s="5"/>
     </row>
-    <row r="462" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="462" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A462" s="2">
         <v>461</v>
       </c>
@@ -41369,7 +41362,7 @@
       </c>
       <c r="N462" s="5"/>
     </row>
-    <row r="463" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="463" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A463" s="2">
         <v>462</v>
       </c>
@@ -41412,7 +41405,7 @@
       </c>
       <c r="N463" s="5"/>
     </row>
-    <row r="464" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="464" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A464" s="2">
         <v>463</v>
       </c>
@@ -41455,7 +41448,7 @@
       </c>
       <c r="N464" s="5"/>
     </row>
-    <row r="465" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="465" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A465" s="2">
         <v>464</v>
       </c>
@@ -41498,7 +41491,7 @@
       </c>
       <c r="N465" s="5"/>
     </row>
-    <row r="466" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="466" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A466" s="2">
         <v>465</v>
       </c>
@@ -41541,7 +41534,7 @@
       </c>
       <c r="N466" s="5"/>
     </row>
-    <row r="467" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="467" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A467" s="2">
         <v>466</v>
       </c>
@@ -41584,7 +41577,7 @@
       </c>
       <c r="N467" s="5"/>
     </row>
-    <row r="468" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="468" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A468" s="2">
         <v>467</v>
       </c>
@@ -41627,7 +41620,7 @@
       </c>
       <c r="N468" s="5"/>
     </row>
-    <row r="469" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="469" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A469" s="2">
         <v>468</v>
       </c>
@@ -41670,7 +41663,7 @@
       </c>
       <c r="N469" s="5"/>
     </row>
-    <row r="470" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="470" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A470" s="2">
         <v>469</v>
       </c>
@@ -41713,7 +41706,7 @@
       </c>
       <c r="N470" s="5"/>
     </row>
-    <row r="471" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="471" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A471" s="2">
         <v>470</v>
       </c>
@@ -41756,7 +41749,7 @@
       </c>
       <c r="N471" s="5"/>
     </row>
-    <row r="472" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="472" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A472" s="2">
         <v>471</v>
       </c>
@@ -41799,7 +41792,7 @@
       </c>
       <c r="N472" s="5"/>
     </row>
-    <row r="473" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="473" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A473" s="2">
         <v>472</v>
       </c>
@@ -41842,7 +41835,7 @@
       </c>
       <c r="N473" s="5"/>
     </row>
-    <row r="474" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="474" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A474" s="2">
         <v>473</v>
       </c>
@@ -41885,7 +41878,7 @@
       </c>
       <c r="N474" s="5"/>
     </row>
-    <row r="475" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="475" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A475" s="2">
         <v>474</v>
       </c>
@@ -41930,7 +41923,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="476" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="476" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A476" s="2">
         <v>475</v>
       </c>
@@ -41973,7 +41966,7 @@
       </c>
       <c r="N476" s="5"/>
     </row>
-    <row r="477" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="477" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A477" s="2">
         <v>476</v>
       </c>
@@ -42016,7 +42009,7 @@
       </c>
       <c r="N477" s="5"/>
     </row>
-    <row r="478" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="478" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A478" s="2">
         <v>477</v>
       </c>
@@ -42061,7 +42054,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="479" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="479" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A479" s="2">
         <v>478</v>
       </c>
@@ -42104,7 +42097,7 @@
       </c>
       <c r="N479" s="5"/>
     </row>
-    <row r="480" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="480" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A480" s="2">
         <v>479</v>
       </c>
@@ -42147,7 +42140,7 @@
       </c>
       <c r="N480" s="5"/>
     </row>
-    <row r="481" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="481" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A481" s="2">
         <v>480</v>
       </c>
@@ -42190,7 +42183,7 @@
       </c>
       <c r="N481" s="5"/>
     </row>
-    <row r="482" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="482" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A482" s="2">
         <v>481</v>
       </c>
@@ -42233,7 +42226,7 @@
       </c>
       <c r="N482" s="5"/>
     </row>
-    <row r="483" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="483" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A483" s="2">
         <v>482</v>
       </c>
@@ -42276,7 +42269,7 @@
       </c>
       <c r="N483" s="5"/>
     </row>
-    <row r="484" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="484" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A484" s="2">
         <v>483</v>
       </c>
@@ -42319,7 +42312,7 @@
       </c>
       <c r="N484" s="5"/>
     </row>
-    <row r="485" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="485" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A485" s="2">
         <v>484</v>
       </c>
@@ -42362,7 +42355,7 @@
       </c>
       <c r="N485" s="5"/>
     </row>
-    <row r="486" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="486" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A486" s="2">
         <v>485</v>
       </c>
@@ -42407,7 +42400,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="487" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="487" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A487" s="2">
         <v>486</v>
       </c>

--- a/results/accuracy_assessment_table.xlsx
+++ b/results/accuracy_assessment_table.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\hispaniola_land_cover_mapping\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5783D075-10A1-4354-8720-DF5D19C53810}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{663F112B-DA2F-4209-BA94-51FCDFD247C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" tabRatio="741" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18000" tabRatio="741" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="landcover_validation_record" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">landcover_validation_record!$A$1:$N$401</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">pf_loss_validation_record!$A$1:$N$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">pf_loss_validation_record!$A$1:$N$487</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -3225,26 +3225,26 @@
       <selection pane="bottomLeft" activeCell="N36" sqref="N36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.26953125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.23046875" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="9.26953125" style="2"/>
-    <col min="2" max="2" width="13.54296875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="9.26953125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.08984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.23046875" style="2"/>
+    <col min="2" max="2" width="13.53515625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="9.23046875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.84375" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.07421875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.53515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.84375" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.4609375" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.53515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.15234375" style="2" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="21.26953125" style="2" customWidth="1"/>
-    <col min="13" max="13" width="18.453125" style="2" customWidth="1"/>
-    <col min="14" max="14" width="16.7265625" style="2" customWidth="1"/>
-    <col min="15" max="16384" width="9.26953125" style="2"/>
+    <col min="12" max="12" width="21.23046875" style="2" customWidth="1"/>
+    <col min="13" max="13" width="18.4609375" style="2" customWidth="1"/>
+    <col min="14" max="14" width="16.69140625" style="2" customWidth="1"/>
+    <col min="15" max="16384" width="9.23046875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>430</v>
       </c>
@@ -3288,7 +3288,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -3333,7 +3333,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -3378,7 +3378,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -3423,7 +3423,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -3468,7 +3468,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -3513,7 +3513,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -3558,7 +3558,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -3603,7 +3603,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -3648,7 +3648,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -3693,7 +3693,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -3738,7 +3738,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -3783,7 +3783,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -3828,7 +3828,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -3873,7 +3873,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -3918,7 +3918,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -3963,7 +3963,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -4008,7 +4008,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -4053,7 +4053,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -4098,7 +4098,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -4143,7 +4143,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A21" s="2">
         <v>20</v>
       </c>
@@ -4188,7 +4188,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A22" s="2">
         <v>21</v>
       </c>
@@ -4233,7 +4233,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A23" s="2">
         <v>22</v>
       </c>
@@ -4278,7 +4278,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A24" s="2">
         <v>23</v>
       </c>
@@ -4323,7 +4323,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A25" s="2">
         <v>24</v>
       </c>
@@ -4368,7 +4368,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A26" s="2">
         <v>25</v>
       </c>
@@ -4413,7 +4413,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A27" s="2">
         <v>26</v>
       </c>
@@ -4458,7 +4458,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A28" s="2">
         <v>27</v>
       </c>
@@ -4505,7 +4505,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A29" s="2">
         <v>28</v>
       </c>
@@ -4550,7 +4550,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A30" s="2">
         <v>29</v>
       </c>
@@ -4595,7 +4595,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A31" s="2">
         <v>30</v>
       </c>
@@ -4640,7 +4640,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A32" s="2">
         <v>31</v>
       </c>
@@ -4685,7 +4685,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A33" s="2">
         <v>32</v>
       </c>
@@ -4730,7 +4730,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A34" s="2">
         <v>33</v>
       </c>
@@ -4775,7 +4775,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A35" s="2">
         <v>34</v>
       </c>
@@ -4820,7 +4820,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A36" s="2">
         <v>35</v>
       </c>
@@ -4865,7 +4865,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A37" s="2">
         <v>36</v>
       </c>
@@ -4910,7 +4910,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A38" s="2">
         <v>37</v>
       </c>
@@ -4955,7 +4955,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A39" s="2">
         <v>38</v>
       </c>
@@ -5000,7 +5000,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A40" s="2">
         <v>39</v>
       </c>
@@ -5045,7 +5045,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A41" s="2">
         <v>40</v>
       </c>
@@ -5090,7 +5090,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A42" s="2">
         <v>41</v>
       </c>
@@ -5135,7 +5135,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A43" s="2">
         <v>42</v>
       </c>
@@ -5180,7 +5180,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A44" s="2">
         <v>43</v>
       </c>
@@ -5225,7 +5225,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A45" s="2">
         <v>44</v>
       </c>
@@ -5270,7 +5270,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A46" s="2">
         <v>45</v>
       </c>
@@ -5315,7 +5315,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A47" s="2">
         <v>46</v>
       </c>
@@ -5360,7 +5360,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A48" s="2">
         <v>47</v>
       </c>
@@ -5405,7 +5405,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A49" s="2">
         <v>48</v>
       </c>
@@ -5450,7 +5450,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A50" s="2">
         <v>49</v>
       </c>
@@ -5495,7 +5495,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A51" s="2">
         <v>50</v>
       </c>
@@ -5540,7 +5540,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A52" s="2">
         <v>51</v>
       </c>
@@ -5587,7 +5587,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A53" s="2">
         <v>52</v>
       </c>
@@ -5632,7 +5632,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A54" s="2">
         <v>53</v>
       </c>
@@ -5677,7 +5677,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A55" s="2">
         <v>54</v>
       </c>
@@ -5722,7 +5722,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A56" s="2">
         <v>55</v>
       </c>
@@ -5767,7 +5767,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A57" s="2">
         <v>56</v>
       </c>
@@ -5812,7 +5812,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A58" s="2">
         <v>57</v>
       </c>
@@ -5857,7 +5857,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A59" s="2">
         <v>58</v>
       </c>
@@ -5902,7 +5902,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A60" s="2">
         <v>59</v>
       </c>
@@ -5947,7 +5947,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A61" s="2">
         <v>60</v>
       </c>
@@ -5992,7 +5992,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A62" s="2">
         <v>61</v>
       </c>
@@ -6037,7 +6037,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A63" s="2">
         <v>62</v>
       </c>
@@ -6082,7 +6082,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A64" s="2">
         <v>63</v>
       </c>
@@ -6127,7 +6127,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A65" s="2">
         <v>64</v>
       </c>
@@ -6172,7 +6172,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A66" s="2">
         <v>65</v>
       </c>
@@ -6217,7 +6217,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A67" s="2">
         <v>66</v>
       </c>
@@ -6262,7 +6262,7 @@
       </c>
       <c r="N67" s="5"/>
     </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A68" s="2">
         <v>67</v>
       </c>
@@ -6307,7 +6307,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A69" s="2">
         <v>68</v>
       </c>
@@ -6354,7 +6354,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A70" s="2">
         <v>69</v>
       </c>
@@ -6399,7 +6399,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A71" s="2">
         <v>70</v>
       </c>
@@ -6444,7 +6444,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A72" s="2">
         <v>71</v>
       </c>
@@ -6489,7 +6489,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A73" s="2">
         <v>72</v>
       </c>
@@ -6534,7 +6534,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A74" s="2">
         <v>73</v>
       </c>
@@ -6579,7 +6579,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A75" s="2">
         <v>74</v>
       </c>
@@ -6624,7 +6624,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A76" s="2">
         <v>75</v>
       </c>
@@ -6669,7 +6669,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A77" s="2">
         <v>76</v>
       </c>
@@ -6714,7 +6714,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A78" s="2">
         <v>77</v>
       </c>
@@ -6759,7 +6759,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A79" s="2">
         <v>78</v>
       </c>
@@ -6804,7 +6804,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A80" s="2">
         <v>79</v>
       </c>
@@ -6849,7 +6849,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A81" s="2">
         <v>80</v>
       </c>
@@ -6894,7 +6894,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A82" s="2">
         <v>81</v>
       </c>
@@ -6939,7 +6939,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A83" s="2">
         <v>82</v>
       </c>
@@ -6984,7 +6984,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A84" s="2">
         <v>83</v>
       </c>
@@ -7029,7 +7029,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A85" s="2">
         <v>84</v>
       </c>
@@ -7074,7 +7074,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A86" s="2">
         <v>85</v>
       </c>
@@ -7119,7 +7119,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A87" s="2">
         <v>86</v>
       </c>
@@ -7164,7 +7164,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A88" s="2">
         <v>87</v>
       </c>
@@ -7209,7 +7209,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A89" s="2">
         <v>88</v>
       </c>
@@ -7256,7 +7256,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A90" s="2">
         <v>89</v>
       </c>
@@ -7301,7 +7301,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A91" s="2">
         <v>90</v>
       </c>
@@ -7346,7 +7346,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A92" s="2">
         <v>91</v>
       </c>
@@ -7391,7 +7391,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A93" s="2">
         <v>92</v>
       </c>
@@ -7436,7 +7436,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A94" s="2">
         <v>93</v>
       </c>
@@ -7481,7 +7481,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A95" s="2">
         <v>94</v>
       </c>
@@ -7526,7 +7526,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A96" s="2">
         <v>95</v>
       </c>
@@ -7571,7 +7571,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A97" s="2">
         <v>96</v>
       </c>
@@ -7616,7 +7616,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A98" s="2">
         <v>97</v>
       </c>
@@ -7661,7 +7661,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A99" s="2">
         <v>98</v>
       </c>
@@ -7708,7 +7708,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A100" s="2">
         <v>99</v>
       </c>
@@ -7753,7 +7753,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A101" s="2">
         <v>100</v>
       </c>
@@ -7798,7 +7798,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="102" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A102" s="2">
         <v>101</v>
       </c>
@@ -7843,7 +7843,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="103" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A103" s="2">
         <v>102</v>
       </c>
@@ -7888,7 +7888,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="104" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A104" s="2">
         <v>103</v>
       </c>
@@ -7933,7 +7933,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="105" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A105" s="2">
         <v>104</v>
       </c>
@@ -7978,7 +7978,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="106" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A106" s="2">
         <v>105</v>
       </c>
@@ -8023,7 +8023,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="107" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A107" s="2">
         <v>106</v>
       </c>
@@ -8068,7 +8068,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="108" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A108" s="2">
         <v>107</v>
       </c>
@@ -8113,7 +8113,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="109" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A109" s="2">
         <v>108</v>
       </c>
@@ -8158,7 +8158,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="110" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A110" s="2">
         <v>109</v>
       </c>
@@ -8203,7 +8203,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="111" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A111" s="2">
         <v>110</v>
       </c>
@@ -8250,7 +8250,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="112" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A112" s="2">
         <v>111</v>
       </c>
@@ -8295,7 +8295,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="113" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A113" s="2">
         <v>112</v>
       </c>
@@ -8340,7 +8340,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="114" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A114" s="2">
         <v>113</v>
       </c>
@@ -8385,7 +8385,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="115" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A115" s="2">
         <v>114</v>
       </c>
@@ -8430,7 +8430,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="116" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A116" s="2">
         <v>115</v>
       </c>
@@ -8475,7 +8475,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="117" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A117" s="2">
         <v>116</v>
       </c>
@@ -8520,7 +8520,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="118" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A118" s="2">
         <v>117</v>
       </c>
@@ -8565,7 +8565,7 @@
       </c>
       <c r="N118" s="5"/>
     </row>
-    <row r="119" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A119" s="2">
         <v>118</v>
       </c>
@@ -8610,7 +8610,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="120" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A120" s="2">
         <v>119</v>
       </c>
@@ -8655,7 +8655,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="121" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A121" s="2">
         <v>120</v>
       </c>
@@ -8700,7 +8700,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="122" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A122" s="2">
         <v>121</v>
       </c>
@@ -8745,7 +8745,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="123" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A123" s="2">
         <v>122</v>
       </c>
@@ -8790,7 +8790,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="124" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A124" s="2">
         <v>123</v>
       </c>
@@ -8835,7 +8835,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="125" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A125" s="2">
         <v>124</v>
       </c>
@@ -8880,7 +8880,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="126" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A126" s="2">
         <v>125</v>
       </c>
@@ -8925,7 +8925,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="127" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A127" s="2">
         <v>126</v>
       </c>
@@ -8970,7 +8970,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="128" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A128" s="2">
         <v>127</v>
       </c>
@@ -9015,7 +9015,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="129" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A129" s="2">
         <v>128</v>
       </c>
@@ -9060,7 +9060,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="130" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A130" s="2">
         <v>129</v>
       </c>
@@ -9105,7 +9105,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="131" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A131" s="2">
         <v>130</v>
       </c>
@@ -9150,7 +9150,7 @@
       </c>
       <c r="N131" s="5"/>
     </row>
-    <row r="132" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A132" s="2">
         <v>131</v>
       </c>
@@ -9195,7 +9195,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="133" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A133" s="2">
         <v>132</v>
       </c>
@@ -9240,7 +9240,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="134" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A134" s="2">
         <v>133</v>
       </c>
@@ -9285,7 +9285,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="135" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A135" s="2">
         <v>134</v>
       </c>
@@ -9330,7 +9330,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="136" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A136" s="2">
         <v>135</v>
       </c>
@@ -9375,7 +9375,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="137" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A137" s="2">
         <v>136</v>
       </c>
@@ -9420,7 +9420,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="138" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A138" s="2">
         <v>137</v>
       </c>
@@ -9465,7 +9465,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="139" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A139" s="2">
         <v>138</v>
       </c>
@@ -9512,7 +9512,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="140" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A140" s="2">
         <v>139</v>
       </c>
@@ -9557,7 +9557,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="141" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A141" s="2">
         <v>140</v>
       </c>
@@ -9602,7 +9602,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="142" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A142" s="2">
         <v>141</v>
       </c>
@@ -9647,7 +9647,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="143" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A143" s="2">
         <v>142</v>
       </c>
@@ -9692,7 +9692,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="144" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A144" s="2">
         <v>143</v>
       </c>
@@ -9737,7 +9737,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="145" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A145" s="2">
         <v>144</v>
       </c>
@@ -9782,7 +9782,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="146" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A146" s="2">
         <v>145</v>
       </c>
@@ -9827,7 +9827,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="147" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A147" s="2">
         <v>146</v>
       </c>
@@ -9872,7 +9872,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="148" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A148" s="2">
         <v>147</v>
       </c>
@@ -9917,7 +9917,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="149" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A149" s="2">
         <v>148</v>
       </c>
@@ -9962,7 +9962,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="150" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A150" s="2">
         <v>149</v>
       </c>
@@ -10007,7 +10007,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="151" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A151" s="2">
         <v>150</v>
       </c>
@@ -10052,7 +10052,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="152" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A152" s="2">
         <v>151</v>
       </c>
@@ -10097,7 +10097,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="153" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A153" s="2">
         <v>152</v>
       </c>
@@ -10142,7 +10142,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="154" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A154" s="2">
         <v>153</v>
       </c>
@@ -10187,7 +10187,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="155" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A155" s="2">
         <v>154</v>
       </c>
@@ -10232,7 +10232,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="156" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A156" s="2">
         <v>155</v>
       </c>
@@ -10277,7 +10277,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="157" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A157" s="2">
         <v>156</v>
       </c>
@@ -10322,7 +10322,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="158" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A158" s="2">
         <v>157</v>
       </c>
@@ -10367,7 +10367,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="159" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A159" s="2">
         <v>158</v>
       </c>
@@ -10412,7 +10412,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="160" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A160" s="2">
         <v>159</v>
       </c>
@@ -10457,7 +10457,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="161" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A161" s="2">
         <v>160</v>
       </c>
@@ -10502,7 +10502,7 @@
       </c>
       <c r="N161" s="5"/>
     </row>
-    <row r="162" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A162" s="2">
         <v>161</v>
       </c>
@@ -10547,7 +10547,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="163" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A163" s="2">
         <v>162</v>
       </c>
@@ -10592,7 +10592,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="164" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A164" s="2">
         <v>163</v>
       </c>
@@ -10637,7 +10637,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="165" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A165" s="2">
         <v>164</v>
       </c>
@@ -10682,7 +10682,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="166" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A166" s="2">
         <v>165</v>
       </c>
@@ -10727,7 +10727,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="167" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A167" s="2">
         <v>166</v>
       </c>
@@ -10772,7 +10772,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="168" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A168" s="2">
         <v>167</v>
       </c>
@@ -10817,7 +10817,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="169" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A169" s="2">
         <v>168</v>
       </c>
@@ -10862,7 +10862,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="170" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A170" s="2">
         <v>169</v>
       </c>
@@ -10907,7 +10907,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="171" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A171" s="2">
         <v>170</v>
       </c>
@@ -10952,7 +10952,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="172" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A172" s="2">
         <v>171</v>
       </c>
@@ -10997,7 +10997,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="173" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A173" s="2">
         <v>172</v>
       </c>
@@ -11042,7 +11042,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="174" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A174" s="2">
         <v>173</v>
       </c>
@@ -11087,7 +11087,7 @@
       </c>
       <c r="N174" s="5"/>
     </row>
-    <row r="175" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A175" s="2">
         <v>174</v>
       </c>
@@ -11132,7 +11132,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="176" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A176" s="2">
         <v>175</v>
       </c>
@@ -11177,7 +11177,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="177" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A177" s="2">
         <v>176</v>
       </c>
@@ -11222,7 +11222,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="178" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A178" s="2">
         <v>177</v>
       </c>
@@ -11267,7 +11267,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="179" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A179" s="2">
         <v>178</v>
       </c>
@@ -11312,7 +11312,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="180" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A180" s="2">
         <v>179</v>
       </c>
@@ -11357,7 +11357,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="181" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A181" s="2">
         <v>180</v>
       </c>
@@ -11402,7 +11402,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="182" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A182" s="2">
         <v>181</v>
       </c>
@@ -11447,7 +11447,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="183" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A183" s="2">
         <v>182</v>
       </c>
@@ -11492,7 +11492,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="184" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A184" s="2">
         <v>183</v>
       </c>
@@ -11537,7 +11537,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="185" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A185" s="2">
         <v>184</v>
       </c>
@@ -11584,7 +11584,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="186" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A186" s="2">
         <v>185</v>
       </c>
@@ -11631,7 +11631,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="187" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A187" s="2">
         <v>186</v>
       </c>
@@ -11676,7 +11676,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="188" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A188" s="2">
         <v>187</v>
       </c>
@@ -11721,7 +11721,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="189" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A189" s="2">
         <v>188</v>
       </c>
@@ -11766,7 +11766,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="190" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A190" s="2">
         <v>189</v>
       </c>
@@ -11811,7 +11811,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="191" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A191" s="2">
         <v>190</v>
       </c>
@@ -11856,7 +11856,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="192" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A192" s="2">
         <v>191</v>
       </c>
@@ -11901,7 +11901,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="193" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A193" s="2">
         <v>192</v>
       </c>
@@ -11946,7 +11946,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="194" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A194" s="2">
         <v>193</v>
       </c>
@@ -11991,7 +11991,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="195" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A195" s="2">
         <v>194</v>
       </c>
@@ -12036,7 +12036,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="196" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A196" s="2">
         <v>195</v>
       </c>
@@ -12081,7 +12081,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="197" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A197" s="2">
         <v>196</v>
       </c>
@@ -12126,7 +12126,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="198" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A198" s="2">
         <v>197</v>
       </c>
@@ -12171,7 +12171,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="199" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A199" s="2">
         <v>198</v>
       </c>
@@ -12216,7 +12216,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="200" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A200" s="2">
         <v>199</v>
       </c>
@@ -12261,7 +12261,7 @@
       </c>
       <c r="N200" s="6"/>
     </row>
-    <row r="201" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A201" s="2">
         <v>200</v>
       </c>
@@ -12306,7 +12306,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="202" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A202" s="2">
         <v>201</v>
       </c>
@@ -12351,7 +12351,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="203" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A203" s="2">
         <v>202</v>
       </c>
@@ -12396,7 +12396,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="204" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A204" s="2">
         <v>203</v>
       </c>
@@ -12441,7 +12441,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="205" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A205" s="2">
         <v>204</v>
       </c>
@@ -12486,7 +12486,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="206" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A206" s="2">
         <v>205</v>
       </c>
@@ -12531,7 +12531,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="207" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A207" s="2">
         <v>206</v>
       </c>
@@ -12576,7 +12576,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="208" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A208" s="2">
         <v>207</v>
       </c>
@@ -12621,7 +12621,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="209" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A209" s="2">
         <v>208</v>
       </c>
@@ -12666,7 +12666,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="210" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A210" s="2">
         <v>209</v>
       </c>
@@ -12711,7 +12711,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="211" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A211" s="2">
         <v>210</v>
       </c>
@@ -12756,7 +12756,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="212" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A212" s="2">
         <v>211</v>
       </c>
@@ -12801,7 +12801,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="213" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A213" s="2">
         <v>212</v>
       </c>
@@ -12846,7 +12846,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="214" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A214" s="2">
         <v>213</v>
       </c>
@@ -12891,7 +12891,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="215" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A215" s="2">
         <v>214</v>
       </c>
@@ -12936,7 +12936,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="216" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A216" s="2">
         <v>215</v>
       </c>
@@ -12981,7 +12981,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="217" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A217" s="2">
         <v>216</v>
       </c>
@@ -13026,7 +13026,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="218" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A218" s="2">
         <v>217</v>
       </c>
@@ -13071,7 +13071,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="219" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A219" s="2">
         <v>218</v>
       </c>
@@ -13116,7 +13116,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="220" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A220" s="2">
         <v>219</v>
       </c>
@@ -13161,7 +13161,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="221" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A221" s="2">
         <v>220</v>
       </c>
@@ -13206,7 +13206,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="222" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A222" s="2">
         <v>221</v>
       </c>
@@ -13251,7 +13251,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="223" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A223" s="2">
         <v>222</v>
       </c>
@@ -13296,7 +13296,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="224" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A224" s="2">
         <v>223</v>
       </c>
@@ -13341,7 +13341,7 @@
       </c>
       <c r="N224" s="6"/>
     </row>
-    <row r="225" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A225" s="2">
         <v>224</v>
       </c>
@@ -13386,7 +13386,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="226" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A226" s="2">
         <v>225</v>
       </c>
@@ -13431,7 +13431,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="227" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A227" s="2">
         <v>226</v>
       </c>
@@ -13476,7 +13476,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="228" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A228" s="2">
         <v>227</v>
       </c>
@@ -13521,7 +13521,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="229" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A229" s="2">
         <v>228</v>
       </c>
@@ -13566,7 +13566,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="230" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A230" s="2">
         <v>229</v>
       </c>
@@ -13611,7 +13611,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="231" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A231" s="2">
         <v>230</v>
       </c>
@@ -13656,7 +13656,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="232" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A232" s="2">
         <v>231</v>
       </c>
@@ -13701,7 +13701,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="233" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A233" s="2">
         <v>232</v>
       </c>
@@ -13746,7 +13746,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="234" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A234" s="2">
         <v>233</v>
       </c>
@@ -13791,7 +13791,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="235" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A235" s="2">
         <v>234</v>
       </c>
@@ -13836,7 +13836,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="236" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A236" s="2">
         <v>235</v>
       </c>
@@ -13883,7 +13883,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="237" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A237" s="2">
         <v>236</v>
       </c>
@@ -13928,7 +13928,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="238" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A238" s="2">
         <v>237</v>
       </c>
@@ -13973,7 +13973,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="239" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A239" s="2">
         <v>238</v>
       </c>
@@ -14018,7 +14018,7 @@
       </c>
       <c r="N239" s="6"/>
     </row>
-    <row r="240" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A240" s="2">
         <v>239</v>
       </c>
@@ -14063,7 +14063,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="241" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A241" s="2">
         <v>240</v>
       </c>
@@ -14110,7 +14110,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="242" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A242" s="2">
         <v>241</v>
       </c>
@@ -14155,7 +14155,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="243" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A243" s="2">
         <v>242</v>
       </c>
@@ -14200,7 +14200,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="244" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A244" s="2">
         <v>243</v>
       </c>
@@ -14245,7 +14245,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="245" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A245" s="2">
         <v>244</v>
       </c>
@@ -14290,7 +14290,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="246" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A246" s="2">
         <v>245</v>
       </c>
@@ -14335,7 +14335,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="247" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A247" s="2">
         <v>246</v>
       </c>
@@ -14380,7 +14380,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="248" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A248" s="2">
         <v>247</v>
       </c>
@@ -14425,7 +14425,7 @@
       </c>
       <c r="N248" s="6"/>
     </row>
-    <row r="249" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A249" s="2">
         <v>248</v>
       </c>
@@ -14470,7 +14470,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="250" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A250" s="2">
         <v>249</v>
       </c>
@@ -14515,7 +14515,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="251" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A251" s="2">
         <v>250</v>
       </c>
@@ -14560,7 +14560,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="252" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A252" s="2">
         <v>251</v>
       </c>
@@ -14605,7 +14605,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="253" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A253" s="2">
         <v>252</v>
       </c>
@@ -14650,7 +14650,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="254" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A254" s="2">
         <v>253</v>
       </c>
@@ -14695,7 +14695,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="255" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A255" s="2">
         <v>254</v>
       </c>
@@ -14740,7 +14740,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="256" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A256" s="2">
         <v>255</v>
       </c>
@@ -14785,7 +14785,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="257" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A257" s="2">
         <v>256</v>
       </c>
@@ -14830,7 +14830,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="258" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A258" s="2">
         <v>257</v>
       </c>
@@ -14875,7 +14875,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="259" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A259" s="2">
         <v>258</v>
       </c>
@@ -14920,7 +14920,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="260" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A260" s="2">
         <v>259</v>
       </c>
@@ -14965,7 +14965,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="261" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A261" s="2">
         <v>260</v>
       </c>
@@ -15010,7 +15010,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="262" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A262" s="2">
         <v>261</v>
       </c>
@@ -15055,7 +15055,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="263" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A263" s="2">
         <v>262</v>
       </c>
@@ -15100,7 +15100,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="264" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A264" s="2">
         <v>263</v>
       </c>
@@ -15145,7 +15145,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="265" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A265" s="2">
         <v>264</v>
       </c>
@@ -15190,7 +15190,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="266" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A266" s="2">
         <v>265</v>
       </c>
@@ -15235,7 +15235,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="267" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A267" s="2">
         <v>266</v>
       </c>
@@ -15280,7 +15280,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="268" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A268" s="2">
         <v>267</v>
       </c>
@@ -15325,7 +15325,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="269" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A269" s="2">
         <v>268</v>
       </c>
@@ -15370,7 +15370,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="270" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A270" s="2">
         <v>269</v>
       </c>
@@ -15415,7 +15415,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="271" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A271" s="2">
         <v>270</v>
       </c>
@@ -15460,7 +15460,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="272" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A272" s="2">
         <v>271</v>
       </c>
@@ -15505,7 +15505,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="273" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A273" s="2">
         <v>272</v>
       </c>
@@ -15550,7 +15550,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="274" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A274" s="2">
         <v>273</v>
       </c>
@@ -15595,7 +15595,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="275" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A275" s="2">
         <v>274</v>
       </c>
@@ -15640,7 +15640,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="276" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A276" s="2">
         <v>275</v>
       </c>
@@ -15685,7 +15685,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="277" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A277" s="2">
         <v>276</v>
       </c>
@@ -15730,7 +15730,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="278" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A278" s="2">
         <v>277</v>
       </c>
@@ -15775,7 +15775,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="279" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A279" s="2">
         <v>278</v>
       </c>
@@ -15820,7 +15820,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="280" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A280" s="2">
         <v>279</v>
       </c>
@@ -15865,7 +15865,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="281" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A281" s="2">
         <v>280</v>
       </c>
@@ -15910,7 +15910,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="282" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A282" s="2">
         <v>281</v>
       </c>
@@ -15955,7 +15955,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="283" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A283" s="2">
         <v>282</v>
       </c>
@@ -16000,7 +16000,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="284" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A284" s="2">
         <v>283</v>
       </c>
@@ -16045,7 +16045,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="285" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A285" s="2">
         <v>284</v>
       </c>
@@ -16090,7 +16090,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="286" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A286" s="2">
         <v>285</v>
       </c>
@@ -16135,7 +16135,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="287" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A287" s="2">
         <v>286</v>
       </c>
@@ -16180,7 +16180,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="288" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A288" s="2">
         <v>287</v>
       </c>
@@ -16225,7 +16225,7 @@
       </c>
       <c r="N288" s="6"/>
     </row>
-    <row r="289" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A289" s="2">
         <v>288</v>
       </c>
@@ -16270,7 +16270,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="290" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A290" s="2">
         <v>289</v>
       </c>
@@ -16315,7 +16315,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="291" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A291" s="2">
         <v>290</v>
       </c>
@@ -16360,7 +16360,7 @@
       </c>
       <c r="N291" s="6"/>
     </row>
-    <row r="292" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A292" s="2">
         <v>291</v>
       </c>
@@ -16405,7 +16405,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="293" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A293" s="2">
         <v>292</v>
       </c>
@@ -16450,7 +16450,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="294" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A294" s="2">
         <v>293</v>
       </c>
@@ -16495,7 +16495,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="295" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A295" s="2">
         <v>294</v>
       </c>
@@ -16540,7 +16540,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="296" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A296" s="2">
         <v>295</v>
       </c>
@@ -16585,7 +16585,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="297" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A297" s="2">
         <v>296</v>
       </c>
@@ -16630,7 +16630,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="298" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A298" s="2">
         <v>297</v>
       </c>
@@ -16675,7 +16675,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="299" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A299" s="2">
         <v>298</v>
       </c>
@@ -16720,7 +16720,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="300" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A300" s="2">
         <v>299</v>
       </c>
@@ -16765,7 +16765,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="301" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A301" s="2">
         <v>300</v>
       </c>
@@ -16810,7 +16810,7 @@
       </c>
       <c r="N301" s="5"/>
     </row>
-    <row r="302" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A302" s="2">
         <v>301</v>
       </c>
@@ -16855,7 +16855,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="303" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A303" s="2">
         <v>302</v>
       </c>
@@ -16900,7 +16900,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="304" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A304" s="2">
         <v>303</v>
       </c>
@@ -16945,7 +16945,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="305" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A305" s="2">
         <v>304</v>
       </c>
@@ -16990,7 +16990,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="306" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="306" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A306" s="2">
         <v>305</v>
       </c>
@@ -17035,7 +17035,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="307" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="307" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A307" s="2">
         <v>306</v>
       </c>
@@ -17080,7 +17080,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="308" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="308" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A308" s="2">
         <v>307</v>
       </c>
@@ -17127,7 +17127,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="309" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="309" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A309" s="2">
         <v>308</v>
       </c>
@@ -17172,7 +17172,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="310" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="310" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A310" s="2">
         <v>309</v>
       </c>
@@ -17217,7 +17217,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="311" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="311" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A311" s="2">
         <v>310</v>
       </c>
@@ -17262,7 +17262,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="312" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="312" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A312" s="2">
         <v>311</v>
       </c>
@@ -17307,7 +17307,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="313" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="313" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A313" s="2">
         <v>312</v>
       </c>
@@ -17352,7 +17352,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="314" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="314" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A314" s="2">
         <v>313</v>
       </c>
@@ -17397,7 +17397,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="315" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="315" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A315" s="2">
         <v>314</v>
       </c>
@@ -17442,7 +17442,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="316" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="316" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A316" s="2">
         <v>315</v>
       </c>
@@ -17487,7 +17487,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="317" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="317" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A317" s="2">
         <v>316</v>
       </c>
@@ -17532,7 +17532,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="318" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="318" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A318" s="2">
         <v>317</v>
       </c>
@@ -17577,7 +17577,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="319" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="319" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A319" s="2">
         <v>318</v>
       </c>
@@ -17622,7 +17622,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="320" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="320" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A320" s="2">
         <v>319</v>
       </c>
@@ -17667,7 +17667,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="321" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="321" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A321" s="2">
         <v>320</v>
       </c>
@@ -17712,7 +17712,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="322" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="322" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A322" s="2">
         <v>321</v>
       </c>
@@ -17757,7 +17757,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="323" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="323" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A323" s="2">
         <v>322</v>
       </c>
@@ -17802,7 +17802,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="324" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="324" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A324" s="2">
         <v>323</v>
       </c>
@@ -17849,7 +17849,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="325" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="325" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A325" s="2">
         <v>324</v>
       </c>
@@ -17894,7 +17894,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="326" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="326" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A326" s="2">
         <v>325</v>
       </c>
@@ -17939,7 +17939,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="327" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="327" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A327" s="2">
         <v>326</v>
       </c>
@@ -17984,7 +17984,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="328" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="328" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A328" s="2">
         <v>327</v>
       </c>
@@ -18029,7 +18029,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="329" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="329" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A329" s="2">
         <v>328</v>
       </c>
@@ -18074,7 +18074,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="330" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="330" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A330" s="2">
         <v>329</v>
       </c>
@@ -18121,7 +18121,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="331" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="331" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A331" s="2">
         <v>330</v>
       </c>
@@ -18166,7 +18166,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="332" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="332" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A332" s="2">
         <v>331</v>
       </c>
@@ -18211,7 +18211,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="333" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="333" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A333" s="2">
         <v>332</v>
       </c>
@@ -18256,7 +18256,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="334" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="334" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A334" s="2">
         <v>333</v>
       </c>
@@ -18301,7 +18301,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="335" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="335" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A335" s="2">
         <v>334</v>
       </c>
@@ -18346,7 +18346,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="336" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="336" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A336" s="2">
         <v>335</v>
       </c>
@@ -18391,7 +18391,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="337" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="337" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A337" s="2">
         <v>336</v>
       </c>
@@ -18436,7 +18436,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="338" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="338" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A338" s="2">
         <v>337</v>
       </c>
@@ -18481,7 +18481,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="339" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="339" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A339" s="2">
         <v>338</v>
       </c>
@@ -18526,7 +18526,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="340" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="340" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A340" s="2">
         <v>339</v>
       </c>
@@ -18571,7 +18571,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="341" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="341" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A341" s="2">
         <v>340</v>
       </c>
@@ -18616,7 +18616,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="342" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="342" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A342" s="2">
         <v>341</v>
       </c>
@@ -18661,7 +18661,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="343" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="343" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A343" s="2">
         <v>342</v>
       </c>
@@ -18706,7 +18706,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="344" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="344" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A344" s="2">
         <v>343</v>
       </c>
@@ -18751,7 +18751,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="345" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="345" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A345" s="2">
         <v>344</v>
       </c>
@@ -18796,7 +18796,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="346" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="346" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A346" s="2">
         <v>345</v>
       </c>
@@ -18841,7 +18841,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="347" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="347" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A347" s="2">
         <v>346</v>
       </c>
@@ -18886,7 +18886,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="348" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="348" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A348" s="2">
         <v>347</v>
       </c>
@@ -18931,7 +18931,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="349" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="349" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A349" s="2">
         <v>348</v>
       </c>
@@ -18976,7 +18976,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="350" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="350" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A350" s="2">
         <v>349</v>
       </c>
@@ -19021,7 +19021,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="351" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="351" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A351" s="2">
         <v>350</v>
       </c>
@@ -19066,7 +19066,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="352" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="352" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A352" s="2">
         <v>351</v>
       </c>
@@ -19111,7 +19111,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="353" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="353" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A353" s="2">
         <v>352</v>
       </c>
@@ -19156,7 +19156,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="354" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="354" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A354" s="2">
         <v>353</v>
       </c>
@@ -19201,7 +19201,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="355" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="355" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A355" s="2">
         <v>354</v>
       </c>
@@ -19246,7 +19246,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="356" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="356" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A356" s="2">
         <v>355</v>
       </c>
@@ -19291,7 +19291,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="357" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="357" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A357" s="2">
         <v>356</v>
       </c>
@@ -19336,7 +19336,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="358" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="358" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A358" s="2">
         <v>357</v>
       </c>
@@ -19381,7 +19381,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="359" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="359" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A359" s="2">
         <v>358</v>
       </c>
@@ -19426,7 +19426,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="360" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="360" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A360" s="2">
         <v>359</v>
       </c>
@@ -19471,7 +19471,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="361" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="361" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A361" s="2">
         <v>360</v>
       </c>
@@ -19516,7 +19516,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="362" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="362" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A362" s="2">
         <v>361</v>
       </c>
@@ -19561,7 +19561,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="363" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="363" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A363" s="2">
         <v>362</v>
       </c>
@@ -19606,7 +19606,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="364" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="364" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A364" s="2">
         <v>363</v>
       </c>
@@ -19651,7 +19651,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="365" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="365" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A365" s="2">
         <v>364</v>
       </c>
@@ -19696,7 +19696,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="366" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="366" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A366" s="2">
         <v>365</v>
       </c>
@@ -19741,7 +19741,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="367" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="367" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A367" s="2">
         <v>366</v>
       </c>
@@ -19786,7 +19786,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="368" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="368" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A368" s="2">
         <v>367</v>
       </c>
@@ -19831,7 +19831,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="369" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="369" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A369" s="2">
         <v>368</v>
       </c>
@@ -19876,7 +19876,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="370" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="370" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A370" s="2">
         <v>369</v>
       </c>
@@ -19921,7 +19921,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="371" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="371" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A371" s="2">
         <v>370</v>
       </c>
@@ -19966,7 +19966,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="372" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="372" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A372" s="2">
         <v>371</v>
       </c>
@@ -20011,7 +20011,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="373" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="373" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A373" s="2">
         <v>372</v>
       </c>
@@ -20056,7 +20056,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="374" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="374" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A374" s="2">
         <v>373</v>
       </c>
@@ -20101,7 +20101,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="375" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="375" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A375" s="2">
         <v>374</v>
       </c>
@@ -20146,7 +20146,7 @@
       </c>
       <c r="N375" s="5"/>
     </row>
-    <row r="376" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="376" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A376" s="2">
         <v>375</v>
       </c>
@@ -20191,7 +20191,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="377" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="377" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A377" s="2">
         <v>376</v>
       </c>
@@ -20236,7 +20236,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="378" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="378" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A378" s="2">
         <v>377</v>
       </c>
@@ -20281,7 +20281,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="379" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="379" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A379" s="2">
         <v>378</v>
       </c>
@@ -20326,7 +20326,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="380" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="380" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A380" s="2">
         <v>379</v>
       </c>
@@ -20371,7 +20371,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="381" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="381" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A381" s="2">
         <v>380</v>
       </c>
@@ -20416,7 +20416,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="382" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="382" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A382" s="2">
         <v>381</v>
       </c>
@@ -20461,7 +20461,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="383" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="383" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A383" s="2">
         <v>382</v>
       </c>
@@ -20506,7 +20506,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="384" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="384" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A384" s="2">
         <v>383</v>
       </c>
@@ -20551,7 +20551,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="385" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="385" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A385" s="2">
         <v>384</v>
       </c>
@@ -20596,7 +20596,7 @@
       </c>
       <c r="N385" s="5"/>
     </row>
-    <row r="386" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="386" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A386" s="2">
         <v>385</v>
       </c>
@@ -20641,7 +20641,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="387" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="387" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A387" s="2">
         <v>386</v>
       </c>
@@ -20686,7 +20686,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="388" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="388" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A388" s="2">
         <v>387</v>
       </c>
@@ -20731,7 +20731,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="389" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="389" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A389" s="2">
         <v>388</v>
       </c>
@@ -20776,7 +20776,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="390" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="390" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A390" s="2">
         <v>389</v>
       </c>
@@ -20821,7 +20821,7 @@
       </c>
       <c r="N390" s="5"/>
     </row>
-    <row r="391" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="391" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A391" s="2">
         <v>390</v>
       </c>
@@ -20866,7 +20866,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="392" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="392" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A392" s="2">
         <v>391</v>
       </c>
@@ -20911,7 +20911,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="393" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="393" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A393" s="2">
         <v>392</v>
       </c>
@@ -20956,7 +20956,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="394" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="394" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A394" s="2">
         <v>393</v>
       </c>
@@ -21001,7 +21001,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="395" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="395" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A395" s="2">
         <v>394</v>
       </c>
@@ -21046,7 +21046,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="396" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="396" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A396" s="2">
         <v>395</v>
       </c>
@@ -21091,7 +21091,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="397" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="397" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A397" s="2">
         <v>396</v>
       </c>
@@ -21136,7 +21136,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="398" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="398" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A398" s="2">
         <v>397</v>
       </c>
@@ -21181,7 +21181,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="399" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="399" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A399" s="2">
         <v>398</v>
       </c>
@@ -21226,7 +21226,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="400" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="400" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A400" s="2">
         <v>399</v>
       </c>
@@ -21271,7 +21271,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="401" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="401" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A401" s="2">
         <v>400</v>
       </c>
@@ -21336,30 +21336,30 @@
   <dimension ref="A1:N487"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q18" sqref="Q18"/>
+      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H368" sqref="H368"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.26953125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.23046875" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.4609375" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.26953125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.08984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.23046875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.07421875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.53515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.84375" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.4609375" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.53515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.15234375" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.26953125" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.26953125" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.26953125" style="2"/>
+    <col min="11" max="11" width="10.23046875" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.921875" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.921875" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.23046875" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.23046875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>430</v>
       </c>
@@ -21403,7 +21403,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -21446,7 +21446,7 @@
       </c>
       <c r="N2" s="5"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -21489,7 +21489,7 @@
       </c>
       <c r="N3" s="5"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -21532,7 +21532,7 @@
       </c>
       <c r="N4" s="5"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -21575,7 +21575,7 @@
       </c>
       <c r="N5" s="5"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -21622,7 +21622,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -21665,7 +21665,7 @@
       </c>
       <c r="N7" s="5"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -21708,7 +21708,7 @@
       </c>
       <c r="N8" s="5"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -21753,7 +21753,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -21796,7 +21796,7 @@
       </c>
       <c r="N10" s="5"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -21841,7 +21841,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -21884,7 +21884,7 @@
       </c>
       <c r="N12" s="5"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -21927,7 +21927,7 @@
       </c>
       <c r="N13" s="5"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -21970,7 +21970,7 @@
       </c>
       <c r="N14" s="5"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -22015,7 +22015,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -22058,7 +22058,7 @@
       </c>
       <c r="N16" s="5"/>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -22101,7 +22101,7 @@
       </c>
       <c r="N17" s="5"/>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -22144,7 +22144,7 @@
       </c>
       <c r="N18" s="5"/>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -22187,7 +22187,7 @@
       </c>
       <c r="N19" s="5"/>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -22230,7 +22230,7 @@
       </c>
       <c r="N20" s="5"/>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A21" s="2">
         <v>20</v>
       </c>
@@ -22273,7 +22273,7 @@
       </c>
       <c r="N21" s="5"/>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A22" s="2">
         <v>21</v>
       </c>
@@ -22316,7 +22316,7 @@
       </c>
       <c r="N22" s="5"/>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A23" s="2">
         <v>22</v>
       </c>
@@ -22359,7 +22359,7 @@
       </c>
       <c r="N23" s="5"/>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A24" s="2">
         <v>23</v>
       </c>
@@ -22402,7 +22402,7 @@
       </c>
       <c r="N24" s="5"/>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A25" s="2">
         <v>24</v>
       </c>
@@ -22445,7 +22445,7 @@
       </c>
       <c r="N25" s="5"/>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A26" s="2">
         <v>25</v>
       </c>
@@ -22490,7 +22490,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A27" s="2">
         <v>26</v>
       </c>
@@ -22535,7 +22535,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A28" s="2">
         <v>27</v>
       </c>
@@ -22578,7 +22578,7 @@
       </c>
       <c r="N28" s="5"/>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A29" s="2">
         <v>28</v>
       </c>
@@ -22621,7 +22621,7 @@
       </c>
       <c r="N29" s="5"/>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A30" s="2">
         <v>29</v>
       </c>
@@ -22668,7 +22668,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A31" s="2">
         <v>30</v>
       </c>
@@ -22713,7 +22713,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A32" s="2">
         <v>31</v>
       </c>
@@ -22756,7 +22756,7 @@
       </c>
       <c r="N32" s="5"/>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A33" s="2">
         <v>32</v>
       </c>
@@ -22801,7 +22801,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A34" s="2">
         <v>33</v>
       </c>
@@ -22844,7 +22844,7 @@
       </c>
       <c r="N34" s="5"/>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A35" s="2">
         <v>34</v>
       </c>
@@ -22887,7 +22887,7 @@
       </c>
       <c r="N35" s="5"/>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A36" s="2">
         <v>35</v>
       </c>
@@ -22930,7 +22930,7 @@
       </c>
       <c r="N36" s="5"/>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A37" s="2">
         <v>36</v>
       </c>
@@ -22975,7 +22975,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A38" s="2">
         <v>37</v>
       </c>
@@ -23020,7 +23020,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A39" s="2">
         <v>38</v>
       </c>
@@ -23065,7 +23065,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A40" s="2">
         <v>39</v>
       </c>
@@ -23108,7 +23108,7 @@
       </c>
       <c r="N40" s="5"/>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A41" s="2">
         <v>40</v>
       </c>
@@ -23151,7 +23151,7 @@
       </c>
       <c r="N41" s="5"/>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A42" s="2">
         <v>41</v>
       </c>
@@ -23194,7 +23194,7 @@
       </c>
       <c r="N42" s="5"/>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A43" s="2">
         <v>42</v>
       </c>
@@ -23239,7 +23239,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A44" s="2">
         <v>43</v>
       </c>
@@ -23282,7 +23282,7 @@
       </c>
       <c r="N44" s="5"/>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A45" s="2">
         <v>44</v>
       </c>
@@ -23327,7 +23327,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A46" s="2">
         <v>45</v>
       </c>
@@ -23370,7 +23370,7 @@
       </c>
       <c r="N46" s="5"/>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A47" s="2">
         <v>46</v>
       </c>
@@ -23415,7 +23415,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A48" s="2">
         <v>47</v>
       </c>
@@ -23458,7 +23458,7 @@
       </c>
       <c r="N48" s="5"/>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A49" s="2">
         <v>48</v>
       </c>
@@ -23501,7 +23501,7 @@
       </c>
       <c r="N49" s="5"/>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A50" s="2">
         <v>49</v>
       </c>
@@ -23544,7 +23544,7 @@
       </c>
       <c r="N50" s="5"/>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A51" s="2">
         <v>50</v>
       </c>
@@ -23587,7 +23587,7 @@
       </c>
       <c r="N51" s="5"/>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A52" s="2">
         <v>51</v>
       </c>
@@ -23630,7 +23630,7 @@
       </c>
       <c r="N52" s="5"/>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A53" s="2">
         <v>52</v>
       </c>
@@ -23673,7 +23673,7 @@
       </c>
       <c r="N53" s="5"/>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A54" s="2">
         <v>53</v>
       </c>
@@ -23716,7 +23716,7 @@
       </c>
       <c r="N54" s="5"/>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A55" s="2">
         <v>54</v>
       </c>
@@ -23759,7 +23759,7 @@
       </c>
       <c r="N55" s="5"/>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A56" s="2">
         <v>55</v>
       </c>
@@ -23802,7 +23802,7 @@
       </c>
       <c r="N56" s="5"/>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A57" s="2">
         <v>56</v>
       </c>
@@ -23845,7 +23845,7 @@
       </c>
       <c r="N57" s="5"/>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A58" s="2">
         <v>57</v>
       </c>
@@ -23888,7 +23888,7 @@
       </c>
       <c r="N58" s="5"/>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A59" s="2">
         <v>58</v>
       </c>
@@ -23931,7 +23931,7 @@
       </c>
       <c r="N59" s="5"/>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A60" s="2">
         <v>59</v>
       </c>
@@ -23974,7 +23974,7 @@
       </c>
       <c r="N60" s="5"/>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A61" s="2">
         <v>60</v>
       </c>
@@ -24017,7 +24017,7 @@
       </c>
       <c r="N61" s="5"/>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A62" s="2">
         <v>61</v>
       </c>
@@ -24060,7 +24060,7 @@
       </c>
       <c r="N62" s="5"/>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A63" s="2">
         <v>62</v>
       </c>
@@ -24103,7 +24103,7 @@
       </c>
       <c r="N63" s="5"/>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A64" s="2">
         <v>63</v>
       </c>
@@ -24146,7 +24146,7 @@
       </c>
       <c r="N64" s="5"/>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A65" s="2">
         <v>64</v>
       </c>
@@ -24189,7 +24189,7 @@
       </c>
       <c r="N65" s="5"/>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A66" s="2">
         <v>65</v>
       </c>
@@ -24232,7 +24232,7 @@
       </c>
       <c r="N66" s="5"/>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A67" s="2">
         <v>66</v>
       </c>
@@ -24275,7 +24275,7 @@
       </c>
       <c r="N67" s="5"/>
     </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A68" s="2">
         <v>67</v>
       </c>
@@ -24318,7 +24318,7 @@
       </c>
       <c r="N68" s="5"/>
     </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A69" s="2">
         <v>68</v>
       </c>
@@ -24361,7 +24361,7 @@
       </c>
       <c r="N69" s="5"/>
     </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A70" s="2">
         <v>69</v>
       </c>
@@ -24404,7 +24404,7 @@
       </c>
       <c r="N70" s="5"/>
     </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A71" s="2">
         <v>70</v>
       </c>
@@ -24449,7 +24449,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A72" s="2">
         <v>71</v>
       </c>
@@ -24492,7 +24492,7 @@
       </c>
       <c r="N72" s="5"/>
     </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A73" s="2">
         <v>72</v>
       </c>
@@ -24535,7 +24535,7 @@
       </c>
       <c r="N73" s="5"/>
     </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A74" s="2">
         <v>73</v>
       </c>
@@ -24578,7 +24578,7 @@
       </c>
       <c r="N74" s="5"/>
     </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A75" s="2">
         <v>74</v>
       </c>
@@ -24623,7 +24623,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A76" s="2">
         <v>75</v>
       </c>
@@ -24666,7 +24666,7 @@
       </c>
       <c r="N76" s="5"/>
     </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A77" s="2">
         <v>76</v>
       </c>
@@ -24711,7 +24711,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A78" s="2">
         <v>77</v>
       </c>
@@ -24754,7 +24754,7 @@
       </c>
       <c r="N78" s="5"/>
     </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A79" s="2">
         <v>78</v>
       </c>
@@ -24797,7 +24797,7 @@
       </c>
       <c r="N79" s="5"/>
     </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A80" s="2">
         <v>79</v>
       </c>
@@ -24842,7 +24842,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A81" s="2">
         <v>80</v>
       </c>
@@ -24885,7 +24885,7 @@
       </c>
       <c r="N81" s="5"/>
     </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A82" s="2">
         <v>81</v>
       </c>
@@ -24928,7 +24928,7 @@
       </c>
       <c r="N82" s="5"/>
     </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A83" s="2">
         <v>82</v>
       </c>
@@ -24971,7 +24971,7 @@
       </c>
       <c r="N83" s="5"/>
     </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A84" s="2">
         <v>83</v>
       </c>
@@ -25014,7 +25014,7 @@
       </c>
       <c r="N84" s="5"/>
     </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A85" s="2">
         <v>84</v>
       </c>
@@ -25059,7 +25059,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A86" s="2">
         <v>85</v>
       </c>
@@ -25102,7 +25102,7 @@
       </c>
       <c r="N86" s="5"/>
     </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A87" s="2">
         <v>86</v>
       </c>
@@ -25145,7 +25145,7 @@
       </c>
       <c r="N87" s="5"/>
     </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A88" s="2">
         <v>87</v>
       </c>
@@ -25188,7 +25188,7 @@
       </c>
       <c r="N88" s="5"/>
     </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A89" s="2">
         <v>88</v>
       </c>
@@ -25231,7 +25231,7 @@
       </c>
       <c r="N89" s="5"/>
     </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A90" s="2">
         <v>89</v>
       </c>
@@ -25274,7 +25274,7 @@
       </c>
       <c r="N90" s="5"/>
     </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A91" s="2">
         <v>90</v>
       </c>
@@ -25317,7 +25317,7 @@
       </c>
       <c r="N91" s="5"/>
     </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A92" s="2">
         <v>91</v>
       </c>
@@ -25360,7 +25360,7 @@
       </c>
       <c r="N92" s="5"/>
     </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A93" s="2">
         <v>92</v>
       </c>
@@ -25403,7 +25403,7 @@
       </c>
       <c r="N93" s="5"/>
     </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A94" s="2">
         <v>93</v>
       </c>
@@ -25446,7 +25446,7 @@
       </c>
       <c r="N94" s="5"/>
     </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A95" s="2">
         <v>94</v>
       </c>
@@ -25489,7 +25489,7 @@
       </c>
       <c r="N95" s="5"/>
     </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A96" s="2">
         <v>95</v>
       </c>
@@ -25534,7 +25534,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A97" s="2">
         <v>96</v>
       </c>
@@ -25577,7 +25577,7 @@
       </c>
       <c r="N97" s="5"/>
     </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A98" s="2">
         <v>97</v>
       </c>
@@ -25620,7 +25620,7 @@
       </c>
       <c r="N98" s="5"/>
     </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A99" s="2">
         <v>98</v>
       </c>
@@ -25663,7 +25663,7 @@
       </c>
       <c r="N99" s="5"/>
     </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A100" s="2">
         <v>99</v>
       </c>
@@ -25706,7 +25706,7 @@
       </c>
       <c r="N100" s="5"/>
     </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A101" s="2">
         <v>100</v>
       </c>
@@ -25751,7 +25751,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="102" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A102" s="2">
         <v>101</v>
       </c>
@@ -25794,7 +25794,7 @@
       </c>
       <c r="N102" s="5"/>
     </row>
-    <row r="103" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A103" s="2">
         <v>102</v>
       </c>
@@ -25837,7 +25837,7 @@
       </c>
       <c r="N103" s="5"/>
     </row>
-    <row r="104" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A104" s="2">
         <v>103</v>
       </c>
@@ -25880,7 +25880,7 @@
       </c>
       <c r="N104" s="5"/>
     </row>
-    <row r="105" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A105" s="2">
         <v>104</v>
       </c>
@@ -25923,7 +25923,7 @@
       </c>
       <c r="N105" s="5"/>
     </row>
-    <row r="106" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A106" s="2">
         <v>105</v>
       </c>
@@ -25966,7 +25966,7 @@
       </c>
       <c r="N106" s="5"/>
     </row>
-    <row r="107" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A107" s="2">
         <v>106</v>
       </c>
@@ -26009,7 +26009,7 @@
       </c>
       <c r="N107" s="5"/>
     </row>
-    <row r="108" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A108" s="2">
         <v>107</v>
       </c>
@@ -26052,7 +26052,7 @@
       </c>
       <c r="N108" s="5"/>
     </row>
-    <row r="109" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A109" s="2">
         <v>108</v>
       </c>
@@ -26095,7 +26095,7 @@
       </c>
       <c r="N109" s="5"/>
     </row>
-    <row r="110" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A110" s="2">
         <v>109</v>
       </c>
@@ -26138,7 +26138,7 @@
       </c>
       <c r="N110" s="5"/>
     </row>
-    <row r="111" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A111" s="2">
         <v>110</v>
       </c>
@@ -26181,7 +26181,7 @@
       </c>
       <c r="N111" s="5"/>
     </row>
-    <row r="112" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A112" s="2">
         <v>111</v>
       </c>
@@ -26224,7 +26224,7 @@
       </c>
       <c r="N112" s="5"/>
     </row>
-    <row r="113" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A113" s="2">
         <v>112</v>
       </c>
@@ -26267,7 +26267,7 @@
       </c>
       <c r="N113" s="5"/>
     </row>
-    <row r="114" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A114" s="2">
         <v>113</v>
       </c>
@@ -26310,7 +26310,7 @@
       </c>
       <c r="N114" s="5"/>
     </row>
-    <row r="115" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A115" s="2">
         <v>114</v>
       </c>
@@ -26353,7 +26353,7 @@
       </c>
       <c r="N115" s="5"/>
     </row>
-    <row r="116" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A116" s="2">
         <v>115</v>
       </c>
@@ -26396,7 +26396,7 @@
       </c>
       <c r="N116" s="5"/>
     </row>
-    <row r="117" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A117" s="2">
         <v>116</v>
       </c>
@@ -26439,7 +26439,7 @@
       </c>
       <c r="N117" s="5"/>
     </row>
-    <row r="118" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A118" s="2">
         <v>117</v>
       </c>
@@ -26482,7 +26482,7 @@
       </c>
       <c r="N118" s="5"/>
     </row>
-    <row r="119" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A119" s="2">
         <v>118</v>
       </c>
@@ -26525,7 +26525,7 @@
       </c>
       <c r="N119" s="5"/>
     </row>
-    <row r="120" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A120" s="2">
         <v>119</v>
       </c>
@@ -26568,7 +26568,7 @@
       </c>
       <c r="N120" s="5"/>
     </row>
-    <row r="121" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A121" s="2">
         <v>120</v>
       </c>
@@ -26611,7 +26611,7 @@
       </c>
       <c r="N121" s="5"/>
     </row>
-    <row r="122" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A122" s="2">
         <v>121</v>
       </c>
@@ -26654,7 +26654,7 @@
       </c>
       <c r="N122" s="5"/>
     </row>
-    <row r="123" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A123" s="2">
         <v>122</v>
       </c>
@@ -26697,7 +26697,7 @@
       </c>
       <c r="N123" s="5"/>
     </row>
-    <row r="124" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A124" s="2">
         <v>123</v>
       </c>
@@ -26740,7 +26740,7 @@
       </c>
       <c r="N124" s="5"/>
     </row>
-    <row r="125" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A125" s="2">
         <v>124</v>
       </c>
@@ -26783,7 +26783,7 @@
       </c>
       <c r="N125" s="5"/>
     </row>
-    <row r="126" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A126" s="2">
         <v>125</v>
       </c>
@@ -26828,7 +26828,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="127" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A127" s="2">
         <v>126</v>
       </c>
@@ -26871,7 +26871,7 @@
       </c>
       <c r="N127" s="5"/>
     </row>
-    <row r="128" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A128" s="2">
         <v>127</v>
       </c>
@@ -26914,7 +26914,7 @@
       </c>
       <c r="N128" s="5"/>
     </row>
-    <row r="129" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A129" s="2">
         <v>128</v>
       </c>
@@ -26959,7 +26959,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="130" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A130" s="2">
         <v>129</v>
       </c>
@@ -27004,7 +27004,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="131" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A131" s="2">
         <v>130</v>
       </c>
@@ -27047,7 +27047,7 @@
       </c>
       <c r="N131" s="5"/>
     </row>
-    <row r="132" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A132" s="2">
         <v>131</v>
       </c>
@@ -27090,7 +27090,7 @@
       </c>
       <c r="N132" s="5"/>
     </row>
-    <row r="133" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A133" s="2">
         <v>132</v>
       </c>
@@ -27135,7 +27135,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="134" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A134" s="2">
         <v>133</v>
       </c>
@@ -27180,7 +27180,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="135" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A135" s="2">
         <v>134</v>
       </c>
@@ -27223,7 +27223,7 @@
       </c>
       <c r="N135" s="5"/>
     </row>
-    <row r="136" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A136" s="2">
         <v>135</v>
       </c>
@@ -27266,7 +27266,7 @@
       </c>
       <c r="N136" s="5"/>
     </row>
-    <row r="137" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A137" s="2">
         <v>136</v>
       </c>
@@ -27309,7 +27309,7 @@
       </c>
       <c r="N137" s="5"/>
     </row>
-    <row r="138" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A138" s="2">
         <v>137</v>
       </c>
@@ -27352,7 +27352,7 @@
       </c>
       <c r="N138" s="5"/>
     </row>
-    <row r="139" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A139" s="2">
         <v>138</v>
       </c>
@@ -27395,7 +27395,7 @@
       </c>
       <c r="N139" s="5"/>
     </row>
-    <row r="140" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A140" s="2">
         <v>139</v>
       </c>
@@ -27438,7 +27438,7 @@
       </c>
       <c r="N140" s="5"/>
     </row>
-    <row r="141" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A141" s="2">
         <v>140</v>
       </c>
@@ -27481,7 +27481,7 @@
       </c>
       <c r="N141" s="5"/>
     </row>
-    <row r="142" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A142" s="2">
         <v>141</v>
       </c>
@@ -27526,7 +27526,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="143" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A143" s="2">
         <v>142</v>
       </c>
@@ -27569,7 +27569,7 @@
       </c>
       <c r="N143" s="5"/>
     </row>
-    <row r="144" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A144" s="2">
         <v>143</v>
       </c>
@@ -27612,7 +27612,7 @@
       </c>
       <c r="N144" s="5"/>
     </row>
-    <row r="145" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A145" s="2">
         <v>144</v>
       </c>
@@ -27655,7 +27655,7 @@
       </c>
       <c r="N145" s="5"/>
     </row>
-    <row r="146" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A146" s="2">
         <v>145</v>
       </c>
@@ -27698,7 +27698,7 @@
       </c>
       <c r="N146" s="5"/>
     </row>
-    <row r="147" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A147" s="2">
         <v>146</v>
       </c>
@@ -27741,7 +27741,7 @@
       </c>
       <c r="N147" s="5"/>
     </row>
-    <row r="148" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A148" s="2">
         <v>147</v>
       </c>
@@ -27784,7 +27784,7 @@
       </c>
       <c r="N148" s="5"/>
     </row>
-    <row r="149" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A149" s="2">
         <v>148</v>
       </c>
@@ -27827,7 +27827,7 @@
       </c>
       <c r="N149" s="5"/>
     </row>
-    <row r="150" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A150" s="2">
         <v>149</v>
       </c>
@@ -27872,7 +27872,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="151" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A151" s="2">
         <v>150</v>
       </c>
@@ -27915,7 +27915,7 @@
       </c>
       <c r="N151" s="5"/>
     </row>
-    <row r="152" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A152" s="2">
         <v>151</v>
       </c>
@@ -27958,7 +27958,7 @@
       </c>
       <c r="N152" s="5"/>
     </row>
-    <row r="153" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A153" s="2">
         <v>152</v>
       </c>
@@ -28001,7 +28001,7 @@
       </c>
       <c r="N153" s="5"/>
     </row>
-    <row r="154" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A154" s="2">
         <v>153</v>
       </c>
@@ -28044,7 +28044,7 @@
       </c>
       <c r="N154" s="5"/>
     </row>
-    <row r="155" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A155" s="2">
         <v>154</v>
       </c>
@@ -28087,7 +28087,7 @@
       </c>
       <c r="N155" s="5"/>
     </row>
-    <row r="156" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A156" s="2">
         <v>155</v>
       </c>
@@ -28130,7 +28130,7 @@
       </c>
       <c r="N156" s="5"/>
     </row>
-    <row r="157" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A157" s="2">
         <v>156</v>
       </c>
@@ -28175,7 +28175,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="158" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A158" s="2">
         <v>157</v>
       </c>
@@ -28218,7 +28218,7 @@
       </c>
       <c r="N158" s="5"/>
     </row>
-    <row r="159" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A159" s="2">
         <v>158</v>
       </c>
@@ -28261,7 +28261,7 @@
       </c>
       <c r="N159" s="5"/>
     </row>
-    <row r="160" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A160" s="2">
         <v>159</v>
       </c>
@@ -28304,7 +28304,7 @@
       </c>
       <c r="N160" s="5"/>
     </row>
-    <row r="161" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A161" s="2">
         <v>160</v>
       </c>
@@ -28347,7 +28347,7 @@
       </c>
       <c r="N161" s="5"/>
     </row>
-    <row r="162" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A162" s="2">
         <v>161</v>
       </c>
@@ -28390,7 +28390,7 @@
       </c>
       <c r="N162" s="5"/>
     </row>
-    <row r="163" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A163" s="2">
         <v>162</v>
       </c>
@@ -28433,7 +28433,7 @@
       </c>
       <c r="N163" s="5"/>
     </row>
-    <row r="164" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A164" s="2">
         <v>163</v>
       </c>
@@ -28476,7 +28476,7 @@
       </c>
       <c r="N164" s="5"/>
     </row>
-    <row r="165" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A165" s="2">
         <v>164</v>
       </c>
@@ -28519,7 +28519,7 @@
       </c>
       <c r="N165" s="5"/>
     </row>
-    <row r="166" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A166" s="2">
         <v>165</v>
       </c>
@@ -28562,7 +28562,7 @@
       </c>
       <c r="N166" s="5"/>
     </row>
-    <row r="167" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A167" s="2">
         <v>166</v>
       </c>
@@ -28605,7 +28605,7 @@
       </c>
       <c r="N167" s="5"/>
     </row>
-    <row r="168" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A168" s="2">
         <v>167</v>
       </c>
@@ -28648,7 +28648,7 @@
       </c>
       <c r="N168" s="5"/>
     </row>
-    <row r="169" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A169" s="2">
         <v>168</v>
       </c>
@@ -28693,7 +28693,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="170" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A170" s="2">
         <v>169</v>
       </c>
@@ -28736,7 +28736,7 @@
       </c>
       <c r="N170" s="5"/>
     </row>
-    <row r="171" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A171" s="2">
         <v>170</v>
       </c>
@@ -28779,7 +28779,7 @@
       </c>
       <c r="N171" s="5"/>
     </row>
-    <row r="172" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A172" s="2">
         <v>171</v>
       </c>
@@ -28822,7 +28822,7 @@
       </c>
       <c r="N172" s="5"/>
     </row>
-    <row r="173" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A173" s="2">
         <v>172</v>
       </c>
@@ -28865,7 +28865,7 @@
       </c>
       <c r="N173" s="5"/>
     </row>
-    <row r="174" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A174" s="2">
         <v>173</v>
       </c>
@@ -28908,7 +28908,7 @@
       </c>
       <c r="N174" s="5"/>
     </row>
-    <row r="175" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A175" s="2">
         <v>174</v>
       </c>
@@ -28951,7 +28951,7 @@
       </c>
       <c r="N175" s="5"/>
     </row>
-    <row r="176" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A176" s="2">
         <v>175</v>
       </c>
@@ -28994,7 +28994,7 @@
       <c r="M176" s="5"/>
       <c r="N176" s="5"/>
     </row>
-    <row r="177" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A177" s="2">
         <v>176</v>
       </c>
@@ -29037,7 +29037,7 @@
       </c>
       <c r="N177" s="5"/>
     </row>
-    <row r="178" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A178" s="2">
         <v>177</v>
       </c>
@@ -29082,7 +29082,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="179" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A179" s="2">
         <v>178</v>
       </c>
@@ -29125,7 +29125,7 @@
       </c>
       <c r="N179" s="5"/>
     </row>
-    <row r="180" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A180" s="2">
         <v>179</v>
       </c>
@@ -29168,7 +29168,7 @@
       </c>
       <c r="N180" s="5"/>
     </row>
-    <row r="181" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A181" s="2">
         <v>180</v>
       </c>
@@ -29211,7 +29211,7 @@
       </c>
       <c r="N181" s="5"/>
     </row>
-    <row r="182" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A182" s="2">
         <v>181</v>
       </c>
@@ -29254,7 +29254,7 @@
       </c>
       <c r="N182" s="5"/>
     </row>
-    <row r="183" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A183" s="2">
         <v>182</v>
       </c>
@@ -29297,7 +29297,7 @@
       </c>
       <c r="N183" s="5"/>
     </row>
-    <row r="184" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A184" s="2">
         <v>183</v>
       </c>
@@ -29340,7 +29340,7 @@
       </c>
       <c r="N184" s="5"/>
     </row>
-    <row r="185" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A185" s="2">
         <v>184</v>
       </c>
@@ -29383,7 +29383,7 @@
       </c>
       <c r="N185" s="5"/>
     </row>
-    <row r="186" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A186" s="2">
         <v>185</v>
       </c>
@@ -29426,7 +29426,7 @@
       </c>
       <c r="N186" s="5"/>
     </row>
-    <row r="187" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A187" s="2">
         <v>186</v>
       </c>
@@ -29469,7 +29469,7 @@
       </c>
       <c r="N187" s="5"/>
     </row>
-    <row r="188" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A188" s="2">
         <v>187</v>
       </c>
@@ -29512,7 +29512,7 @@
       </c>
       <c r="N188" s="5"/>
     </row>
-    <row r="189" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A189" s="2">
         <v>188</v>
       </c>
@@ -29555,7 +29555,7 @@
       </c>
       <c r="N189" s="5"/>
     </row>
-    <row r="190" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A190" s="2">
         <v>189</v>
       </c>
@@ -29598,7 +29598,7 @@
       </c>
       <c r="N190" s="5"/>
     </row>
-    <row r="191" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A191" s="2">
         <v>190</v>
       </c>
@@ -29641,7 +29641,7 @@
       </c>
       <c r="N191" s="5"/>
     </row>
-    <row r="192" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A192" s="2">
         <v>191</v>
       </c>
@@ -29684,7 +29684,7 @@
       </c>
       <c r="N192" s="5"/>
     </row>
-    <row r="193" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A193" s="2">
         <v>192</v>
       </c>
@@ -29727,7 +29727,7 @@
       </c>
       <c r="N193" s="5"/>
     </row>
-    <row r="194" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A194" s="2">
         <v>193</v>
       </c>
@@ -29770,7 +29770,7 @@
       </c>
       <c r="N194" s="5"/>
     </row>
-    <row r="195" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A195" s="2">
         <v>194</v>
       </c>
@@ -29813,7 +29813,7 @@
       </c>
       <c r="N195" s="5"/>
     </row>
-    <row r="196" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A196" s="2">
         <v>195</v>
       </c>
@@ -29856,7 +29856,7 @@
       </c>
       <c r="N196" s="5"/>
     </row>
-    <row r="197" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A197" s="2">
         <v>196</v>
       </c>
@@ -29899,7 +29899,7 @@
       </c>
       <c r="N197" s="5"/>
     </row>
-    <row r="198" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A198" s="2">
         <v>197</v>
       </c>
@@ -29942,7 +29942,7 @@
       </c>
       <c r="N198" s="5"/>
     </row>
-    <row r="199" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A199" s="2">
         <v>198</v>
       </c>
@@ -29985,7 +29985,7 @@
       </c>
       <c r="N199" s="5"/>
     </row>
-    <row r="200" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A200" s="2">
         <v>199</v>
       </c>
@@ -30028,7 +30028,7 @@
       </c>
       <c r="N200" s="5"/>
     </row>
-    <row r="201" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A201" s="2">
         <v>200</v>
       </c>
@@ -30073,7 +30073,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="202" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A202" s="2">
         <v>201</v>
       </c>
@@ -30116,7 +30116,7 @@
       </c>
       <c r="N202" s="5"/>
     </row>
-    <row r="203" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A203" s="2">
         <v>202</v>
       </c>
@@ -30159,7 +30159,7 @@
       </c>
       <c r="N203" s="5"/>
     </row>
-    <row r="204" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A204" s="2">
         <v>203</v>
       </c>
@@ -30204,7 +30204,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="205" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A205" s="2">
         <v>204</v>
       </c>
@@ -30247,7 +30247,7 @@
       </c>
       <c r="N205" s="5"/>
     </row>
-    <row r="206" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A206" s="2">
         <v>205</v>
       </c>
@@ -30290,7 +30290,7 @@
       </c>
       <c r="N206" s="5"/>
     </row>
-    <row r="207" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A207" s="2">
         <v>206</v>
       </c>
@@ -30333,7 +30333,7 @@
       </c>
       <c r="N207" s="5"/>
     </row>
-    <row r="208" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A208" s="2">
         <v>207</v>
       </c>
@@ -30376,7 +30376,7 @@
       </c>
       <c r="N208" s="5"/>
     </row>
-    <row r="209" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A209" s="2">
         <v>208</v>
       </c>
@@ -30419,7 +30419,7 @@
       </c>
       <c r="N209" s="5"/>
     </row>
-    <row r="210" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A210" s="2">
         <v>209</v>
       </c>
@@ -30462,7 +30462,7 @@
       </c>
       <c r="N210" s="5"/>
     </row>
-    <row r="211" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A211" s="2">
         <v>210</v>
       </c>
@@ -30505,7 +30505,7 @@
       </c>
       <c r="N211" s="5"/>
     </row>
-    <row r="212" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A212" s="2">
         <v>211</v>
       </c>
@@ -30548,7 +30548,7 @@
       </c>
       <c r="N212" s="5"/>
     </row>
-    <row r="213" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A213" s="2">
         <v>212</v>
       </c>
@@ -30591,7 +30591,7 @@
       </c>
       <c r="N213" s="5"/>
     </row>
-    <row r="214" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A214" s="2">
         <v>213</v>
       </c>
@@ -30634,7 +30634,7 @@
       </c>
       <c r="N214" s="5"/>
     </row>
-    <row r="215" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A215" s="2">
         <v>214</v>
       </c>
@@ -30677,7 +30677,7 @@
       </c>
       <c r="N215" s="5"/>
     </row>
-    <row r="216" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A216" s="2">
         <v>215</v>
       </c>
@@ -30720,7 +30720,7 @@
       </c>
       <c r="N216" s="5"/>
     </row>
-    <row r="217" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A217" s="2">
         <v>216</v>
       </c>
@@ -30763,7 +30763,7 @@
       </c>
       <c r="N217" s="5"/>
     </row>
-    <row r="218" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A218" s="2">
         <v>217</v>
       </c>
@@ -30806,7 +30806,7 @@
       </c>
       <c r="N218" s="5"/>
     </row>
-    <row r="219" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A219" s="2">
         <v>218</v>
       </c>
@@ -30849,7 +30849,7 @@
       </c>
       <c r="N219" s="5"/>
     </row>
-    <row r="220" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A220" s="2">
         <v>219</v>
       </c>
@@ -30892,7 +30892,7 @@
       </c>
       <c r="N220" s="5"/>
     </row>
-    <row r="221" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A221" s="2">
         <v>220</v>
       </c>
@@ -30935,7 +30935,7 @@
       </c>
       <c r="N221" s="5"/>
     </row>
-    <row r="222" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A222" s="2">
         <v>221</v>
       </c>
@@ -30978,7 +30978,7 @@
       </c>
       <c r="N222" s="5"/>
     </row>
-    <row r="223" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A223" s="2">
         <v>222</v>
       </c>
@@ -31021,7 +31021,7 @@
       </c>
       <c r="N223" s="5"/>
     </row>
-    <row r="224" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A224" s="2">
         <v>223</v>
       </c>
@@ -31064,7 +31064,7 @@
       </c>
       <c r="N224" s="5"/>
     </row>
-    <row r="225" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A225" s="2">
         <v>224</v>
       </c>
@@ -31107,7 +31107,7 @@
       </c>
       <c r="N225" s="5"/>
     </row>
-    <row r="226" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A226" s="2">
         <v>225</v>
       </c>
@@ -31150,7 +31150,7 @@
       </c>
       <c r="N226" s="5"/>
     </row>
-    <row r="227" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A227" s="2">
         <v>226</v>
       </c>
@@ -31193,7 +31193,7 @@
       </c>
       <c r="N227" s="5"/>
     </row>
-    <row r="228" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A228" s="2">
         <v>227</v>
       </c>
@@ -31236,7 +31236,7 @@
       </c>
       <c r="N228" s="5"/>
     </row>
-    <row r="229" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A229" s="2">
         <v>228</v>
       </c>
@@ -31279,7 +31279,7 @@
       </c>
       <c r="N229" s="5"/>
     </row>
-    <row r="230" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A230" s="2">
         <v>229</v>
       </c>
@@ -31322,7 +31322,7 @@
       </c>
       <c r="N230" s="5"/>
     </row>
-    <row r="231" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A231" s="2">
         <v>230</v>
       </c>
@@ -31365,7 +31365,7 @@
       </c>
       <c r="N231" s="5"/>
     </row>
-    <row r="232" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A232" s="2">
         <v>231</v>
       </c>
@@ -31408,7 +31408,7 @@
       </c>
       <c r="N232" s="5"/>
     </row>
-    <row r="233" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A233" s="2">
         <v>232</v>
       </c>
@@ -31451,7 +31451,7 @@
       </c>
       <c r="N233" s="5"/>
     </row>
-    <row r="234" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A234" s="2">
         <v>233</v>
       </c>
@@ -31494,7 +31494,7 @@
       </c>
       <c r="N234" s="5"/>
     </row>
-    <row r="235" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A235" s="2">
         <v>234</v>
       </c>
@@ -31537,7 +31537,7 @@
       </c>
       <c r="N235" s="5"/>
     </row>
-    <row r="236" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A236" s="2">
         <v>235</v>
       </c>
@@ -31580,7 +31580,7 @@
       </c>
       <c r="N236" s="5"/>
     </row>
-    <row r="237" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A237" s="2">
         <v>236</v>
       </c>
@@ -31623,7 +31623,7 @@
       </c>
       <c r="N237" s="5"/>
     </row>
-    <row r="238" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A238" s="2">
         <v>237</v>
       </c>
@@ -31668,7 +31668,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="239" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A239" s="2">
         <v>238</v>
       </c>
@@ -31711,7 +31711,7 @@
       </c>
       <c r="N239" s="5"/>
     </row>
-    <row r="240" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A240" s="2">
         <v>239</v>
       </c>
@@ -31754,7 +31754,7 @@
       </c>
       <c r="N240" s="5"/>
     </row>
-    <row r="241" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A241" s="2">
         <v>240</v>
       </c>
@@ -31797,7 +31797,7 @@
       </c>
       <c r="N241" s="5"/>
     </row>
-    <row r="242" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A242" s="2">
         <v>241</v>
       </c>
@@ -31842,7 +31842,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="243" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A243" s="2">
         <v>242</v>
       </c>
@@ -31885,7 +31885,7 @@
       </c>
       <c r="N243" s="5"/>
     </row>
-    <row r="244" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A244" s="2">
         <v>243</v>
       </c>
@@ -31928,7 +31928,7 @@
       </c>
       <c r="N244" s="5"/>
     </row>
-    <row r="245" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A245" s="2">
         <v>244</v>
       </c>
@@ -31971,7 +31971,7 @@
       </c>
       <c r="N245" s="5"/>
     </row>
-    <row r="246" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A246" s="2">
         <v>245</v>
       </c>
@@ -32014,7 +32014,7 @@
       </c>
       <c r="N246" s="5"/>
     </row>
-    <row r="247" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A247" s="2">
         <v>246</v>
       </c>
@@ -32057,7 +32057,7 @@
       </c>
       <c r="N247" s="5"/>
     </row>
-    <row r="248" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A248" s="2">
         <v>247</v>
       </c>
@@ -32100,7 +32100,7 @@
       </c>
       <c r="N248" s="5"/>
     </row>
-    <row r="249" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A249" s="2">
         <v>248</v>
       </c>
@@ -32145,7 +32145,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="250" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A250" s="2">
         <v>249</v>
       </c>
@@ -32188,7 +32188,7 @@
       </c>
       <c r="N250" s="5"/>
     </row>
-    <row r="251" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A251" s="2">
         <v>250</v>
       </c>
@@ -32231,7 +32231,7 @@
       </c>
       <c r="N251" s="5"/>
     </row>
-    <row r="252" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A252" s="2">
         <v>251</v>
       </c>
@@ -32274,7 +32274,7 @@
       </c>
       <c r="N252" s="5"/>
     </row>
-    <row r="253" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A253" s="2">
         <v>252</v>
       </c>
@@ -32317,7 +32317,7 @@
       </c>
       <c r="N253" s="5"/>
     </row>
-    <row r="254" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A254" s="2">
         <v>253</v>
       </c>
@@ -32360,7 +32360,7 @@
       </c>
       <c r="N254" s="5"/>
     </row>
-    <row r="255" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A255" s="2">
         <v>254</v>
       </c>
@@ -32403,7 +32403,7 @@
       </c>
       <c r="N255" s="5"/>
     </row>
-    <row r="256" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A256" s="2">
         <v>255</v>
       </c>
@@ -32446,7 +32446,7 @@
       </c>
       <c r="N256" s="5"/>
     </row>
-    <row r="257" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A257" s="2">
         <v>256</v>
       </c>
@@ -32489,7 +32489,7 @@
       </c>
       <c r="N257" s="5"/>
     </row>
-    <row r="258" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A258" s="2">
         <v>257</v>
       </c>
@@ -32532,7 +32532,7 @@
       </c>
       <c r="N258" s="5"/>
     </row>
-    <row r="259" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A259" s="2">
         <v>258</v>
       </c>
@@ -32575,7 +32575,7 @@
       </c>
       <c r="N259" s="5"/>
     </row>
-    <row r="260" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A260" s="2">
         <v>259</v>
       </c>
@@ -32618,7 +32618,7 @@
       </c>
       <c r="N260" s="5"/>
     </row>
-    <row r="261" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A261" s="2">
         <v>260</v>
       </c>
@@ -32661,7 +32661,7 @@
       </c>
       <c r="N261" s="5"/>
     </row>
-    <row r="262" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A262" s="2">
         <v>261</v>
       </c>
@@ -32704,7 +32704,7 @@
       </c>
       <c r="N262" s="5"/>
     </row>
-    <row r="263" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A263" s="2">
         <v>262</v>
       </c>
@@ -32747,7 +32747,7 @@
       </c>
       <c r="N263" s="5"/>
     </row>
-    <row r="264" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A264" s="2">
         <v>263</v>
       </c>
@@ -32790,7 +32790,7 @@
       </c>
       <c r="N264" s="5"/>
     </row>
-    <row r="265" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A265" s="2">
         <v>264</v>
       </c>
@@ -32833,7 +32833,7 @@
       </c>
       <c r="N265" s="5"/>
     </row>
-    <row r="266" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A266" s="2">
         <v>265</v>
       </c>
@@ -32876,7 +32876,7 @@
       </c>
       <c r="N266" s="5"/>
     </row>
-    <row r="267" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A267" s="2">
         <v>266</v>
       </c>
@@ -32921,7 +32921,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="268" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A268" s="2">
         <v>267</v>
       </c>
@@ -32966,7 +32966,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="269" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A269" s="2">
         <v>268</v>
       </c>
@@ -33009,7 +33009,7 @@
       </c>
       <c r="N269" s="5"/>
     </row>
-    <row r="270" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A270" s="2">
         <v>269</v>
       </c>
@@ -33052,7 +33052,7 @@
       </c>
       <c r="N270" s="5"/>
     </row>
-    <row r="271" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A271" s="2">
         <v>270</v>
       </c>
@@ -33095,7 +33095,7 @@
       </c>
       <c r="N271" s="5"/>
     </row>
-    <row r="272" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A272" s="2">
         <v>271</v>
       </c>
@@ -33138,7 +33138,7 @@
       </c>
       <c r="N272" s="5"/>
     </row>
-    <row r="273" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A273" s="2">
         <v>272</v>
       </c>
@@ -33181,7 +33181,7 @@
       </c>
       <c r="N273" s="5"/>
     </row>
-    <row r="274" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A274" s="2">
         <v>273</v>
       </c>
@@ -33224,7 +33224,7 @@
       </c>
       <c r="N274" s="5"/>
     </row>
-    <row r="275" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A275" s="2">
         <v>274</v>
       </c>
@@ -33267,7 +33267,7 @@
       </c>
       <c r="N275" s="5"/>
     </row>
-    <row r="276" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A276" s="2">
         <v>275</v>
       </c>
@@ -33310,7 +33310,7 @@
       </c>
       <c r="N276" s="5"/>
     </row>
-    <row r="277" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A277" s="2">
         <v>276</v>
       </c>
@@ -33353,7 +33353,7 @@
       </c>
       <c r="N277" s="5"/>
     </row>
-    <row r="278" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A278" s="2">
         <v>277</v>
       </c>
@@ -33396,7 +33396,7 @@
       </c>
       <c r="N278" s="5"/>
     </row>
-    <row r="279" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A279" s="2">
         <v>278</v>
       </c>
@@ -33439,7 +33439,7 @@
       </c>
       <c r="N279" s="5"/>
     </row>
-    <row r="280" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A280" s="2">
         <v>279</v>
       </c>
@@ -33482,7 +33482,7 @@
       </c>
       <c r="N280" s="5"/>
     </row>
-    <row r="281" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A281" s="2">
         <v>280</v>
       </c>
@@ -33525,7 +33525,7 @@
       </c>
       <c r="N281" s="5"/>
     </row>
-    <row r="282" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A282" s="2">
         <v>281</v>
       </c>
@@ -33568,7 +33568,7 @@
       </c>
       <c r="N282" s="5"/>
     </row>
-    <row r="283" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A283" s="2">
         <v>282</v>
       </c>
@@ -33611,7 +33611,7 @@
       </c>
       <c r="N283" s="5"/>
     </row>
-    <row r="284" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A284" s="2">
         <v>283</v>
       </c>
@@ -33656,7 +33656,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="285" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A285" s="2">
         <v>284</v>
       </c>
@@ -33699,7 +33699,7 @@
       </c>
       <c r="N285" s="5"/>
     </row>
-    <row r="286" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A286" s="2">
         <v>285</v>
       </c>
@@ -33742,7 +33742,7 @@
       </c>
       <c r="N286" s="5"/>
     </row>
-    <row r="287" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A287" s="2">
         <v>286</v>
       </c>
@@ -33785,7 +33785,7 @@
       </c>
       <c r="N287" s="5"/>
     </row>
-    <row r="288" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A288" s="2">
         <v>287</v>
       </c>
@@ -33828,7 +33828,7 @@
       </c>
       <c r="N288" s="5"/>
     </row>
-    <row r="289" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A289" s="2">
         <v>288</v>
       </c>
@@ -33871,7 +33871,7 @@
       </c>
       <c r="N289" s="5"/>
     </row>
-    <row r="290" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A290" s="2">
         <v>289</v>
       </c>
@@ -33914,7 +33914,7 @@
       </c>
       <c r="N290" s="5"/>
     </row>
-    <row r="291" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A291" s="2">
         <v>290</v>
       </c>
@@ -33957,7 +33957,7 @@
       </c>
       <c r="N291" s="5"/>
     </row>
-    <row r="292" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A292" s="2">
         <v>291</v>
       </c>
@@ -34000,7 +34000,7 @@
       </c>
       <c r="N292" s="5"/>
     </row>
-    <row r="293" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A293" s="2">
         <v>292</v>
       </c>
@@ -34043,7 +34043,7 @@
       </c>
       <c r="N293" s="5"/>
     </row>
-    <row r="294" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A294" s="2">
         <v>293</v>
       </c>
@@ -34086,7 +34086,7 @@
       </c>
       <c r="N294" s="5"/>
     </row>
-    <row r="295" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A295" s="2">
         <v>294</v>
       </c>
@@ -34129,7 +34129,7 @@
       </c>
       <c r="N295" s="5"/>
     </row>
-    <row r="296" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A296" s="2">
         <v>295</v>
       </c>
@@ -34172,7 +34172,7 @@
       </c>
       <c r="N296" s="5"/>
     </row>
-    <row r="297" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A297" s="2">
         <v>296</v>
       </c>
@@ -34215,7 +34215,7 @@
       </c>
       <c r="N297" s="5"/>
     </row>
-    <row r="298" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A298" s="2">
         <v>297</v>
       </c>
@@ -34258,7 +34258,7 @@
       </c>
       <c r="N298" s="5"/>
     </row>
-    <row r="299" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A299" s="2">
         <v>298</v>
       </c>
@@ -34301,7 +34301,7 @@
       </c>
       <c r="N299" s="5"/>
     </row>
-    <row r="300" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A300" s="2">
         <v>299</v>
       </c>
@@ -34344,7 +34344,7 @@
       </c>
       <c r="N300" s="5"/>
     </row>
-    <row r="301" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A301" s="2">
         <v>300</v>
       </c>
@@ -34387,7 +34387,7 @@
       </c>
       <c r="N301" s="5"/>
     </row>
-    <row r="302" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A302" s="2">
         <v>301</v>
       </c>
@@ -34432,7 +34432,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="303" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A303" s="2">
         <v>302</v>
       </c>
@@ -34477,7 +34477,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="304" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A304" s="2">
         <v>303</v>
       </c>
@@ -34522,7 +34522,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="305" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A305" s="2">
         <v>304</v>
       </c>
@@ -34565,7 +34565,7 @@
       </c>
       <c r="N305" s="5"/>
     </row>
-    <row r="306" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="306" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A306" s="2">
         <v>305</v>
       </c>
@@ -34610,7 +34610,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="307" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="307" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A307" s="2">
         <v>306</v>
       </c>
@@ -34655,7 +34655,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="308" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="308" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A308" s="2">
         <v>307</v>
       </c>
@@ -34698,7 +34698,7 @@
       </c>
       <c r="N308" s="5"/>
     </row>
-    <row r="309" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="309" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A309" s="2">
         <v>308</v>
       </c>
@@ -34741,7 +34741,7 @@
       </c>
       <c r="N309" s="5"/>
     </row>
-    <row r="310" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="310" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A310" s="2">
         <v>309</v>
       </c>
@@ -34784,7 +34784,7 @@
       </c>
       <c r="N310" s="5"/>
     </row>
-    <row r="311" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="311" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A311" s="2">
         <v>310</v>
       </c>
@@ -34827,7 +34827,7 @@
       </c>
       <c r="N311" s="5"/>
     </row>
-    <row r="312" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="312" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A312" s="2">
         <v>311</v>
       </c>
@@ -34872,7 +34872,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="313" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="313" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A313" s="2">
         <v>312</v>
       </c>
@@ -34915,7 +34915,7 @@
       </c>
       <c r="N313" s="5"/>
     </row>
-    <row r="314" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="314" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A314" s="2">
         <v>313</v>
       </c>
@@ -34958,7 +34958,7 @@
       </c>
       <c r="N314" s="5"/>
     </row>
-    <row r="315" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="315" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A315" s="2">
         <v>314</v>
       </c>
@@ -35001,7 +35001,7 @@
       </c>
       <c r="N315" s="5"/>
     </row>
-    <row r="316" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="316" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A316" s="2">
         <v>315</v>
       </c>
@@ -35044,7 +35044,7 @@
       </c>
       <c r="N316" s="5"/>
     </row>
-    <row r="317" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="317" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A317" s="2">
         <v>316</v>
       </c>
@@ -35087,7 +35087,7 @@
       </c>
       <c r="N317" s="5"/>
     </row>
-    <row r="318" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="318" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A318" s="2">
         <v>317</v>
       </c>
@@ -35132,7 +35132,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="319" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="319" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A319" s="2">
         <v>318</v>
       </c>
@@ -35175,7 +35175,7 @@
       </c>
       <c r="N319" s="5"/>
     </row>
-    <row r="320" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="320" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A320" s="2">
         <v>319</v>
       </c>
@@ -35218,7 +35218,7 @@
       </c>
       <c r="N320" s="5"/>
     </row>
-    <row r="321" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="321" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A321" s="2">
         <v>320</v>
       </c>
@@ -35261,7 +35261,7 @@
       </c>
       <c r="N321" s="5"/>
     </row>
-    <row r="322" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="322" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A322" s="2">
         <v>321</v>
       </c>
@@ -35304,7 +35304,7 @@
       </c>
       <c r="N322" s="5"/>
     </row>
-    <row r="323" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="323" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A323" s="2">
         <v>322</v>
       </c>
@@ -35347,7 +35347,7 @@
       </c>
       <c r="N323" s="5"/>
     </row>
-    <row r="324" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="324" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A324" s="2">
         <v>323</v>
       </c>
@@ -35392,7 +35392,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="325" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="325" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A325" s="2">
         <v>324</v>
       </c>
@@ -35435,7 +35435,7 @@
       <c r="M325" s="5"/>
       <c r="N325" s="5"/>
     </row>
-    <row r="326" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="326" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A326" s="2">
         <v>325</v>
       </c>
@@ -35480,7 +35480,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="327" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="327" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A327" s="2">
         <v>326</v>
       </c>
@@ -35525,7 +35525,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="328" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="328" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A328" s="2">
         <v>327</v>
       </c>
@@ -35568,7 +35568,7 @@
       </c>
       <c r="N328" s="5"/>
     </row>
-    <row r="329" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="329" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A329" s="2">
         <v>328</v>
       </c>
@@ -35611,7 +35611,7 @@
       </c>
       <c r="N329" s="5"/>
     </row>
-    <row r="330" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="330" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A330" s="2">
         <v>329</v>
       </c>
@@ -35656,7 +35656,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="331" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="331" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A331" s="2">
         <v>330</v>
       </c>
@@ -35699,7 +35699,7 @@
       </c>
       <c r="N331" s="5"/>
     </row>
-    <row r="332" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="332" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A332" s="2">
         <v>331</v>
       </c>
@@ -35742,7 +35742,7 @@
       </c>
       <c r="N332" s="5"/>
     </row>
-    <row r="333" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="333" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A333" s="2">
         <v>332</v>
       </c>
@@ -35787,7 +35787,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="334" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="334" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A334" s="2">
         <v>333</v>
       </c>
@@ -35830,7 +35830,7 @@
       </c>
       <c r="N334" s="5"/>
     </row>
-    <row r="335" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="335" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A335" s="2">
         <v>334</v>
       </c>
@@ -35873,7 +35873,7 @@
       </c>
       <c r="N335" s="5"/>
     </row>
-    <row r="336" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="336" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A336" s="2">
         <v>335</v>
       </c>
@@ -35916,7 +35916,7 @@
       </c>
       <c r="N336" s="5"/>
     </row>
-    <row r="337" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="337" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A337" s="2">
         <v>336</v>
       </c>
@@ -35959,7 +35959,7 @@
       </c>
       <c r="N337" s="5"/>
     </row>
-    <row r="338" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="338" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A338" s="2">
         <v>337</v>
       </c>
@@ -36002,7 +36002,7 @@
       </c>
       <c r="N338" s="5"/>
     </row>
-    <row r="339" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="339" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A339" s="2">
         <v>338</v>
       </c>
@@ -36045,7 +36045,7 @@
       </c>
       <c r="N339" s="5"/>
     </row>
-    <row r="340" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="340" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A340" s="2">
         <v>339</v>
       </c>
@@ -36088,7 +36088,7 @@
       </c>
       <c r="N340" s="5"/>
     </row>
-    <row r="341" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="341" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A341" s="2">
         <v>340</v>
       </c>
@@ -36131,7 +36131,7 @@
       </c>
       <c r="N341" s="5"/>
     </row>
-    <row r="342" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="342" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A342" s="2">
         <v>341</v>
       </c>
@@ -36174,7 +36174,7 @@
       </c>
       <c r="N342" s="5"/>
     </row>
-    <row r="343" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="343" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A343" s="2">
         <v>342</v>
       </c>
@@ -36217,7 +36217,7 @@
       </c>
       <c r="N343" s="5"/>
     </row>
-    <row r="344" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="344" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A344" s="2">
         <v>343</v>
       </c>
@@ -36260,7 +36260,7 @@
       </c>
       <c r="N344" s="5"/>
     </row>
-    <row r="345" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="345" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A345" s="2">
         <v>344</v>
       </c>
@@ -36303,7 +36303,7 @@
       </c>
       <c r="N345" s="5"/>
     </row>
-    <row r="346" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="346" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A346" s="2">
         <v>345</v>
       </c>
@@ -36346,7 +36346,7 @@
       </c>
       <c r="N346" s="5"/>
     </row>
-    <row r="347" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="347" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A347" s="2">
         <v>346</v>
       </c>
@@ -36389,7 +36389,7 @@
       </c>
       <c r="N347" s="5"/>
     </row>
-    <row r="348" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="348" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A348" s="2">
         <v>347</v>
       </c>
@@ -36434,7 +36434,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="349" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="349" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A349" s="2">
         <v>348</v>
       </c>
@@ -36477,7 +36477,7 @@
       </c>
       <c r="N349" s="5"/>
     </row>
-    <row r="350" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="350" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A350" s="2">
         <v>349</v>
       </c>
@@ -36520,7 +36520,7 @@
       </c>
       <c r="N350" s="5"/>
     </row>
-    <row r="351" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="351" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A351" s="2">
         <v>350</v>
       </c>
@@ -36563,7 +36563,7 @@
       </c>
       <c r="N351" s="5"/>
     </row>
-    <row r="352" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="352" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A352" s="2">
         <v>351</v>
       </c>
@@ -36606,7 +36606,7 @@
       </c>
       <c r="N352" s="5"/>
     </row>
-    <row r="353" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="353" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A353" s="2">
         <v>352</v>
       </c>
@@ -36649,7 +36649,7 @@
       </c>
       <c r="N353" s="5"/>
     </row>
-    <row r="354" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="354" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A354" s="2">
         <v>353</v>
       </c>
@@ -36692,7 +36692,7 @@
       </c>
       <c r="N354" s="5"/>
     </row>
-    <row r="355" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="355" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A355" s="2">
         <v>354</v>
       </c>
@@ -36735,7 +36735,7 @@
       </c>
       <c r="N355" s="5"/>
     </row>
-    <row r="356" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="356" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A356" s="2">
         <v>355</v>
       </c>
@@ -36778,7 +36778,7 @@
       </c>
       <c r="N356" s="5"/>
     </row>
-    <row r="357" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="357" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A357" s="2">
         <v>356</v>
       </c>
@@ -36821,7 +36821,7 @@
       </c>
       <c r="N357" s="5"/>
     </row>
-    <row r="358" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="358" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A358" s="2">
         <v>357</v>
       </c>
@@ -36864,7 +36864,7 @@
       </c>
       <c r="N358" s="5"/>
     </row>
-    <row r="359" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="359" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A359" s="2">
         <v>358</v>
       </c>
@@ -36907,7 +36907,7 @@
       </c>
       <c r="N359" s="5"/>
     </row>
-    <row r="360" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="360" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A360" s="2">
         <v>359</v>
       </c>
@@ -36950,7 +36950,7 @@
       </c>
       <c r="N360" s="5"/>
     </row>
-    <row r="361" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="361" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A361" s="2">
         <v>360</v>
       </c>
@@ -36993,7 +36993,7 @@
       </c>
       <c r="N361" s="5"/>
     </row>
-    <row r="362" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="362" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A362" s="2">
         <v>361</v>
       </c>
@@ -37036,7 +37036,7 @@
       </c>
       <c r="N362" s="5"/>
     </row>
-    <row r="363" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="363" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A363" s="2">
         <v>362</v>
       </c>
@@ -37079,7 +37079,7 @@
       </c>
       <c r="N363" s="5"/>
     </row>
-    <row r="364" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="364" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A364" s="2">
         <v>363</v>
       </c>
@@ -37122,7 +37122,7 @@
       </c>
       <c r="N364" s="5"/>
     </row>
-    <row r="365" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="365" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A365" s="2">
         <v>364</v>
       </c>
@@ -37165,7 +37165,7 @@
       </c>
       <c r="N365" s="5"/>
     </row>
-    <row r="366" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="366" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A366" s="2">
         <v>365</v>
       </c>
@@ -37208,7 +37208,7 @@
       </c>
       <c r="N366" s="5"/>
     </row>
-    <row r="367" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="367" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A367" s="2">
         <v>366</v>
       </c>
@@ -37251,7 +37251,7 @@
       <c r="M367" s="5"/>
       <c r="N367" s="5"/>
     </row>
-    <row r="368" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="368" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A368" s="2">
         <v>367</v>
       </c>
@@ -37296,7 +37296,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="369" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="369" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A369" s="2">
         <v>368</v>
       </c>
@@ -37339,7 +37339,7 @@
       </c>
       <c r="N369" s="5"/>
     </row>
-    <row r="370" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="370" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A370" s="2">
         <v>369</v>
       </c>
@@ -37382,7 +37382,7 @@
       </c>
       <c r="N370" s="5"/>
     </row>
-    <row r="371" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="371" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A371" s="2">
         <v>370</v>
       </c>
@@ -37425,7 +37425,7 @@
       </c>
       <c r="N371" s="5"/>
     </row>
-    <row r="372" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="372" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A372" s="2">
         <v>371</v>
       </c>
@@ -37468,7 +37468,7 @@
       </c>
       <c r="N372" s="5"/>
     </row>
-    <row r="373" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="373" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A373" s="2">
         <v>372</v>
       </c>
@@ -37513,7 +37513,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="374" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="374" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A374" s="2">
         <v>373</v>
       </c>
@@ -37558,7 +37558,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="375" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="375" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A375" s="2">
         <v>374</v>
       </c>
@@ -37601,7 +37601,7 @@
       </c>
       <c r="N375" s="5"/>
     </row>
-    <row r="376" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="376" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A376" s="2">
         <v>375</v>
       </c>
@@ -37644,7 +37644,7 @@
       </c>
       <c r="N376" s="5"/>
     </row>
-    <row r="377" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="377" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A377" s="2">
         <v>376</v>
       </c>
@@ -37687,7 +37687,7 @@
       </c>
       <c r="N377" s="5"/>
     </row>
-    <row r="378" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="378" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A378" s="2">
         <v>377</v>
       </c>
@@ -37730,7 +37730,7 @@
       </c>
       <c r="N378" s="5"/>
     </row>
-    <row r="379" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="379" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A379" s="2">
         <v>378</v>
       </c>
@@ -37773,7 +37773,7 @@
       </c>
       <c r="N379" s="5"/>
     </row>
-    <row r="380" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="380" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A380" s="2">
         <v>379</v>
       </c>
@@ -37816,7 +37816,7 @@
       </c>
       <c r="N380" s="5"/>
     </row>
-    <row r="381" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="381" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A381" s="2">
         <v>380</v>
       </c>
@@ -37859,7 +37859,7 @@
       </c>
       <c r="N381" s="5"/>
     </row>
-    <row r="382" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="382" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A382" s="2">
         <v>381</v>
       </c>
@@ -37902,7 +37902,7 @@
       </c>
       <c r="N382" s="5"/>
     </row>
-    <row r="383" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="383" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A383" s="2">
         <v>382</v>
       </c>
@@ -37945,7 +37945,7 @@
       </c>
       <c r="N383" s="5"/>
     </row>
-    <row r="384" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="384" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A384" s="2">
         <v>383</v>
       </c>
@@ -37988,7 +37988,7 @@
       </c>
       <c r="N384" s="5"/>
     </row>
-    <row r="385" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="385" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A385" s="2">
         <v>384</v>
       </c>
@@ -38031,7 +38031,7 @@
       </c>
       <c r="N385" s="5"/>
     </row>
-    <row r="386" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="386" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A386" s="2">
         <v>385</v>
       </c>
@@ -38074,7 +38074,7 @@
       </c>
       <c r="N386" s="5"/>
     </row>
-    <row r="387" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="387" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A387" s="2">
         <v>386</v>
       </c>
@@ -38117,7 +38117,7 @@
       </c>
       <c r="N387" s="5"/>
     </row>
-    <row r="388" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="388" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A388" s="2">
         <v>387</v>
       </c>
@@ -38160,7 +38160,7 @@
       </c>
       <c r="N388" s="5"/>
     </row>
-    <row r="389" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="389" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A389" s="2">
         <v>388</v>
       </c>
@@ -38203,7 +38203,7 @@
       </c>
       <c r="N389" s="5"/>
     </row>
-    <row r="390" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="390" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A390" s="2">
         <v>389</v>
       </c>
@@ -38246,7 +38246,7 @@
       </c>
       <c r="N390" s="5"/>
     </row>
-    <row r="391" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="391" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A391" s="2">
         <v>390</v>
       </c>
@@ -38289,7 +38289,7 @@
       </c>
       <c r="N391" s="5"/>
     </row>
-    <row r="392" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="392" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A392" s="2">
         <v>391</v>
       </c>
@@ -38332,7 +38332,7 @@
       </c>
       <c r="N392" s="5"/>
     </row>
-    <row r="393" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="393" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A393" s="2">
         <v>392</v>
       </c>
@@ -38375,7 +38375,7 @@
       </c>
       <c r="N393" s="5"/>
     </row>
-    <row r="394" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="394" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A394" s="2">
         <v>393</v>
       </c>
@@ -38420,7 +38420,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="395" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="395" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A395" s="2">
         <v>394</v>
       </c>
@@ -38463,7 +38463,7 @@
       </c>
       <c r="N395" s="5"/>
     </row>
-    <row r="396" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="396" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A396" s="2">
         <v>395</v>
       </c>
@@ -38506,7 +38506,7 @@
       </c>
       <c r="N396" s="5"/>
     </row>
-    <row r="397" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="397" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A397" s="2">
         <v>396</v>
       </c>
@@ -38549,7 +38549,7 @@
       </c>
       <c r="N397" s="5"/>
     </row>
-    <row r="398" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="398" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A398" s="2">
         <v>397</v>
       </c>
@@ -38592,7 +38592,7 @@
       </c>
       <c r="N398" s="5"/>
     </row>
-    <row r="399" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="399" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A399" s="2">
         <v>398</v>
       </c>
@@ -38635,7 +38635,7 @@
       </c>
       <c r="N399" s="5"/>
     </row>
-    <row r="400" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="400" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A400" s="2">
         <v>399</v>
       </c>
@@ -38678,7 +38678,7 @@
       </c>
       <c r="N400" s="5"/>
     </row>
-    <row r="401" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="401" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A401" s="2">
         <v>400</v>
       </c>
@@ -38721,7 +38721,7 @@
       </c>
       <c r="N401" s="5"/>
     </row>
-    <row r="402" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="402" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A402" s="2">
         <v>401</v>
       </c>
@@ -38764,7 +38764,7 @@
       </c>
       <c r="N402" s="5"/>
     </row>
-    <row r="403" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="403" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A403" s="2">
         <v>402</v>
       </c>
@@ -38807,7 +38807,7 @@
       </c>
       <c r="N403" s="5"/>
     </row>
-    <row r="404" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="404" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A404" s="2">
         <v>403</v>
       </c>
@@ -38850,7 +38850,7 @@
       </c>
       <c r="N404" s="5"/>
     </row>
-    <row r="405" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="405" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A405" s="2">
         <v>404</v>
       </c>
@@ -38895,7 +38895,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="406" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="406" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A406" s="2">
         <v>405</v>
       </c>
@@ -38938,7 +38938,7 @@
       </c>
       <c r="N406" s="5"/>
     </row>
-    <row r="407" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="407" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A407" s="2">
         <v>406</v>
       </c>
@@ -38981,7 +38981,7 @@
       </c>
       <c r="N407" s="5"/>
     </row>
-    <row r="408" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="408" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A408" s="2">
         <v>407</v>
       </c>
@@ -39024,7 +39024,7 @@
       </c>
       <c r="N408" s="5"/>
     </row>
-    <row r="409" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="409" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A409" s="2">
         <v>408</v>
       </c>
@@ -39067,7 +39067,7 @@
       </c>
       <c r="N409" s="5"/>
     </row>
-    <row r="410" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="410" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A410" s="2">
         <v>409</v>
       </c>
@@ -39110,7 +39110,7 @@
       </c>
       <c r="N410" s="5"/>
     </row>
-    <row r="411" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="411" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A411" s="2">
         <v>410</v>
       </c>
@@ -39153,7 +39153,7 @@
       </c>
       <c r="N411" s="5"/>
     </row>
-    <row r="412" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="412" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A412" s="2">
         <v>411</v>
       </c>
@@ -39196,7 +39196,7 @@
       </c>
       <c r="N412" s="5"/>
     </row>
-    <row r="413" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="413" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A413" s="2">
         <v>412</v>
       </c>
@@ -39239,7 +39239,7 @@
       </c>
       <c r="N413" s="5"/>
     </row>
-    <row r="414" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="414" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A414" s="2">
         <v>413</v>
       </c>
@@ -39282,7 +39282,7 @@
       </c>
       <c r="N414" s="5"/>
     </row>
-    <row r="415" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="415" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A415" s="2">
         <v>414</v>
       </c>
@@ -39325,7 +39325,7 @@
       </c>
       <c r="N415" s="5"/>
     </row>
-    <row r="416" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="416" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A416" s="2">
         <v>415</v>
       </c>
@@ -39368,7 +39368,7 @@
       </c>
       <c r="N416" s="5"/>
     </row>
-    <row r="417" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="417" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A417" s="2">
         <v>416</v>
       </c>
@@ -39411,7 +39411,7 @@
       </c>
       <c r="N417" s="5"/>
     </row>
-    <row r="418" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="418" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A418" s="2">
         <v>417</v>
       </c>
@@ -39454,7 +39454,7 @@
       </c>
       <c r="N418" s="5"/>
     </row>
-    <row r="419" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="419" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A419" s="2">
         <v>418</v>
       </c>
@@ -39499,7 +39499,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="420" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="420" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A420" s="2">
         <v>419</v>
       </c>
@@ -39544,7 +39544,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="421" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="421" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A421" s="2">
         <v>420</v>
       </c>
@@ -39587,7 +39587,7 @@
       </c>
       <c r="N421" s="5"/>
     </row>
-    <row r="422" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="422" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A422" s="2">
         <v>421</v>
       </c>
@@ -39632,7 +39632,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="423" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="423" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A423" s="2">
         <v>422</v>
       </c>
@@ -39675,7 +39675,7 @@
       </c>
       <c r="N423" s="5"/>
     </row>
-    <row r="424" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="424" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A424" s="2">
         <v>423</v>
       </c>
@@ -39718,7 +39718,7 @@
       </c>
       <c r="N424" s="5"/>
     </row>
-    <row r="425" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="425" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A425" s="2">
         <v>424</v>
       </c>
@@ -39763,7 +39763,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="426" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="426" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A426" s="2">
         <v>425</v>
       </c>
@@ -39806,7 +39806,7 @@
       </c>
       <c r="N426" s="5"/>
     </row>
-    <row r="427" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="427" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A427" s="2">
         <v>426</v>
       </c>
@@ -39849,7 +39849,7 @@
       </c>
       <c r="N427" s="5"/>
     </row>
-    <row r="428" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="428" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A428" s="2">
         <v>427</v>
       </c>
@@ -39892,7 +39892,7 @@
       </c>
       <c r="N428" s="5"/>
     </row>
-    <row r="429" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="429" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A429" s="2">
         <v>428</v>
       </c>
@@ -39935,7 +39935,7 @@
       </c>
       <c r="N429" s="5"/>
     </row>
-    <row r="430" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="430" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A430" s="2">
         <v>429</v>
       </c>
@@ -39978,7 +39978,7 @@
       </c>
       <c r="N430" s="5"/>
     </row>
-    <row r="431" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="431" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A431" s="2">
         <v>430</v>
       </c>
@@ -40023,7 +40023,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="432" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="432" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A432" s="2">
         <v>431</v>
       </c>
@@ -40066,7 +40066,7 @@
       </c>
       <c r="N432" s="5"/>
     </row>
-    <row r="433" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="433" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A433" s="2">
         <v>432</v>
       </c>
@@ -40109,7 +40109,7 @@
       <c r="M433" s="5"/>
       <c r="N433" s="5"/>
     </row>
-    <row r="434" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="434" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A434" s="2">
         <v>433</v>
       </c>
@@ -40152,7 +40152,7 @@
       </c>
       <c r="N434" s="5"/>
     </row>
-    <row r="435" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="435" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A435" s="2">
         <v>434</v>
       </c>
@@ -40195,7 +40195,7 @@
       </c>
       <c r="N435" s="5"/>
     </row>
-    <row r="436" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="436" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A436" s="2">
         <v>435</v>
       </c>
@@ -40238,7 +40238,7 @@
       </c>
       <c r="N436" s="5"/>
     </row>
-    <row r="437" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="437" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A437" s="2">
         <v>436</v>
       </c>
@@ -40281,7 +40281,7 @@
       </c>
       <c r="N437" s="5"/>
     </row>
-    <row r="438" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="438" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A438" s="2">
         <v>437</v>
       </c>
@@ -40324,7 +40324,7 @@
       </c>
       <c r="N438" s="5"/>
     </row>
-    <row r="439" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="439" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A439" s="2">
         <v>438</v>
       </c>
@@ -40369,7 +40369,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="440" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="440" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A440" s="2">
         <v>439</v>
       </c>
@@ -40412,7 +40412,7 @@
       </c>
       <c r="N440" s="5"/>
     </row>
-    <row r="441" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="441" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A441" s="2">
         <v>440</v>
       </c>
@@ -40455,7 +40455,7 @@
       </c>
       <c r="N441" s="5"/>
     </row>
-    <row r="442" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="442" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A442" s="2">
         <v>441</v>
       </c>
@@ -40498,7 +40498,7 @@
       </c>
       <c r="N442" s="5"/>
     </row>
-    <row r="443" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="443" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A443" s="2">
         <v>442</v>
       </c>
@@ -40541,7 +40541,7 @@
       </c>
       <c r="N443" s="5"/>
     </row>
-    <row r="444" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="444" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A444" s="2">
         <v>443</v>
       </c>
@@ -40584,7 +40584,7 @@
       </c>
       <c r="N444" s="5"/>
     </row>
-    <row r="445" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="445" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A445" s="2">
         <v>444</v>
       </c>
@@ -40627,7 +40627,7 @@
       </c>
       <c r="N445" s="5"/>
     </row>
-    <row r="446" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="446" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A446" s="2">
         <v>445</v>
       </c>
@@ -40670,7 +40670,7 @@
       </c>
       <c r="N446" s="5"/>
     </row>
-    <row r="447" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="447" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A447" s="2">
         <v>446</v>
       </c>
@@ -40713,7 +40713,7 @@
       </c>
       <c r="N447" s="5"/>
     </row>
-    <row r="448" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="448" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A448" s="2">
         <v>447</v>
       </c>
@@ -40756,7 +40756,7 @@
       </c>
       <c r="N448" s="5"/>
     </row>
-    <row r="449" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="449" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A449" s="2">
         <v>448</v>
       </c>
@@ -40801,7 +40801,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="450" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="450" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A450" s="2">
         <v>449</v>
       </c>
@@ -40844,7 +40844,7 @@
       </c>
       <c r="N450" s="5"/>
     </row>
-    <row r="451" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="451" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A451" s="2">
         <v>450</v>
       </c>
@@ -40887,7 +40887,7 @@
       </c>
       <c r="N451" s="5"/>
     </row>
-    <row r="452" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="452" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A452" s="2">
         <v>451</v>
       </c>
@@ -40930,7 +40930,7 @@
       </c>
       <c r="N452" s="5"/>
     </row>
-    <row r="453" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="453" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A453" s="2">
         <v>452</v>
       </c>
@@ -40973,7 +40973,7 @@
       </c>
       <c r="N453" s="5"/>
     </row>
-    <row r="454" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="454" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A454" s="2">
         <v>453</v>
       </c>
@@ -41018,7 +41018,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="455" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="455" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A455" s="2">
         <v>454</v>
       </c>
@@ -41061,7 +41061,7 @@
       </c>
       <c r="N455" s="5"/>
     </row>
-    <row r="456" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="456" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A456" s="2">
         <v>455</v>
       </c>
@@ -41104,7 +41104,7 @@
       </c>
       <c r="N456" s="5"/>
     </row>
-    <row r="457" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="457" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A457" s="2">
         <v>456</v>
       </c>
@@ -41147,7 +41147,7 @@
       </c>
       <c r="N457" s="5"/>
     </row>
-    <row r="458" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="458" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A458" s="2">
         <v>457</v>
       </c>
@@ -41190,7 +41190,7 @@
       </c>
       <c r="N458" s="5"/>
     </row>
-    <row r="459" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="459" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A459" s="2">
         <v>458</v>
       </c>
@@ -41233,7 +41233,7 @@
       </c>
       <c r="N459" s="5"/>
     </row>
-    <row r="460" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="460" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A460" s="2">
         <v>459</v>
       </c>
@@ -41276,7 +41276,7 @@
       </c>
       <c r="N460" s="5"/>
     </row>
-    <row r="461" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="461" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A461" s="2">
         <v>460</v>
       </c>
@@ -41319,7 +41319,7 @@
       </c>
       <c r="N461" s="5"/>
     </row>
-    <row r="462" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="462" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A462" s="2">
         <v>461</v>
       </c>
@@ -41362,7 +41362,7 @@
       </c>
       <c r="N462" s="5"/>
     </row>
-    <row r="463" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="463" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A463" s="2">
         <v>462</v>
       </c>
@@ -41405,7 +41405,7 @@
       </c>
       <c r="N463" s="5"/>
     </row>
-    <row r="464" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="464" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A464" s="2">
         <v>463</v>
       </c>
@@ -41448,7 +41448,7 @@
       </c>
       <c r="N464" s="5"/>
     </row>
-    <row r="465" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="465" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A465" s="2">
         <v>464</v>
       </c>
@@ -41491,7 +41491,7 @@
       </c>
       <c r="N465" s="5"/>
     </row>
-    <row r="466" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="466" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A466" s="2">
         <v>465</v>
       </c>
@@ -41534,7 +41534,7 @@
       </c>
       <c r="N466" s="5"/>
     </row>
-    <row r="467" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="467" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A467" s="2">
         <v>466</v>
       </c>
@@ -41577,7 +41577,7 @@
       </c>
       <c r="N467" s="5"/>
     </row>
-    <row r="468" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="468" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A468" s="2">
         <v>467</v>
       </c>
@@ -41620,7 +41620,7 @@
       </c>
       <c r="N468" s="5"/>
     </row>
-    <row r="469" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="469" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A469" s="2">
         <v>468</v>
       </c>
@@ -41663,7 +41663,7 @@
       </c>
       <c r="N469" s="5"/>
     </row>
-    <row r="470" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="470" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A470" s="2">
         <v>469</v>
       </c>
@@ -41706,7 +41706,7 @@
       </c>
       <c r="N470" s="5"/>
     </row>
-    <row r="471" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="471" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A471" s="2">
         <v>470</v>
       </c>
@@ -41749,7 +41749,7 @@
       </c>
       <c r="N471" s="5"/>
     </row>
-    <row r="472" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="472" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A472" s="2">
         <v>471</v>
       </c>
@@ -41792,7 +41792,7 @@
       </c>
       <c r="N472" s="5"/>
     </row>
-    <row r="473" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="473" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A473" s="2">
         <v>472</v>
       </c>
@@ -41835,7 +41835,7 @@
       </c>
       <c r="N473" s="5"/>
     </row>
-    <row r="474" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="474" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A474" s="2">
         <v>473</v>
       </c>
@@ -41878,7 +41878,7 @@
       </c>
       <c r="N474" s="5"/>
     </row>
-    <row r="475" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="475" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A475" s="2">
         <v>474</v>
       </c>
@@ -41923,7 +41923,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="476" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="476" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A476" s="2">
         <v>475</v>
       </c>
@@ -41966,7 +41966,7 @@
       </c>
       <c r="N476" s="5"/>
     </row>
-    <row r="477" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="477" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A477" s="2">
         <v>476</v>
       </c>
@@ -42009,7 +42009,7 @@
       </c>
       <c r="N477" s="5"/>
     </row>
-    <row r="478" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="478" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A478" s="2">
         <v>477</v>
       </c>
@@ -42054,7 +42054,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="479" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="479" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A479" s="2">
         <v>478</v>
       </c>
@@ -42097,7 +42097,7 @@
       </c>
       <c r="N479" s="5"/>
     </row>
-    <row r="480" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="480" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A480" s="2">
         <v>479</v>
       </c>
@@ -42140,7 +42140,7 @@
       </c>
       <c r="N480" s="5"/>
     </row>
-    <row r="481" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="481" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A481" s="2">
         <v>480</v>
       </c>
@@ -42183,7 +42183,7 @@
       </c>
       <c r="N481" s="5"/>
     </row>
-    <row r="482" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="482" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A482" s="2">
         <v>481</v>
       </c>
@@ -42226,7 +42226,7 @@
       </c>
       <c r="N482" s="5"/>
     </row>
-    <row r="483" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="483" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A483" s="2">
         <v>482</v>
       </c>
@@ -42269,7 +42269,7 @@
       </c>
       <c r="N483" s="5"/>
     </row>
-    <row r="484" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="484" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A484" s="2">
         <v>483</v>
       </c>
@@ -42312,7 +42312,7 @@
       </c>
       <c r="N484" s="5"/>
     </row>
-    <row r="485" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="485" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A485" s="2">
         <v>484</v>
       </c>
@@ -42355,7 +42355,7 @@
       </c>
       <c r="N485" s="5"/>
     </row>
-    <row r="486" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="486" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A486" s="2">
         <v>485</v>
       </c>
@@ -42400,7 +42400,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="487" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="487" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A487" s="2">
         <v>486</v>
       </c>
@@ -42444,7 +42444,7 @@
       <c r="N487" s="5"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:N1" xr:uid="{A0E03589-D8D5-4D15-8D5F-704708B108CC}"/>
+  <autoFilter ref="A1:N487" xr:uid="{A0E03589-D8D5-4D15-8D5F-704708B108CC}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>